--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1320" windowWidth="35600" windowHeight="16060" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="1660" yWindow="0" windowWidth="28620" windowHeight="19480" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="380">
   <si>
     <t>attribuut</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>electricity</t>
-  </si>
-  <si>
-    <t>oilGasChemicals</t>
   </si>
   <si>
     <t>sewer</t>
@@ -932,9 +929,6 @@
     <t>TelecommunicationsAppurtenanceIMKLTypeValue</t>
   </si>
   <si>
-    <t>TelecommunicationsCablematerialTypeValue</t>
-  </si>
-  <si>
     <t>OilGasChemicalsProductTypeValue</t>
   </si>
   <si>
@@ -1070,9 +1064,6 @@
     <t>storageFacility</t>
   </si>
   <si>
-    <t>puntStation</t>
-  </si>
-  <si>
     <t>waterServicePoint</t>
   </si>
   <si>
@@ -1140,9 +1131,6 @@
   </si>
   <si>
     <t>gasStation</t>
-  </si>
-  <si>
-    <t>node</t>
   </si>
   <si>
     <t>marker</t>
@@ -1303,6 +1291,18 @@
   </si>
   <si>
     <t>riolering</t>
+  </si>
+  <si>
+    <t>oilGasChemical</t>
+  </si>
+  <si>
+    <t>oilGasChemicalsNode</t>
+  </si>
+  <si>
+    <t>pumpStation</t>
+  </si>
+  <si>
+    <t>TelecommunicationsCableMaterialTypeValue</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1492,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,7 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2178,19 +2177,19 @@
   </cols>
   <sheetData>
     <row r="22" spans="2:3">
-      <c r="B22" s="36" t="s">
-        <v>282</v>
+      <c r="B22" s="35" t="s">
+        <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2210,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2223,12 +2222,12 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="21.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -2240,4163 +2239,3989 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D29" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="D31" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="C32" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C33" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C34" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="C35" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
-      <c r="A21" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="D48" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
-      <c r="A24" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
-      <c r="A25" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="D49" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1">
+      <c r="A58" t="s">
+        <v>372</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1">
+      <c r="A59" t="s">
+        <v>372</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1">
+      <c r="A60" t="s">
+        <v>372</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1">
+      <c r="A61" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1">
-      <c r="A27" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C61" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1">
+      <c r="A62" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1">
+      <c r="A63" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="E63" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="10" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1">
-      <c r="A57" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1">
-      <c r="A58" t="s">
-        <v>376</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1">
-      <c r="A59" t="s">
-        <v>376</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1">
-      <c r="A60" t="s">
-        <v>376</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1">
-      <c r="A61" t="s">
-        <v>376</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1">
-      <c r="A62" t="s">
-        <v>376</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1">
-      <c r="A63" t="s">
-        <v>376</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1">
-      <c r="A64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1">
       <c r="A65" t="s">
-        <v>376</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="E65" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>259</v>
+      <c r="F65" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
       <c r="A66" t="s">
-        <v>376</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>259</v>
+      <c r="F66" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
       <c r="A67" t="s">
-        <v>376</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="E67" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>259</v>
+      <c r="F67" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1">
       <c r="A68" t="s">
-        <v>376</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="E68" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>259</v>
+      <c r="F68" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1">
       <c r="A69" t="s">
-        <v>376</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>259</v>
+        <v>372</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1">
       <c r="A70" t="s">
-        <v>376</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>259</v>
+        <v>372</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>376</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D71" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>259</v>
+      <c r="F71" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>376</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D72" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>259</v>
+      <c r="F72" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>376</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>259</v>
+        <v>372</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>259</v>
+        <v>372</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1">
       <c r="A75" t="s">
-        <v>376</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>259</v>
+        <v>372</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>377</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D76" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>260</v>
+      <c r="F76" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>377</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D77" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>260</v>
+      <c r="F77" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>377</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>353</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>377</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>353</v>
-      </c>
-      <c r="D79" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>260</v>
+      <c r="F79" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>377</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>353</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>377</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>377</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>353</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>377</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>353</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>377</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>353</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>377</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>207</v>
+        <v>373</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>353</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>377</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>261</v>
+      <c r="E86" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>377</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>261</v>
+        <v>373</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>377</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>261</v>
+        <v>373</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C89" t="s">
-        <v>353</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1">
       <c r="A90" t="s">
-        <v>378</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1">
       <c r="A91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1">
       <c r="A92" t="s">
-        <v>378</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1">
       <c r="A93" t="s">
-        <v>378</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1">
       <c r="A94" t="s">
-        <v>378</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1">
       <c r="A95" t="s">
-        <v>378</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1">
       <c r="A96" t="s">
-        <v>378</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1">
       <c r="A97" t="s">
-        <v>378</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1">
       <c r="A98" t="s">
-        <v>378</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1">
       <c r="A99" t="s">
-        <v>378</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1">
       <c r="A100" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>315</v>
+        <v>374</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1">
       <c r="A101" t="s">
-        <v>378</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>315</v>
+        <v>374</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>378</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>315</v>
+        <v>374</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1">
       <c r="A103" t="s">
-        <v>378</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>315</v>
+        <v>374</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1">
       <c r="A104" t="s">
-        <v>378</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1">
       <c r="A105" t="s">
-        <v>378</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>378</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>378</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>378</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>378</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>378</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>378</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>314</v>
+        <v>374</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>378</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D112" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F112" s="9" t="s">
-        <v>314</v>
+      <c r="F112" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>378</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D113" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="E113" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F113" s="9" t="s">
-        <v>314</v>
+      <c r="F113" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>378</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D114" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E114" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>314</v>
+      <c r="F114" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>378</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D115" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E115" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F115" s="9" t="s">
-        <v>314</v>
+      <c r="F115" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>378</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D116" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="E116" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F116" s="9" t="s">
-        <v>314</v>
+      <c r="F116" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>378</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D117" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>314</v>
+      <c r="F117" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>378</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D118" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>314</v>
+      <c r="F118" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>378</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D119" t="s">
-        <v>330</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>313</v>
+        <v>327</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>378</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D120" t="s">
-        <v>331</v>
-      </c>
-      <c r="E120" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>313</v>
+      <c r="F120" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>378</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D121" t="s">
-        <v>332</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>313</v>
+        <v>328</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>378</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D122" t="s">
-        <v>293</v>
-      </c>
-      <c r="E122" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>313</v>
+      <c r="F122" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>378</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D123" t="s">
-        <v>272</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>313</v>
+        <v>270</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>378</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>313</v>
+        <v>329</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>378</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D125" t="s">
-        <v>334</v>
-      </c>
-      <c r="E125" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>313</v>
+      <c r="F125" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>378</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D126" t="s">
-        <v>335</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>313</v>
+        <v>331</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>378</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D127" t="s">
-        <v>336</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>313</v>
+        <v>332</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>378</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>262</v>
+        <v>374</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>378</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>315</v>
+        <v>374</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>262</v>
+        <v>142</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>262</v>
+        <v>143</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>262</v>
+        <v>144</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>262</v>
+        <v>145</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>262</v>
+        <v>146</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>262</v>
+        <v>147</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>262</v>
+        <v>148</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>262</v>
+        <v>149</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>262</v>
+        <v>150</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>262</v>
+        <v>151</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>262</v>
+        <v>152</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>262</v>
+        <v>153</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>262</v>
+        <v>154</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>262</v>
+        <v>155</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>262</v>
+        <v>156</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>262</v>
+        <v>157</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>262</v>
+        <v>158</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>262</v>
+        <v>159</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>262</v>
+        <v>160</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>262</v>
+        <v>161</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>262</v>
+        <v>162</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>262</v>
+        <v>163</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>262</v>
+        <v>164</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>262</v>
+        <v>165</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>262</v>
+        <v>166</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>262</v>
+        <v>167</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>262</v>
+        <v>168</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>262</v>
+        <v>169</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>262</v>
+        <v>170</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>262</v>
+        <v>171</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>262</v>
+        <v>172</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>262</v>
+        <v>173</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>262</v>
+        <v>174</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>262</v>
+        <v>114</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" thickBot="1">
       <c r="A165" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>262</v>
+        <v>176</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" thickBot="1">
       <c r="A166" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B166" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D166" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F166" s="9" t="s">
-        <v>263</v>
+      <c r="F166" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" thickBot="1">
       <c r="A167" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>263</v>
+        <v>114</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1">
       <c r="A168" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B168" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>263</v>
+        <v>114</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1">
       <c r="A169" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>263</v>
+        <v>114</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" thickBot="1">
       <c r="A170" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B170" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>263</v>
+        <v>114</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" thickBot="1">
       <c r="A171" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="E171" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E171" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F171" s="9" t="s">
-        <v>310</v>
+      <c r="F171" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" thickBot="1">
       <c r="A172" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="E172" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F172" s="9" t="s">
-        <v>310</v>
+      <c r="F172" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15" thickBot="1">
       <c r="A173" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E173" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E173" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F173" s="9" t="s">
-        <v>310</v>
+      <c r="F173" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" thickBot="1">
       <c r="A174" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D174" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E174" s="17" t="s">
+      <c r="E174" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F174" s="9" t="s">
-        <v>310</v>
+      <c r="F174" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" thickBot="1">
       <c r="A175" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E175" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F175" s="9" t="s">
-        <v>310</v>
+      <c r="F175" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" thickBot="1">
       <c r="A176" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D176" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E176" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F176" s="9" t="s">
-        <v>310</v>
+      <c r="F176" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" thickBot="1">
       <c r="A177" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E177" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E177" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F177" s="9" t="s">
-        <v>310</v>
+      <c r="F177" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1">
       <c r="A178" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E178" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E178" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F178" s="9" t="s">
-        <v>310</v>
+      <c r="F178" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" thickBot="1">
       <c r="A179" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E179" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E179" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F179" s="9" t="s">
-        <v>310</v>
+      <c r="F179" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" thickBot="1">
       <c r="A180" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E180" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E180" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F180" s="9" t="s">
-        <v>310</v>
+      <c r="F180" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15" thickBot="1">
       <c r="A181" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E181" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E181" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F181" s="9" t="s">
-        <v>310</v>
+      <c r="F181" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1">
       <c r="A182" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D182" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D182" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E182" s="17" t="s">
+      <c r="E182" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F182" s="9" t="s">
-        <v>310</v>
+      <c r="F182" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" thickBot="1">
       <c r="A183" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D183" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E183" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E183" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F183" s="9" t="s">
-        <v>310</v>
+      <c r="F183" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" thickBot="1">
       <c r="A184" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E184" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F184" s="9" t="s">
-        <v>310</v>
+      <c r="F184" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" thickBot="1">
       <c r="A185" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D185" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F185" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="E185" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" thickBot="1">
       <c r="A186" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E186" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E186" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F186" s="9" t="s">
-        <v>310</v>
+      <c r="F186" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" thickBot="1">
       <c r="A187" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D187" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E187" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E187" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F187" s="9" t="s">
-        <v>310</v>
+      <c r="F187" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" thickBot="1">
       <c r="A188" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B188" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" thickBot="1">
       <c r="A189" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B189" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D189" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" thickBot="1">
       <c r="A190" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" thickBot="1">
       <c r="A191" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D191" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F191" s="9" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15" thickBot="1">
       <c r="A192" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E192" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15" thickBot="1">
       <c r="A193" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D193" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" thickBot="1">
       <c r="A194" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="E194" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F194" s="9" t="s">
-        <v>316</v>
+      <c r="D194" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E194" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" thickBot="1">
       <c r="A195" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B195" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D195" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>265</v>
+        <v>375</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="29" thickBot="1">
       <c r="A196" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="F196" s="9" t="s">
-        <v>265</v>
+        <v>375</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D196" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" thickBot="1">
       <c r="A197" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B197" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E197" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>265</v>
+        <v>375</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" thickBot="1">
       <c r="A198" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B198" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E198" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>265</v>
+        <v>375</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B199" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D199" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B199" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="E199" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>265</v>
+      <c r="C199" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D199" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E199" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D200" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E200" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F200" s="9" t="s">
-        <v>265</v>
+        <v>375</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D200" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E200" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" thickBot="1">
       <c r="A201" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D201" t="s">
-        <v>341</v>
-      </c>
-      <c r="E201" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E201" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F201" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1">
       <c r="A202" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C202" s="14" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D202" t="s">
-        <v>342</v>
-      </c>
-      <c r="E202" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E202" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F202" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" thickBot="1">
       <c r="A203" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D203" t="s">
-        <v>343</v>
-      </c>
-      <c r="E203" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E203" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F203" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" thickBot="1">
       <c r="A204" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D204" t="s">
-        <v>344</v>
-      </c>
-      <c r="E204" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E204" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F204" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" thickBot="1">
       <c r="A205" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D205" t="s">
-        <v>345</v>
-      </c>
-      <c r="E205" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E205" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F205" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1">
       <c r="A206" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D206" t="s">
-        <v>346</v>
-      </c>
-      <c r="E206" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E206" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F206" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>81</v>
@@ -6404,384 +6229,384 @@
       <c r="E207" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F207" s="9" t="s">
-        <v>265</v>
+      <c r="F207" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D208" t="s">
-        <v>317</v>
-      </c>
-      <c r="E208" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E208" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F208" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D209" t="s">
-        <v>318</v>
-      </c>
-      <c r="E209" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E209" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F209" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D210" t="s">
-        <v>319</v>
-      </c>
-      <c r="E210" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E210" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F210" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1">
       <c r="A211" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E211" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F211" s="9" t="s">
-        <v>266</v>
+        <v>375</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" thickBot="1">
       <c r="A212" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C212" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D212" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E212" s="27" t="s">
-        <v>183</v>
+        <v>375</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="F212" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1">
       <c r="A213" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D213" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E213" s="27" t="s">
-        <v>184</v>
+        <v>375</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="F213" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1">
       <c r="A214" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C214" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D214" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E214" s="27" t="s">
-        <v>185</v>
+        <v>375</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="F214" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="D215" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="E215" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="F215" s="9" t="s">
-        <v>265</v>
+        <v>375</v>
+      </c>
+      <c r="C215" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D215" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216" t="s">
-        <v>353</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F216" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>353</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F217" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C218" t="s">
-        <v>353</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F218" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" t="s">
-        <v>353</v>
-      </c>
-      <c r="D219" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D219" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E219" s="11" t="s">
+      <c r="E219" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F219" s="9" t="s">
-        <v>265</v>
+      <c r="F219" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" t="s">
-        <v>353</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F220" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C221" t="s">
-        <v>353</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" t="s">
-        <v>353</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F222" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="70">
       <c r="A223" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" t="s">
-        <v>353</v>
-      </c>
-      <c r="D223" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="E223" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="F223" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E223" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" t="s">
-        <v>353</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" t="s">
-        <v>353</v>
-      </c>
-      <c r="D225" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D225" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E225" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F225" s="9" t="s">
-        <v>265</v>
+      <c r="E225" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C226" t="s">
-        <v>353</v>
-      </c>
-      <c r="F226" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C227" t="s">
-        <v>353</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>265</v>
+        <v>349</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6881,10 +6706,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1">
@@ -6894,7 +6719,7 @@
       <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6905,7 +6730,7 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6916,8 +6741,8 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>186</v>
+      <c r="C4" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
@@ -6927,7 +6752,7 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6938,7 +6763,7 @@
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6949,7 +6774,7 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6960,7 +6785,7 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6971,7 +6796,7 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6982,7 +6807,7 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6993,7 +6818,7 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7004,7 +6829,7 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7015,7 +6840,7 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7026,7 +6851,7 @@
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7037,7 +6862,7 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7048,7 +6873,7 @@
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7059,7 +6884,7 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7070,7 +6895,7 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7081,7 +6906,7 @@
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7092,7 +6917,7 @@
       <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7103,7 +6928,7 @@
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7114,7 +6939,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7125,7 +6950,7 @@
       <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7136,7 +6961,7 @@
       <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7147,7 +6972,7 @@
       <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7158,7 +6983,7 @@
       <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7169,7 +6994,7 @@
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7272,251 +7097,251 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C3" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="D4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="D5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C6" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="A8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="A9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="A10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="A11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
-      <c r="A9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
-      <c r="A11" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>229</v>
+      <c r="D11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1">
-      <c r="A12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>189</v>
+      <c r="D15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7529,11 +7354,11 @@
       <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>217</v>
+      <c r="D16" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7675,7 +7500,7 @@
       <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7686,7 +7511,7 @@
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7697,7 +7522,7 @@
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7708,7 +7533,7 @@
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7719,7 +7544,7 @@
       <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7730,7 +7555,7 @@
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7741,7 +7566,7 @@
       <c r="B35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7752,7 +7577,7 @@
       <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7763,7 +7588,7 @@
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7774,7 +7599,7 @@
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7785,7 +7610,7 @@
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7796,7 +7621,7 @@
       <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7805,10 +7630,10 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7816,10 +7641,10 @@
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7827,10 +7652,10 @@
         <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7838,10 +7663,10 @@
         <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7849,10 +7674,10 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7860,10 +7685,10 @@
         <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7871,10 +7696,10 @@
         <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7882,10 +7707,10 @@
         <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7893,10 +7718,10 @@
         <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7904,10 +7729,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7915,10 +7740,10 @@
         <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7926,10 +7751,10 @@
         <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7937,10 +7762,10 @@
         <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7948,10 +7773,10 @@
         <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7959,10 +7784,10 @@
         <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7970,10 +7795,10 @@
         <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7981,10 +7806,10 @@
         <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7992,10 +7817,10 @@
         <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8003,10 +7828,10 @@
         <v>82</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8014,10 +7839,10 @@
         <v>82</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8025,10 +7850,10 @@
         <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8036,10 +7861,10 @@
         <v>82</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8047,10 +7872,10 @@
         <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8058,10 +7883,10 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8069,10 +7894,10 @@
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8080,10 +7905,10 @@
         <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8091,10 +7916,10 @@
         <v>82</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8102,10 +7927,10 @@
         <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8113,10 +7938,10 @@
         <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8124,10 +7949,10 @@
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8135,10 +7960,10 @@
         <v>82</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8146,10 +7971,10 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8157,10 +7982,10 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8168,10 +7993,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8179,10 +8004,10 @@
         <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8190,10 +8015,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8201,10 +8026,10 @@
         <v>82</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8212,10 +8037,10 @@
         <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8229,12 +8054,12 @@
       <c r="C80" s="1"/>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:F83">
@@ -8293,10 +8118,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1">
@@ -8306,7 +8131,7 @@
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8317,7 +8142,7 @@
       <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8328,7 +8153,7 @@
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8339,7 +8164,7 @@
       <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8350,7 +8175,7 @@
       <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8361,7 +8186,7 @@
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8372,7 +8197,7 @@
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8383,7 +8208,7 @@
       <c r="B9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8394,7 +8219,7 @@
       <c r="B10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8405,7 +8230,7 @@
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8416,7 +8241,7 @@
       <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8427,7 +8252,7 @@
       <c r="B13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8589,10 +8414,10 @@
         <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8600,10 +8425,10 @@
         <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8611,10 +8436,10 @@
         <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8622,10 +8447,10 @@
         <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8633,10 +8458,10 @@
         <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8644,10 +8469,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8655,10 +8480,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8666,10 +8491,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8677,10 +8502,10 @@
         <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8688,10 +8513,10 @@
         <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8699,10 +8524,10 @@
         <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8710,10 +8535,10 @@
         <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8721,10 +8546,10 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8732,10 +8557,10 @@
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8743,10 +8568,10 @@
         <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8754,10 +8579,10 @@
         <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8765,10 +8590,10 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8776,10 +8601,10 @@
         <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8787,10 +8612,10 @@
         <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8798,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8809,10 +8634,10 @@
         <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8820,10 +8645,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8831,10 +8656,10 @@
         <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8842,10 +8667,10 @@
         <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8853,10 +8678,10 @@
         <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8864,10 +8689,10 @@
         <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8875,10 +8700,10 @@
         <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8886,10 +8711,10 @@
         <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8897,10 +8722,10 @@
         <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8908,10 +8733,10 @@
         <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8919,10 +8744,10 @@
         <v>82</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8930,10 +8755,10 @@
         <v>82</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8941,10 +8766,10 @@
         <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8952,10 +8777,10 @@
         <v>82</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8963,10 +8788,10 @@
         <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8974,10 +8799,10 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8985,10 +8810,10 @@
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8996,10 +8821,10 @@
         <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="382">
   <si>
     <t>attribuut</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>TelecommunicationsCableMaterialTypeValue</t>
+  </si>
+  <si>
+    <t>ElectricityAppurtenanceTypeValue</t>
+  </si>
+  <si>
+    <t>connectionBox</t>
   </si>
 </sst>
 </file>
@@ -2211,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3337,13 +3343,13 @@
         <v>349</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1">
@@ -3363,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1">
@@ -3383,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1">
@@ -3403,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
@@ -3423,7 +3429,7 @@
         <v>18</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
@@ -3443,7 +3449,7 @@
         <v>21</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1">
@@ -3463,7 +3469,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1">

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="383">
   <si>
     <t>attribuut</t>
   </si>
@@ -989,9 +989,6 @@
     <t>BasisURL IMKL</t>
   </si>
   <si>
-    <t>http://www.geostandaarden.nl/2015/def/</t>
-  </si>
-  <si>
     <t>http://inspire.ec.europa.eu/codelist/</t>
   </si>
   <si>
@@ -1309,6 +1306,12 @@
   </si>
   <si>
     <t>connectionBox</t>
+  </si>
+  <si>
+    <t>http://www.geonovum.nl/imkl2015/1.0/def/</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -2174,7 +2177,7 @@
   <dimension ref="B22:C23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2184,7 +2187,7 @@
   <sheetData>
     <row r="22" spans="2:3">
       <c r="B22" s="35" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
         <v>279</v>
@@ -2192,15 +2195,15 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" t="s">
         <v>281</v>
-      </c>
-      <c r="C23" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId1" display="http://www.geostandaarden.nl/2015/def/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2215,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2227,13 +2230,13 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="82.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -2250,16 +2253,19 @@
       <c r="F1" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="G1" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>91</v>
@@ -2270,16 +2276,20 @@
       <c r="F2" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="G2" t="str">
+        <f>IF(B2="inspire",INSPIRE,IMKL) &amp; F2 &amp; "/" &amp; D2</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatiePijl</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>92</v>
@@ -2287,16 +2297,20 @@
       <c r="F3" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="G3" t="str">
+        <f>IF(B3="inspire",INSPIRE,IMKL) &amp; F3 &amp; "/" &amp; D3</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLijn</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>93</v>
@@ -2304,10 +2318,14 @@
       <c r="F4" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="G4" t="str">
+        <f>IF(B4="inspire",INSPIRE,IMKL) &amp; F4 &amp; "/" &amp; D4</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLabel</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>82</v>
@@ -2321,10 +2339,14 @@
       <c r="F5" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="G5" t="str">
+        <f>IF(B5="inspire",INSPIRE,IMKL) &amp; F5 &amp; "/" &amp; D5</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PNG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>82</v>
@@ -2338,10 +2360,14 @@
       <c r="F6" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="G6" t="str">
+        <f>IF(B6="inspire",INSPIRE,IMKL) &amp; F6 &amp; "/" &amp; D6</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PDF</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>82</v>
@@ -2355,10 +2381,14 @@
       <c r="F7" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+      <c r="G7" t="str">
+        <f>IF(B7="inspire",INSPIRE,IMKL) &amp; F7 &amp; "/" &amp; D7</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/JPEG</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>82</v>
@@ -2372,16 +2402,20 @@
       <c r="F8" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="G8" t="str">
+        <f>IF(B8="inspire",INSPIRE,IMKL) &amp; F8 &amp; "/" &amp; D8</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/TIFF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>118</v>
@@ -2390,16 +2424,20 @@
       <c r="F9" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
+      <c r="G9" t="str">
+        <f>IF(B9="inspire",INSPIRE,IMKL) &amp; F9 &amp; "/" &amp; D9</f>
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>119</v>
@@ -2408,16 +2446,20 @@
       <c r="F10" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="G10" t="str">
+        <f>IF(B10="inspire",INSPIRE,IMKL) &amp; F10 &amp; "/" &amp; D10</f>
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>120</v>
@@ -2426,16 +2468,20 @@
       <c r="F11" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="G11" t="str">
+        <f>IF(B11="inspire",INSPIRE,IMKL) &amp; F11 &amp; "/" &amp; D11</f>
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>85</v>
@@ -2443,16 +2489,20 @@
       <c r="F12" s="9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G12" t="str">
+        <f>IF(B12="inspire",INSPIRE,IMKL) &amp; F12 &amp; "/" &amp; D12</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>86</v>
@@ -2460,16 +2510,20 @@
       <c r="F13" s="9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G13" t="str">
+        <f>IF(B13="inspire",INSPIRE,IMKL) &amp; F13 &amp; "/" &amp; D13</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>87</v>
@@ -2477,16 +2531,20 @@
       <c r="F14" s="9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="G14" t="str">
+        <f>IF(B14="inspire",INSPIRE,IMKL) &amp; F14 &amp; "/" &amp; D14</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>88</v>
@@ -2494,16 +2552,20 @@
       <c r="F15" s="9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="G15" t="str">
+        <f>IF(B15="inspire",INSPIRE,IMKL) &amp; F15 &amp; "/" &amp; D15</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>101</v>
@@ -2511,16 +2573,20 @@
       <c r="F16" s="9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
+      <c r="G16" t="str">
+        <f>IF(B16="inspire",INSPIRE,IMKL) &amp; F16 &amp; "/" &amp; D16</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/huisaansluiting</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>94</v>
@@ -2528,16 +2594,20 @@
       <c r="F17" s="9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
+      <c r="G17" t="str">
+        <f>IF(B17="inspire",INSPIRE,IMKL) &amp; F17 &amp; "/" &amp; D17</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/lengteprofiel</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>95</v>
@@ -2545,16 +2615,20 @@
       <c r="F18" s="9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="G18" t="str">
+        <f>IF(B18="inspire",INSPIRE,IMKL) &amp; F18 &amp; "/" &amp; D18</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/gestuurdeBoring</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>102</v>
@@ -2562,44 +2636,56 @@
       <c r="F19" s="9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="G19" t="str">
+        <f>IF(B19="inspire",INSPIRE,IMKL) &amp; F19 &amp; "/" &amp; D19</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/dwarsprofiel</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
+        <v>357</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(B20="inspire",INSPIRE,IMKL) &amp; F20 &amp; "/" &amp; D20</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/imkl:extraTopografieTypeValue/eigen</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+        <v>357</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(B21="inspire",INSPIRE,IMKL) &amp; F21 &amp; "/" &amp; D21</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/imkl:extraTopografieTypeValue/ontwerp</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>82</v>
@@ -2613,10 +2699,14 @@
       <c r="F22" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="G22" t="str">
+        <f>IF(B22="inspire",INSPIRE,IMKL) &amp; F22 &amp; "/" &amp; D22</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>82</v>
@@ -2630,10 +2720,14 @@
       <c r="F23" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="G23" t="str">
+        <f>IF(B23="inspire",INSPIRE,IMKL) &amp; F23 &amp; "/" &amp; D23</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>82</v>
@@ -2647,88 +2741,108 @@
       <c r="F24" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="G24" t="str">
+        <f>IF(B24="inspire",INSPIRE,IMKL) &amp; F24 &amp; "/" &amp; D24</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>233</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
+        <v>368</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(B25="inspire",INSPIRE,IMKL) &amp; F25 &amp; "/" &amp; D25</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>231</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
+        <v>368</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(B26="inspire",INSPIRE,IMKL) &amp; F26 &amp; "/" &amp; D26</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>230</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>368</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(B27="inspire",INSPIRE,IMKL) &amp; F27 &amp; "/" &amp; D27</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijl</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>232</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>368</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(B28="inspire",INSPIRE,IMKL) &amp; F28 &amp; "/" &amp; D28</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>132</v>
@@ -2736,16 +2850,20 @@
       <c r="F29" s="9" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="str">
+        <f>IF(B29="inspire",INSPIRE,IMKL) &amp; F29 &amp; "/" &amp; D29</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>121</v>
@@ -2753,19 +2871,23 @@
       <c r="F30" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="str">
+        <f>IF(B30="inspire",INSPIRE,IMKL) &amp; F30 &amp; "/" &amp; D30</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>122</v>
@@ -2773,19 +2895,23 @@
       <c r="F31" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="str">
+        <f>IF(B31="inspire",INSPIRE,IMKL) &amp; F31 &amp; "/" &amp; D31</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>123</v>
@@ -2793,19 +2919,23 @@
       <c r="F32" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="str">
+        <f>IF(B32="inspire",INSPIRE,IMKL) &amp; F32 &amp; "/" &amp; D32</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>124</v>
@@ -2813,19 +2943,23 @@
       <c r="F33" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="str">
+        <f>IF(B33="inspire",INSPIRE,IMKL) &amp; F33 &amp; "/" &amp; D33</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>125</v>
@@ -2833,16 +2967,20 @@
       <c r="F34" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="str">
+        <f>IF(B34="inspire",INSPIRE,IMKL) &amp; F34 &amp; "/" &amp; D34</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>126</v>
@@ -2853,16 +2991,20 @@
       <c r="F35" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="str">
+        <f>IF(B35="inspire",INSPIRE,IMKL) &amp; F35 &amp; "/" &amp; D35</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>127</v>
@@ -2873,16 +3015,20 @@
       <c r="F36" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="str">
+        <f>IF(B36="inspire",INSPIRE,IMKL) &amp; F36 &amp; "/" &amp; D36</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>128</v>
@@ -2893,19 +3039,23 @@
       <c r="F37" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="str">
+        <f>IF(B37="inspire",INSPIRE,IMKL) &amp; F37 &amp; "/" &amp; D37</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>129</v>
@@ -2913,19 +3063,23 @@
       <c r="F38" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="str">
+        <f>IF(B38="inspire",INSPIRE,IMKL) &amp; F38 &amp; "/" &amp; D38</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>130</v>
@@ -2933,16 +3087,20 @@
       <c r="F39" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="str">
+        <f>IF(B39="inspire",INSPIRE,IMKL) &amp; F39 &amp; "/" &amp; D39</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>131</v>
@@ -2953,16 +3111,20 @@
       <c r="F40" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="str">
+        <f>IF(B40="inspire",INSPIRE,IMKL) &amp; F40 &amp; "/" &amp; D40</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>114</v>
@@ -2973,16 +3135,20 @@
       <c r="F41" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="str">
+        <f>IF(B41="inspire",INSPIRE,IMKL) &amp; F41 &amp; "/" &amp; D41</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>133</v>
@@ -2993,16 +3159,20 @@
       <c r="F42" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="str">
+        <f>IF(B42="inspire",INSPIRE,IMKL) &amp; F42 &amp; "/" &amp; D42</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>134</v>
@@ -3013,10 +3183,14 @@
       <c r="F43" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="str">
+        <f>IF(B43="inspire",INSPIRE,IMKL) &amp; F43 &amp; "/" &amp; D43</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>28</v>
@@ -3030,10 +3204,14 @@
       <c r="F44" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="str">
+        <f>IF(B44="inspire",INSPIRE,IMKL) &amp; F44 &amp; "/" &amp; D44</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>28</v>
@@ -3047,10 +3225,14 @@
       <c r="F45" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="str">
+        <f>IF(B45="inspire",INSPIRE,IMKL) &amp; F45 &amp; "/" &amp; D45</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>28</v>
@@ -3064,10 +3246,14 @@
       <c r="F46" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="str">
+        <f>IF(B46="inspire",INSPIRE,IMKL) &amp; F46 &amp; "/" &amp; D46</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>28</v>
@@ -3081,16 +3267,20 @@
       <c r="F47" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="str">
+        <f>IF(B47="inspire",INSPIRE,IMKL) &amp; F47 &amp; "/" &amp; D47</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>112</v>
@@ -3098,33 +3288,41 @@
       <c r="F48" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="str">
+        <f>IF(B48="inspire",INSPIRE,IMKL) &amp; F48 &amp; "/" &amp; D48</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="str">
+        <f>IF(B49="inspire",INSPIRE,IMKL) &amp; F49 &amp; "/" &amp; D49</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>113</v>
@@ -3132,16 +3330,20 @@
       <c r="F50" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="str">
+        <f>IF(B50="inspire",INSPIRE,IMKL) &amp; F50 &amp; "/" &amp; D50</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>114</v>
@@ -3149,16 +3351,20 @@
       <c r="F51" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="str">
+        <f>IF(B51="inspire",INSPIRE,IMKL) &amp; F51 &amp; "/" &amp; D51</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>115</v>
@@ -3166,16 +3372,20 @@
       <c r="F52" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="str">
+        <f>IF(B52="inspire",INSPIRE,IMKL) &amp; F52 &amp; "/" &amp; D52</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>116</v>
@@ -3183,16 +3393,20 @@
       <c r="F53" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="str">
+        <f>IF(B53="inspire",INSPIRE,IMKL) &amp; F53 &amp; "/" &amp; D53</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>117</v>
@@ -3200,16 +3414,20 @@
       <c r="F54" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="str">
+        <f>IF(B54="inspire",INSPIRE,IMKL) &amp; F54 &amp; "/" &amp; D54</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>109</v>
@@ -3217,16 +3435,20 @@
       <c r="F55" s="9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="str">
+        <f>IF(B55="inspire",INSPIRE,IMKL) &amp; F55 &amp; "/" &amp; D55</f>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>110</v>
@@ -3234,16 +3456,20 @@
       <c r="F56" s="9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1">
+      <c r="G56" t="str">
+        <f>IF(B56="inspire",INSPIRE,IMKL) &amp; F56 &amp; "/" &amp; D56</f>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>111</v>
@@ -3251,16 +3477,20 @@
       <c r="F57" s="9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1">
+      <c r="G57" t="str">
+        <f>IF(B57="inspire",INSPIRE,IMKL) &amp; F57 &amp; "/" &amp; D57</f>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1">
       <c r="A58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>68</v>
@@ -3271,16 +3501,20 @@
       <c r="F58" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1">
+      <c r="G58" t="str">
+        <f>IF(B58="inspire",INSPIRE,IMKL) &amp; F58 &amp; "/" &amp; D58</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1">
       <c r="A59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>69</v>
@@ -3291,16 +3525,20 @@
       <c r="F59" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1">
+      <c r="G59" t="str">
+        <f>IF(B59="inspire",INSPIRE,IMKL) &amp; F59 &amp; "/" &amp; D59</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1">
       <c r="A60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>246</v>
@@ -3311,16 +3549,20 @@
       <c r="F60" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1">
+      <c r="G60" t="str">
+        <f>IF(B60="inspire",INSPIRE,IMKL) &amp; F60 &amp; "/" &amp; D60</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>207</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>227</v>
@@ -3331,56 +3573,68 @@
       <c r="F61" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1">
+      <c r="G61" t="str">
+        <f>IF(B61="inspire",INSPIRE,IMKL) &amp; F61 &amp; "/" &amp; D61</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/Adrespunt</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1">
       <c r="A62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(B62="inspire",INSPIRE,IMKL) &amp; F62 &amp; "/" &amp; D62</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1">
       <c r="A63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G63" t="str">
+        <f>IF(B63="inspire",INSPIRE,IMKL) &amp; F63 &amp; "/" &amp; D63</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1">
       <c r="A64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>12</v>
@@ -3389,98 +3643,118 @@
         <v>12</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G64" t="str">
+        <f>IF(B64="inspire",INSPIRE,IMKL) &amp; F64 &amp; "/" &amp; D64</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1">
       <c r="A65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G65" t="str">
+        <f>IF(B65="inspire",INSPIRE,IMKL) &amp; F65 &amp; "/" &amp; D65</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1">
       <c r="A66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G66" t="str">
+        <f>IF(B66="inspire",INSPIRE,IMKL) &amp; F66 &amp; "/" &amp; D66</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1">
       <c r="A67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(B67="inspire",INSPIRE,IMKL) &amp; F67 &amp; "/" &amp; D67</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1">
       <c r="A68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1">
+        <v>379</v>
+      </c>
+      <c r="G68" t="str">
+        <f>IF(B68="inspire",INSPIRE,IMKL) &amp; F68 &amp; "/" &amp; D68</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>266</v>
@@ -3488,16 +3762,20 @@
       <c r="F69" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1">
+      <c r="G69" t="str">
+        <f>IF(B69="inspire",INSPIRE,IMKL) &amp; F69 &amp; "/" &amp; D69</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>273</v>
@@ -3505,16 +3783,20 @@
       <c r="F70" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="str">
+        <f>IF(B70="inspire",INSPIRE,IMKL) &amp; F70 &amp; "/" &amp; D70</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>78</v>
@@ -3525,16 +3807,20 @@
       <c r="F71" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="str">
+        <f>IF(B71="inspire",INSPIRE,IMKL) &amp; F71 &amp; "/" &amp; D71</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>79</v>
@@ -3545,16 +3831,20 @@
       <c r="F72" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="str">
+        <f>IF(B72="inspire",INSPIRE,IMKL) &amp; F72 &amp; "/" &amp; D72</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>275</v>
@@ -3565,19 +3855,23 @@
       <c r="F73" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="str">
+        <f>IF(B73="inspire",INSPIRE,IMKL) &amp; F73 &amp; "/" &amp; D73</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>276</v>
@@ -3585,16 +3879,20 @@
       <c r="F74" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1">
+      <c r="G74" t="str">
+        <f>IF(B74="inspire",INSPIRE,IMKL) &amp; F74 &amp; "/" &amp; D74</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D75" s="33" t="s">
         <v>243</v>
@@ -3605,16 +3903,20 @@
       <c r="F75" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="str">
+        <f>IF(B75="inspire",INSPIRE,IMKL) &amp; F75 &amp; "/" &amp; D75</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>29</v>
@@ -3625,16 +3927,20 @@
       <c r="F76" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="str">
+        <f>IF(B76="inspire",INSPIRE,IMKL) &amp; F76 &amp; "/" &amp; D76</f>
+        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>30</v>
@@ -3645,16 +3951,20 @@
       <c r="F77" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="str">
+        <f>IF(B77="inspire",INSPIRE,IMKL) &amp; F77 &amp; "/" &amp; D77</f>
+        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>190</v>
@@ -3665,16 +3975,20 @@
       <c r="F78" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="str">
+        <f>IF(B78="inspire",INSPIRE,IMKL) &amp; F78 &amp; "/" &amp; D78</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>69</v>
@@ -3685,19 +3999,23 @@
       <c r="F79" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="str">
+        <f>IF(B79="inspire",INSPIRE,IMKL) &amp; F79 &amp; "/" &amp; D79</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>191</v>
@@ -3705,16 +4023,20 @@
       <c r="F80" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="str">
+        <f>IF(B80="inspire",INSPIRE,IMKL) &amp; F80 &amp; "/" &amp; D80</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/verzameltermOndergrondseLeidingelementenOpnemen</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>242</v>
@@ -3725,16 +4047,20 @@
       <c r="F81" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="str">
+        <f>IF(B81="inspire",INSPIRE,IMKL) &amp; F81 &amp; "/" &amp; D81</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>234</v>
@@ -3745,36 +4071,44 @@
       <c r="F82" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="str">
+        <f>IF(B82="inspire",INSPIRE,IMKL) &amp; F82 &amp; "/" &amp; D82</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="str">
+        <f>IF(B83="inspire",INSPIRE,IMKL) &amp; F83 &amp; "/" &amp; D83</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/GTWPOpnemen</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>192</v>
@@ -3785,16 +4119,20 @@
       <c r="F84" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="str">
+        <f>IF(B84="inspire",INSPIRE,IMKL) &amp; F84 &amp; "/" &amp; D84</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>193</v>
@@ -3805,10 +4143,14 @@
       <c r="F85" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="str">
+        <f>IF(B85="inspire",INSPIRE,IMKL) &amp; F85 &amp; "/" &amp; D85</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>28</v>
@@ -3823,12 +4165,16 @@
         <v>136</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>378</v>
+      </c>
+      <c r="G86" t="str">
+        <f>IF(B86="inspire",INSPIRE,IMKL) &amp; F86 &amp; "/" &amp; D86</f>
+        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/coaxial</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>28</v>
@@ -3843,12 +4189,16 @@
         <v>137</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>378</v>
+      </c>
+      <c r="G87" t="str">
+        <f>IF(B87="inspire",INSPIRE,IMKL) &amp; F87 &amp; "/" &amp; D87</f>
+        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>28</v>
@@ -3863,18 +4213,22 @@
         <v>138</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1">
+        <v>378</v>
+      </c>
+      <c r="G88" t="str">
+        <f>IF(B88="inspire",INSPIRE,IMKL) &amp; F88 &amp; "/" &amp; D88</f>
+        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickBot="1">
       <c r="A89" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E89" s="30" t="s">
         <v>266</v>
@@ -3882,296 +4236,356 @@
       <c r="F89" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1">
+      <c r="G89" t="str">
+        <f>IF(B89="inspire",INSPIRE,IMKL) &amp; F89 &amp; "/" &amp; D89</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1">
       <c r="A90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>221</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G90" t="str">
+        <f>IF(B90="inspire",INSPIRE,IMKL) &amp; F90 &amp; "/" &amp; D90</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1">
       <c r="A91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>265</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G91" t="str">
+        <f>IF(B91="inspire",INSPIRE,IMKL) &amp; F91 &amp; "/" &amp; D91</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1">
       <c r="A92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>222</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G92" t="str">
+        <f>IF(B92="inspire",INSPIRE,IMKL) &amp; F92 &amp; "/" &amp; D92</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>236</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G93" t="str">
+        <f>IF(B93="inspire",INSPIRE,IMKL) &amp; F93 &amp; "/" &amp; D93</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1">
       <c r="A94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>237</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G94" t="str">
+        <f>IF(B94="inspire",INSPIRE,IMKL) &amp; F94 &amp; "/" &amp; D94</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1">
       <c r="A95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>238</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G95" t="str">
+        <f>IF(B95="inspire",INSPIRE,IMKL) &amp; F95 &amp; "/" &amp; D95</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>239</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G96" t="str">
+        <f>IF(B96="inspire",INSPIRE,IMKL) &amp; F96 &amp; "/" &amp; D96</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E97" s="20" t="s">
         <v>240</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G97" t="str">
+        <f>IF(B97="inspire",INSPIRE,IMKL) &amp; F97 &amp; "/" &amp; D97</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G98" t="str">
+        <f>IF(B98="inspire",INSPIRE,IMKL) &amp; F98 &amp; "/" &amp; D98</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/Raaginrichting</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1">
       <c r="A99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>223</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G99" t="str">
+        <f>IF(B99="inspire",INSPIRE,IMKL) &amp; F99 &amp; "/" &amp; D99</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" thickBot="1">
       <c r="A100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>217</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1">
+        <v>311</v>
+      </c>
+      <c r="G100" t="str">
+        <f>IF(B100="inspire",INSPIRE,IMKL) &amp; F100 &amp; "/" &amp; D100</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1">
       <c r="A101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>220</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>311</v>
+      </c>
+      <c r="G101" t="str">
+        <f>IF(B101="inspire",INSPIRE,IMKL) &amp; F101 &amp; "/" &amp; D101</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>218</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1">
+        <v>311</v>
+      </c>
+      <c r="G102" t="str">
+        <f>IF(B102="inspire",INSPIRE,IMKL) &amp; F102 &amp; "/" &amp; D102</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1">
       <c r="A103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>219</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1">
+        <v>311</v>
+      </c>
+      <c r="G103" t="str">
+        <f>IF(B103="inspire",INSPIRE,IMKL) &amp; F103 &amp; "/" &amp; D103</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>243</v>
@@ -4180,18 +4594,22 @@
         <v>243</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="G104" t="str">
+        <f>IF(B104="inspire",INSPIRE,IMKL) &amp; F104 &amp; "/" &amp; D104</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" thickBot="1">
       <c r="A105" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>244</v>
@@ -4200,18 +4618,22 @@
         <v>244</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G105" t="str">
+        <f>IF(B105="inspire",INSPIRE,IMKL) &amp; F105 &amp; "/" &amp; D105</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>224</v>
@@ -4220,18 +4642,22 @@
         <v>224</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G106" t="str">
+        <f>IF(B106="inspire",INSPIRE,IMKL) &amp; F106 &amp; "/" &amp; D106</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>225</v>
@@ -4240,18 +4666,22 @@
         <v>225</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G107" t="str">
+        <f>IF(B107="inspire",INSPIRE,IMKL) &amp; F107 &amp; "/" &amp; D107</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>226</v>
@@ -4260,18 +4690,22 @@
         <v>226</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G108" t="str">
+        <f>IF(B108="inspire",INSPIRE,IMKL) &amp; F108 &amp; "/" &amp; D108</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>245</v>
@@ -4280,18 +4714,22 @@
         <v>245</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G109" t="str">
+        <f>IF(B109="inspire",INSPIRE,IMKL) &amp; F109 &amp; "/" &amp; D109</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>246</v>
@@ -4300,18 +4738,22 @@
         <v>246</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G110" t="str">
+        <f>IF(B110="inspire",INSPIRE,IMKL) &amp; F110 &amp; "/" &amp; D110</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>274</v>
@@ -4320,18 +4762,22 @@
         <v>274</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G111" t="str">
+        <f>IF(B111="inspire",INSPIRE,IMKL) &amp; F111 &amp; "/" &amp; D111</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>71</v>
@@ -4340,18 +4786,22 @@
         <v>71</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G112" t="str">
+        <f>IF(B112="inspire",INSPIRE,IMKL) &amp; F112 &amp; "/" &amp; D112</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>72</v>
@@ -4360,18 +4810,22 @@
         <v>72</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G113" t="str">
+        <f>IF(B113="inspire",INSPIRE,IMKL) &amp; F113 &amp; "/" &amp; D113</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>60</v>
@@ -4380,18 +4834,22 @@
         <v>60</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G114" t="str">
+        <f>IF(B114="inspire",INSPIRE,IMKL) &amp; F114 &amp; "/" &amp; D114</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>73</v>
@@ -4400,18 +4858,22 @@
         <v>73</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G115" t="str">
+        <f>IF(B115="inspire",INSPIRE,IMKL) &amp; F115 &amp; "/" &amp; D115</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>76</v>
@@ -4420,18 +4882,22 @@
         <v>76</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G116" t="str">
+        <f>IF(B116="inspire",INSPIRE,IMKL) &amp; F116 &amp; "/" &amp; D116</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>77</v>
@@ -4440,18 +4906,22 @@
         <v>77</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G117" t="str">
+        <f>IF(B117="inspire",INSPIRE,IMKL) &amp; F117 &amp; "/" &amp; D117</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>78</v>
@@ -4460,98 +4930,118 @@
         <v>78</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G118" t="str">
+        <f>IF(B118="inspire",INSPIRE,IMKL) &amp; F118 &amp; "/" &amp; D118</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E119" s="18" t="s">
         <v>267</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G119" t="str">
+        <f>IF(B119="inspire",INSPIRE,IMKL) &amp; F119 &amp; "/" &amp; D119</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G120" t="str">
+        <f>IF(B120="inspire",INSPIRE,IMKL) &amp; F120 &amp; "/" &amp; D120</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>268</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G121" t="str">
+        <f>IF(B121="inspire",INSPIRE,IMKL) &amp; F121 &amp; "/" &amp; D121</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G122" t="str">
+        <f>IF(B122="inspire",INSPIRE,IMKL) &amp; F122 &amp; "/" &amp; D122</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D123" t="s">
         <v>270</v>
@@ -4560,98 +5050,118 @@
         <v>270</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G123" t="str">
+        <f>IF(B123="inspire",INSPIRE,IMKL) &amp; F123 &amp; "/" &amp; D123</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E124" s="18" t="s">
         <v>269</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G124" t="str">
+        <f>IF(B124="inspire",INSPIRE,IMKL) &amp; F124 &amp; "/" &amp; D124</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E125" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G125" t="str">
+        <f>IF(B125="inspire",INSPIRE,IMKL) &amp; F125 &amp; "/" &amp; D125</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E126" s="18" t="s">
         <v>272</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G126" t="str">
+        <f>IF(B126="inspire",INSPIRE,IMKL) &amp; F126 &amp; "/" &amp; D126</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>271</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G127" t="str">
+        <f>IF(B127="inspire",INSPIRE,IMKL) &amp; F127 &amp; "/" &amp; D127</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>140</v>
@@ -4662,16 +5172,20 @@
       <c r="F128" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="str">
+        <f>IF(B128="inspire",INSPIRE,IMKL) &amp; F128 &amp; "/" &amp; D128</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>141</v>
@@ -4680,18 +5194,22 @@
         <v>141</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>311</v>
+      </c>
+      <c r="G129" t="str">
+        <f>IF(B129="inspire",INSPIRE,IMKL) &amp; F129 &amp; "/" &amp; D129</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>142</v>
@@ -4702,16 +5220,20 @@
       <c r="F130" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="str">
+        <f>IF(B130="inspire",INSPIRE,IMKL) &amp; F130 &amp; "/" &amp; D130</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>143</v>
@@ -4722,16 +5244,20 @@
       <c r="F131" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="str">
+        <f>IF(B131="inspire",INSPIRE,IMKL) &amp; F131 &amp; "/" &amp; D131</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>144</v>
@@ -4742,16 +5268,20 @@
       <c r="F132" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="str">
+        <f>IF(B132="inspire",INSPIRE,IMKL) &amp; F132 &amp; "/" &amp; D132</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>145</v>
@@ -4762,16 +5292,20 @@
       <c r="F133" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="str">
+        <f>IF(B133="inspire",INSPIRE,IMKL) &amp; F133 &amp; "/" &amp; D133</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>146</v>
@@ -4782,16 +5316,20 @@
       <c r="F134" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="str">
+        <f>IF(B134="inspire",INSPIRE,IMKL) &amp; F134 &amp; "/" &amp; D134</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>147</v>
@@ -4802,16 +5340,20 @@
       <c r="F135" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="str">
+        <f>IF(B135="inspire",INSPIRE,IMKL) &amp; F135 &amp; "/" &amp; D135</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>148</v>
@@ -4822,16 +5364,20 @@
       <c r="F136" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="str">
+        <f>IF(B136="inspire",INSPIRE,IMKL) &amp; F136 &amp; "/" &amp; D136</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>149</v>
@@ -4842,16 +5388,20 @@
       <c r="F137" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="str">
+        <f>IF(B137="inspire",INSPIRE,IMKL) &amp; F137 &amp; "/" &amp; D137</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>150</v>
@@ -4862,16 +5412,20 @@
       <c r="F138" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="str">
+        <f>IF(B138="inspire",INSPIRE,IMKL) &amp; F138 &amp; "/" &amp; D138</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>151</v>
@@ -4882,16 +5436,20 @@
       <c r="F139" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="str">
+        <f>IF(B139="inspire",INSPIRE,IMKL) &amp; F139 &amp; "/" &amp; D139</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>152</v>
@@ -4902,16 +5460,20 @@
       <c r="F140" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="str">
+        <f>IF(B140="inspire",INSPIRE,IMKL) &amp; F140 &amp; "/" &amp; D140</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>153</v>
@@ -4922,16 +5484,20 @@
       <c r="F141" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="str">
+        <f>IF(B141="inspire",INSPIRE,IMKL) &amp; F141 &amp; "/" &amp; D141</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>154</v>
@@ -4942,16 +5508,20 @@
       <c r="F142" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="str">
+        <f>IF(B142="inspire",INSPIRE,IMKL) &amp; F142 &amp; "/" &amp; D142</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>155</v>
@@ -4962,16 +5532,20 @@
       <c r="F143" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="str">
+        <f>IF(B143="inspire",INSPIRE,IMKL) &amp; F143 &amp; "/" &amp; D143</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>156</v>
@@ -4982,16 +5556,20 @@
       <c r="F144" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="str">
+        <f>IF(B144="inspire",INSPIRE,IMKL) &amp; F144 &amp; "/" &amp; D144</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>157</v>
@@ -5002,16 +5580,20 @@
       <c r="F145" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="str">
+        <f>IF(B145="inspire",INSPIRE,IMKL) &amp; F145 &amp; "/" &amp; D145</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>158</v>
@@ -5022,16 +5604,20 @@
       <c r="F146" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="str">
+        <f>IF(B146="inspire",INSPIRE,IMKL) &amp; F146 &amp; "/" &amp; D146</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>159</v>
@@ -5042,16 +5628,20 @@
       <c r="F147" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="str">
+        <f>IF(B147="inspire",INSPIRE,IMKL) &amp; F147 &amp; "/" &amp; D147</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>160</v>
@@ -5062,16 +5652,20 @@
       <c r="F148" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="str">
+        <f>IF(B148="inspire",INSPIRE,IMKL) &amp; F148 &amp; "/" &amp; D148</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>161</v>
@@ -5082,16 +5676,20 @@
       <c r="F149" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="str">
+        <f>IF(B149="inspire",INSPIRE,IMKL) &amp; F149 &amp; "/" &amp; D149</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>162</v>
@@ -5102,16 +5700,20 @@
       <c r="F150" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="str">
+        <f>IF(B150="inspire",INSPIRE,IMKL) &amp; F150 &amp; "/" &amp; D150</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>163</v>
@@ -5122,16 +5724,20 @@
       <c r="F151" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="str">
+        <f>IF(B151="inspire",INSPIRE,IMKL) &amp; F151 &amp; "/" &amp; D151</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>164</v>
@@ -5142,16 +5748,20 @@
       <c r="F152" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="str">
+        <f>IF(B152="inspire",INSPIRE,IMKL) &amp; F152 &amp; "/" &amp; D152</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>165</v>
@@ -5162,16 +5772,20 @@
       <c r="F153" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="str">
+        <f>IF(B153="inspire",INSPIRE,IMKL) &amp; F153 &amp; "/" &amp; D153</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>166</v>
@@ -5182,16 +5796,20 @@
       <c r="F154" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="str">
+        <f>IF(B154="inspire",INSPIRE,IMKL) &amp; F154 &amp; "/" &amp; D154</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>167</v>
@@ -5202,16 +5820,20 @@
       <c r="F155" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="str">
+        <f>IF(B155="inspire",INSPIRE,IMKL) &amp; F155 &amp; "/" &amp; D155</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>168</v>
@@ -5222,16 +5844,20 @@
       <c r="F156" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="str">
+        <f>IF(B156="inspire",INSPIRE,IMKL) &amp; F156 &amp; "/" &amp; D156</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>169</v>
@@ -5242,16 +5868,20 @@
       <c r="F157" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="str">
+        <f>IF(B157="inspire",INSPIRE,IMKL) &amp; F157 &amp; "/" &amp; D157</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>170</v>
@@ -5262,16 +5892,20 @@
       <c r="F158" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="str">
+        <f>IF(B158="inspire",INSPIRE,IMKL) &amp; F158 &amp; "/" &amp; D158</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>171</v>
@@ -5282,16 +5916,20 @@
       <c r="F159" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="str">
+        <f>IF(B159="inspire",INSPIRE,IMKL) &amp; F159 &amp; "/" &amp; D159</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>172</v>
@@ -5302,16 +5940,20 @@
       <c r="F160" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="str">
+        <f>IF(B160="inspire",INSPIRE,IMKL) &amp; F160 &amp; "/" &amp; D160</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>173</v>
@@ -5322,16 +5964,20 @@
       <c r="F161" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="str">
+        <f>IF(B161="inspire",INSPIRE,IMKL) &amp; F161 &amp; "/" &amp; D161</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>174</v>
@@ -5342,16 +5988,20 @@
       <c r="F162" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="str">
+        <f>IF(B162="inspire",INSPIRE,IMKL) &amp; F162 &amp; "/" &amp; D162</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>175</v>
@@ -5362,16 +6012,20 @@
       <c r="F163" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="str">
+        <f>IF(B163="inspire",INSPIRE,IMKL) &amp; F163 &amp; "/" &amp; D163</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>114</v>
@@ -5382,16 +6036,20 @@
       <c r="F164" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" thickBot="1">
+      <c r="G164" t="str">
+        <f>IF(B164="inspire",INSPIRE,IMKL) &amp; F164 &amp; "/" &amp; D164</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" thickBot="1">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>176</v>
@@ -5402,8 +6060,12 @@
       <c r="F165" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1">
+      <c r="G165" t="str">
+        <f>IF(B165="inspire",INSPIRE,IMKL) &amp; F165 &amp; "/" &amp; D165</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15" thickBot="1">
       <c r="A166" s="4" t="s">
         <v>114</v>
       </c>
@@ -5411,7 +6073,7 @@
         <v>206</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>60</v>
@@ -5422,8 +6084,12 @@
       <c r="F166" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" thickBot="1">
+      <c r="G166" t="str">
+        <f>IF(B166="inspire",INSPIRE,IMKL) &amp; F166 &amp; "/" &amp; D166</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15" thickBot="1">
       <c r="A167" s="4" t="s">
         <v>114</v>
       </c>
@@ -5431,7 +6097,7 @@
         <v>206</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>194</v>
@@ -5442,8 +6108,12 @@
       <c r="F167" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1">
+      <c r="G167" t="str">
+        <f>IF(B167="inspire",INSPIRE,IMKL) &amp; F167 &amp; "/" &amp; D167</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" thickBot="1">
       <c r="A168" s="4" t="s">
         <v>114</v>
       </c>
@@ -5451,7 +6121,7 @@
         <v>206</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>195</v>
@@ -5462,8 +6132,12 @@
       <c r="F168" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" thickBot="1">
+      <c r="G168" t="str">
+        <f>IF(B168="inspire",INSPIRE,IMKL) &amp; F168 &amp; "/" &amp; D168</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" thickBot="1">
       <c r="A169" s="4" t="s">
         <v>114</v>
       </c>
@@ -5471,7 +6145,7 @@
         <v>206</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>196</v>
@@ -5482,8 +6156,12 @@
       <c r="F169" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1">
+      <c r="G169" t="str">
+        <f>IF(B169="inspire",INSPIRE,IMKL) &amp; F169 &amp; "/" &amp; D169</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" thickBot="1">
       <c r="A170" s="4" t="s">
         <v>114</v>
       </c>
@@ -5491,7 +6169,7 @@
         <v>206</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>197</v>
@@ -5502,8 +6180,12 @@
       <c r="F170" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" thickBot="1">
+      <c r="G170" t="str">
+        <f>IF(B170="inspire",INSPIRE,IMKL) &amp; F170 &amp; "/" &amp; D170</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" thickBot="1">
       <c r="A171" s="4" t="s">
         <v>114</v>
       </c>
@@ -5511,19 +6193,23 @@
         <v>28</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G171" t="str">
+        <f>IF(B171="inspire",INSPIRE,IMKL) &amp; F171 &amp; "/" &amp; D171</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" thickBot="1">
       <c r="A172" s="4" t="s">
         <v>114</v>
       </c>
@@ -5531,19 +6217,23 @@
         <v>28</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G172" t="str">
+        <f>IF(B172="inspire",INSPIRE,IMKL) &amp; F172 &amp; "/" &amp; D172</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" thickBot="1">
       <c r="A173" s="4" t="s">
         <v>114</v>
       </c>
@@ -5551,19 +6241,23 @@
         <v>28</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G173" t="str">
+        <f>IF(B173="inspire",INSPIRE,IMKL) &amp; F173 &amp; "/" &amp; D173</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" thickBot="1">
       <c r="A174" s="4" t="s">
         <v>114</v>
       </c>
@@ -5571,7 +6265,7 @@
         <v>28</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>46</v>
@@ -5580,10 +6274,14 @@
         <v>46</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G174" t="str">
+        <f>IF(B174="inspire",INSPIRE,IMKL) &amp; F174 &amp; "/" &amp; D174</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15" thickBot="1">
       <c r="A175" s="4" t="s">
         <v>114</v>
       </c>
@@ -5591,19 +6289,23 @@
         <v>28</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G175" t="str">
+        <f>IF(B175="inspire",INSPIRE,IMKL) &amp; F175 &amp; "/" &amp; D175</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" thickBot="1">
       <c r="A176" s="4" t="s">
         <v>114</v>
       </c>
@@ -5611,19 +6313,23 @@
         <v>28</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G176" t="str">
+        <f>IF(B176="inspire",INSPIRE,IMKL) &amp; F176 &amp; "/" &amp; D176</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15" thickBot="1">
       <c r="A177" s="4" t="s">
         <v>114</v>
       </c>
@@ -5631,19 +6337,23 @@
         <v>28</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G177" t="str">
+        <f>IF(B177="inspire",INSPIRE,IMKL) &amp; F177 &amp; "/" &amp; D177</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" thickBot="1">
       <c r="A178" s="4" t="s">
         <v>114</v>
       </c>
@@ -5651,19 +6361,23 @@
         <v>28</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G178" t="str">
+        <f>IF(B178="inspire",INSPIRE,IMKL) &amp; F178 &amp; "/" &amp; D178</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" thickBot="1">
       <c r="A179" s="4" t="s">
         <v>114</v>
       </c>
@@ -5671,19 +6385,23 @@
         <v>28</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G179" t="str">
+        <f>IF(B179="inspire",INSPIRE,IMKL) &amp; F179 &amp; "/" &amp; D179</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" thickBot="1">
       <c r="A180" s="4" t="s">
         <v>114</v>
       </c>
@@ -5691,19 +6409,23 @@
         <v>28</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G180" t="str">
+        <f>IF(B180="inspire",INSPIRE,IMKL) &amp; F180 &amp; "/" &amp; D180</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickBot="1">
       <c r="A181" s="4" t="s">
         <v>114</v>
       </c>
@@ -5711,19 +6433,23 @@
         <v>28</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G181" t="str">
+        <f>IF(B181="inspire",INSPIRE,IMKL) &amp; F181 &amp; "/" &amp; D181</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" thickBot="1">
       <c r="A182" s="4" t="s">
         <v>114</v>
       </c>
@@ -5731,7 +6457,7 @@
         <v>28</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>53</v>
@@ -5740,10 +6466,14 @@
         <v>53</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G182" t="str">
+        <f>IF(B182="inspire",INSPIRE,IMKL) &amp; F182 &amp; "/" &amp; D182</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" thickBot="1">
       <c r="A183" s="4" t="s">
         <v>114</v>
       </c>
@@ -5751,19 +6481,23 @@
         <v>28</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G183" t="str">
+        <f>IF(B183="inspire",INSPIRE,IMKL) &amp; F183 &amp; "/" &amp; D183</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" thickBot="1">
       <c r="A184" s="4" t="s">
         <v>114</v>
       </c>
@@ -5771,19 +6505,23 @@
         <v>28</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E184" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G184" t="str">
+        <f>IF(B184="inspire",INSPIRE,IMKL) &amp; F184 &amp; "/" &amp; D184</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15" thickBot="1">
       <c r="A185" s="4" t="s">
         <v>114</v>
       </c>
@@ -5791,19 +6529,23 @@
         <v>28</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G185" t="str">
+        <f>IF(B185="inspire",INSPIRE,IMKL) &amp; F185 &amp; "/" &amp; D185</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" thickBot="1">
       <c r="A186" s="4" t="s">
         <v>114</v>
       </c>
@@ -5811,19 +6553,23 @@
         <v>28</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E186" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G186" t="str">
+        <f>IF(B186="inspire",INSPIRE,IMKL) &amp; F186 &amp; "/" &amp; D186</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" thickBot="1">
       <c r="A187" s="4" t="s">
         <v>114</v>
       </c>
@@ -5831,19 +6577,23 @@
         <v>28</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E187" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="G187" t="str">
+        <f>IF(B187="inspire",INSPIRE,IMKL) &amp; F187 &amp; "/" &amp; D187</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15" thickBot="1">
       <c r="A188" s="4" t="s">
         <v>114</v>
       </c>
@@ -5851,7 +6601,7 @@
         <v>206</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D188" s="22" t="s">
         <v>198</v>
@@ -5862,8 +6612,12 @@
       <c r="F188" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" thickBot="1">
+      <c r="G188" t="str">
+        <f>IF(B188="inspire",INSPIRE,IMKL) &amp; F188 &amp; "/" &amp; D188</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15" thickBot="1">
       <c r="A189" s="4" t="s">
         <v>114</v>
       </c>
@@ -5871,7 +6625,7 @@
         <v>206</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D189" s="22" t="s">
         <v>199</v>
@@ -5882,8 +6636,12 @@
       <c r="F189" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" thickBot="1">
+      <c r="G189" t="str">
+        <f>IF(B189="inspire",INSPIRE,IMKL) &amp; F189 &amp; "/" &amp; D189</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" thickBot="1">
       <c r="A190" s="4" t="s">
         <v>114</v>
       </c>
@@ -5891,7 +6649,7 @@
         <v>28</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>177</v>
@@ -5902,8 +6660,12 @@
       <c r="F190" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" thickBot="1">
+      <c r="G190" t="str">
+        <f>IF(B190="inspire",INSPIRE,IMKL) &amp; F190 &amp; "/" &amp; D190</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15" thickBot="1">
       <c r="A191" s="4" t="s">
         <v>114</v>
       </c>
@@ -5911,7 +6673,7 @@
         <v>28</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>178</v>
@@ -5922,8 +6684,12 @@
       <c r="F191" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" thickBot="1">
+      <c r="G191" t="str">
+        <f>IF(B191="inspire",INSPIRE,IMKL) &amp; F191 &amp; "/" &amp; D191</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15" thickBot="1">
       <c r="A192" s="4" t="s">
         <v>114</v>
       </c>
@@ -5931,7 +6697,7 @@
         <v>28</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>179</v>
@@ -5942,8 +6708,12 @@
       <c r="F192" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" thickBot="1">
+      <c r="G192" t="str">
+        <f>IF(B192="inspire",INSPIRE,IMKL) &amp; F192 &amp; "/" &amp; D192</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15" thickBot="1">
       <c r="A193" s="4" t="s">
         <v>114</v>
       </c>
@@ -5951,7 +6721,7 @@
         <v>28</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>180</v>
@@ -5962,32 +6732,40 @@
       <c r="F193" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" thickBot="1">
+      <c r="G193" t="str">
+        <f>IF(B193="inspire",INSPIRE,IMKL) &amp; F193 &amp; "/" &amp; D193</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15" thickBot="1">
       <c r="A194" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E194" s="30" t="s">
         <v>266</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" thickBot="1">
+        <v>312</v>
+      </c>
+      <c r="G194" t="str">
+        <f>IF(B194="inspire",INSPIRE,IMKL) &amp; F194 &amp; "/" &amp; D194</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceIMKLTypeValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" thickBot="1">
       <c r="A195" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B195" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D195" s="23" t="s">
         <v>200</v>
@@ -5998,16 +6776,20 @@
       <c r="F195" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="29" thickBot="1">
+      <c r="G195" t="str">
+        <f>IF(B195="inspire",INSPIRE,IMKL) &amp; F195 &amp; "/" &amp; D195</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="29" thickBot="1">
       <c r="A196" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>204</v>
@@ -6018,16 +6800,20 @@
       <c r="F196" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" thickBot="1">
+      <c r="G196" t="str">
+        <f>IF(B196="inspire",INSPIRE,IMKL) &amp; F196 &amp; "/" &amp; D196</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" thickBot="1">
       <c r="A197" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B197" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>202</v>
@@ -6038,16 +6824,20 @@
       <c r="F197" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" thickBot="1">
+      <c r="G197" t="str">
+        <f>IF(B197="inspire",INSPIRE,IMKL) &amp; F197 &amp; "/" &amp; D197</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15" thickBot="1">
       <c r="A198" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>203</v>
@@ -6058,16 +6848,20 @@
       <c r="F198" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" t="str">
+        <f>IF(B198="inspire",INSPIRE,IMKL) &amp; F198 &amp; "/" &amp; D198</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>205</v>
@@ -6078,16 +6872,20 @@
       <c r="F199" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" t="str">
+        <f>IF(B199="inspire",INSPIRE,IMKL) &amp; F199 &amp; "/" &amp; D199</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B200" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D200" s="25" t="s">
         <v>201</v>
@@ -6098,136 +6896,164 @@
       <c r="F200" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15" thickBot="1">
+      <c r="G200" t="str">
+        <f>IF(B200="inspire",INSPIRE,IMKL) &amp; F200 &amp; "/" &amp; D200</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15" thickBot="1">
       <c r="A201" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D201" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F201" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="15" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="G201" t="str">
+        <f>IF(B201="inspire",INSPIRE,IMKL) &amp; F201 &amp; "/" &amp; D201</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15" thickBot="1">
       <c r="A202" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D202" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F202" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="15" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="G202" t="str">
+        <f>IF(B202="inspire",INSPIRE,IMKL) &amp; F202 &amp; "/" &amp; D202</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" thickBot="1">
       <c r="A203" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D203" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F203" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="15" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="G203" t="str">
+        <f>IF(B203="inspire",INSPIRE,IMKL) &amp; F203 &amp; "/" &amp; D203</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15" thickBot="1">
       <c r="A204" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D204" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F204" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="15" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="G204" t="str">
+        <f>IF(B204="inspire",INSPIRE,IMKL) &amp; F204 &amp; "/" &amp; D204</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15" thickBot="1">
       <c r="A205" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F205" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="G205" t="str">
+        <f>IF(B205="inspire",INSPIRE,IMKL) &amp; F205 &amp; "/" &amp; D205</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" thickBot="1">
       <c r="A206" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F206" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>307</v>
+      </c>
+      <c r="G206" t="str">
+        <f>IF(B206="inspire",INSPIRE,IMKL) &amp; F206 &amp; "/" &amp; D206</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>81</v>
@@ -6238,76 +7064,92 @@
       <c r="F207" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" t="str">
+        <f>IF(B207="inspire",INSPIRE,IMKL) &amp; F207 &amp; "/" &amp; D207</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D208" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F208" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>307</v>
+      </c>
+      <c r="G208" t="str">
+        <f>IF(B208="inspire",INSPIRE,IMKL) &amp; F208 &amp; "/" &amp; D208</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F209" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>307</v>
+      </c>
+      <c r="G209" t="str">
+        <f>IF(B209="inspire",INSPIRE,IMKL) &amp; F209 &amp; "/" &amp; D209</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D210" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E210" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F210" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="15" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="G210" t="str">
+        <f>IF(B210="inspire",INSPIRE,IMKL) &amp; F210 &amp; "/" &amp; D210</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15" thickBot="1">
       <c r="A211" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D211" s="26" t="s">
         <v>181</v>
@@ -6318,16 +7160,20 @@
       <c r="F211" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15" thickBot="1">
+      <c r="G211" t="str">
+        <f>IF(B211="inspire",INSPIRE,IMKL) &amp; F211 &amp; "/" &amp; D211</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15" thickBot="1">
       <c r="A212" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B212" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D212" s="26" t="s">
         <v>182</v>
@@ -6338,16 +7184,20 @@
       <c r="F212" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15" thickBot="1">
+      <c r="G212" t="str">
+        <f>IF(B212="inspire",INSPIRE,IMKL) &amp; F212 &amp; "/" &amp; D212</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" thickBot="1">
       <c r="A213" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D213" s="26" t="s">
         <v>183</v>
@@ -6358,16 +7208,20 @@
       <c r="F213" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15" thickBot="1">
+      <c r="G213" t="str">
+        <f>IF(B213="inspire",INSPIRE,IMKL) &amp; F213 &amp; "/" &amp; D213</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15" thickBot="1">
       <c r="A214" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>184</v>
@@ -6378,16 +7232,20 @@
       <c r="F214" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" t="str">
+        <f>IF(B214="inspire",INSPIRE,IMKL) &amp; F214 &amp; "/" &amp; D214</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C215" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D215" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E215" s="31" t="s">
         <v>266</v>
@@ -6395,8 +7253,12 @@
       <c r="F215" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" t="str">
+        <f>IF(B215="inspire",INSPIRE,IMKL) &amp; F215 &amp; "/" &amp; D215</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="4" t="s">
         <v>131</v>
       </c>
@@ -6404,10 +7266,10 @@
         <v>206</v>
       </c>
       <c r="C216" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>208</v>
@@ -6415,8 +7277,12 @@
       <c r="F216" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" t="str">
+        <f>IF(B216="inspire",INSPIRE,IMKL) &amp; F216 &amp; "/" &amp; D216</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/compensator</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="4" t="s">
         <v>131</v>
       </c>
@@ -6424,10 +7290,10 @@
         <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>212</v>
@@ -6435,8 +7301,12 @@
       <c r="F217" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="str">
+        <f>IF(B217="inspire",INSPIRE,IMKL) &amp; F217 &amp; "/" &amp; D217</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="4" t="s">
         <v>131</v>
       </c>
@@ -6444,10 +7314,10 @@
         <v>206</v>
       </c>
       <c r="C218" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>214</v>
@@ -6455,8 +7325,12 @@
       <c r="F218" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" t="str">
+        <f>IF(B218="inspire",INSPIRE,IMKL) &amp; F218 &amp; "/" &amp; D218</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/putten</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="4" t="s">
         <v>131</v>
       </c>
@@ -6464,7 +7338,7 @@
         <v>206</v>
       </c>
       <c r="C219" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>56</v>
@@ -6475,8 +7349,12 @@
       <c r="F219" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="str">
+        <f>IF(B219="inspire",INSPIRE,IMKL) &amp; F219 &amp; "/" &amp; D219</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/pompstation</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="4" t="s">
         <v>131</v>
       </c>
@@ -6484,7 +7362,7 @@
         <v>206</v>
       </c>
       <c r="C220" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>215</v>
@@ -6495,19 +7373,27 @@
       <c r="F220" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" t="str">
+        <f>IF(B220="inspire",INSPIRE,IMKL) &amp; F220 &amp; "/" &amp; D220</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overdrachtsstation</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C221" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" t="str">
+        <f>IF(B221="inspire",INSPIRE,IMKL) &amp; F221 &amp; "/" &amp; D221</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="4" t="s">
         <v>131</v>
       </c>
@@ -6515,10 +7401,10 @@
         <v>206</v>
       </c>
       <c r="C222" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>209</v>
@@ -6526,8 +7412,12 @@
       <c r="F222" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="70">
+      <c r="G222" t="str">
+        <f>IF(B222="inspire",INSPIRE,IMKL) &amp; F222 &amp; "/" &amp; D222</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="70">
       <c r="A223" s="4" t="s">
         <v>131</v>
       </c>
@@ -6535,10 +7425,10 @@
         <v>206</v>
       </c>
       <c r="C223" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E223" s="28" t="s">
         <v>210</v>
@@ -6546,8 +7436,12 @@
       <c r="F223" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" t="str">
+        <f>IF(B223="inspire",INSPIRE,IMKL) &amp; F223 &amp; "/" &amp; D223</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/zinker</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="4" t="s">
         <v>131</v>
       </c>
@@ -6555,10 +7449,10 @@
         <v>206</v>
       </c>
       <c r="C224" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E224" s="10" t="s">
         <v>211</v>
@@ -6566,8 +7460,12 @@
       <c r="F224" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" t="str">
+        <f>IF(B224="inspire",INSPIRE,IMKL) &amp; F224 &amp; "/" &amp; D224</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="4" t="s">
         <v>131</v>
       </c>
@@ -6575,7 +7473,7 @@
         <v>206</v>
       </c>
       <c r="C225" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>95</v>
@@ -6586,33 +7484,45 @@
       <c r="F225" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" t="str">
+        <f>IF(B225="inspire",INSPIRE,IMKL) &amp; F225 &amp; "/" &amp; D225</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C226" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F226" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" t="str">
+        <f>IF(B226="inspire",INSPIRE,IMKL) &amp; F226 &amp; "/" &amp; D226</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C227" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>263</v>
+      </c>
+      <c r="G227" t="str">
+        <f>IF(B227="inspire",INSPIRE,IMKL) &amp; F227 &amp; "/" &amp; D227</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
   </sheetData>

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="0" windowWidth="28620" windowHeight="19480" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="37560" yWindow="1240" windowWidth="28620" windowHeight="19480" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -14,11 +14,11 @@
     <sheet name="Olie-gas-chemie" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Waardelijst!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Waardelijst!$A$1:$G$227</definedName>
     <definedName name="IMKL">Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1220,9 +1220,6 @@
     <t>imkl:extraTopografieType</t>
   </si>
   <si>
-    <t>imkl:extraTopografieTypeValue</t>
-  </si>
-  <si>
     <t>imkl:maatvoeringsType</t>
   </si>
   <si>
@@ -1312,6 +1309,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>ExtraTopografieTypeValue</t>
   </si>
 </sst>
 </file>
@@ -1484,12 +1484,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1578,7 +1585,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1589,6 +1596,13 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2187,7 +2201,7 @@
   <sheetData>
     <row r="22" spans="2:3">
       <c r="B22" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
         <v>279</v>
@@ -2221,13 +2235,13 @@
   <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
@@ -2236,7 +2250,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -2254,12 +2268,12 @@
         <v>247</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>82</v>
@@ -2277,13 +2291,13 @@
         <v>248</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(B2="inspire",INSPIRE,IMKL) &amp; F2 &amp; "/" &amp; D2</f>
+        <f t="shared" ref="G2:G65" si="0">IF(B2="inspire",INSPIRE,IMKL) &amp; F2 &amp; "/" &amp; D2</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatiePijl</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>82</v>
@@ -2298,13 +2312,13 @@
         <v>248</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(B3="inspire",INSPIRE,IMKL) &amp; F3 &amp; "/" &amp; D3</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLijn</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>82</v>
@@ -2319,13 +2333,13 @@
         <v>248</v>
       </c>
       <c r="G4" t="str">
-        <f>IF(B4="inspire",INSPIRE,IMKL) &amp; F4 &amp; "/" &amp; D4</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLabel</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>82</v>
@@ -2340,13 +2354,13 @@
         <v>249</v>
       </c>
       <c r="G5" t="str">
-        <f>IF(B5="inspire",INSPIRE,IMKL) &amp; F5 &amp; "/" &amp; D5</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PNG</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>82</v>
@@ -2361,13 +2375,13 @@
         <v>249</v>
       </c>
       <c r="G6" t="str">
-        <f>IF(B6="inspire",INSPIRE,IMKL) &amp; F6 &amp; "/" &amp; D6</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PDF</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>82</v>
@@ -2382,13 +2396,13 @@
         <v>249</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(B7="inspire",INSPIRE,IMKL) &amp; F7 &amp; "/" &amp; D7</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/JPEG</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>82</v>
@@ -2403,19 +2417,19 @@
         <v>249</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(B8="inspire",INSPIRE,IMKL) &amp; F8 &amp; "/" &amp; D8</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/TIFF</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>118</v>
@@ -2425,19 +2439,19 @@
         <v>250</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(B9="inspire",INSPIRE,IMKL) &amp; F9 &amp; "/" &amp; D9</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>119</v>
@@ -2447,19 +2461,19 @@
         <v>250</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(B10="inspire",INSPIRE,IMKL) &amp; F10 &amp; "/" &amp; D10</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>120</v>
@@ -2469,13 +2483,13 @@
         <v>250</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(B11="inspire",INSPIRE,IMKL) &amp; F11 &amp; "/" &amp; D11</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>82</v>
@@ -2490,13 +2504,13 @@
         <v>251</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(B12="inspire",INSPIRE,IMKL) &amp; F12 &amp; "/" &amp; D12</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>82</v>
@@ -2511,13 +2525,13 @@
         <v>251</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(B13="inspire",INSPIRE,IMKL) &amp; F13 &amp; "/" &amp; D13</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>82</v>
@@ -2532,13 +2546,13 @@
         <v>251</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(B14="inspire",INSPIRE,IMKL) &amp; F14 &amp; "/" &amp; D14</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>82</v>
@@ -2553,13 +2567,13 @@
         <v>251</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(B15="inspire",INSPIRE,IMKL) &amp; F15 &amp; "/" &amp; D15</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>103</v>
@@ -2574,13 +2588,13 @@
         <v>252</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(B16="inspire",INSPIRE,IMKL) &amp; F16 &amp; "/" &amp; D16</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/huisaansluiting</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>103</v>
@@ -2595,13 +2609,13 @@
         <v>252</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(B17="inspire",INSPIRE,IMKL) &amp; F17 &amp; "/" &amp; D17</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/lengteprofiel</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>103</v>
@@ -2616,13 +2630,13 @@
         <v>252</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(B18="inspire",INSPIRE,IMKL) &amp; F18 &amp; "/" &amp; D18</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/gestuurdeBoring</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>103</v>
@@ -2637,13 +2651,13 @@
         <v>252</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(B19="inspire",INSPIRE,IMKL) &amp; F19 &amp; "/" &amp; D19</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/dwarsprofiel</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>82</v>
@@ -2655,16 +2669,16 @@
         <v>89</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(B20="inspire",INSPIRE,IMKL) &amp; F20 &amp; "/" &amp; D20</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/imkl:extraTopografieTypeValue/eigen</v>
+        <f t="shared" si="0"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/eigen</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>82</v>
@@ -2676,16 +2690,16 @@
         <v>90</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(B21="inspire",INSPIRE,IMKL) &amp; F21 &amp; "/" &amp; D21</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/imkl:extraTopografieTypeValue/ontwerp</v>
+        <f t="shared" si="0"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/ontwerp</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>82</v>
@@ -2700,13 +2714,13 @@
         <v>253</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(B22="inspire",INSPIRE,IMKL) &amp; F22 &amp; "/" &amp; D22</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>82</v>
@@ -2721,13 +2735,13 @@
         <v>253</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(B23="inspire",INSPIRE,IMKL) &amp; F23 &amp; "/" &amp; D23</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>82</v>
@@ -2742,104 +2756,104 @@
         <v>253</v>
       </c>
       <c r="G24" t="str">
-        <f>IF(B24="inspire",INSPIRE,IMKL) &amp; F24 &amp; "/" &amp; D24</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>233</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G25" t="str">
-        <f>IF(B25="inspire",INSPIRE,IMKL) &amp; F25 &amp; "/" &amp; D25</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>231</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G26" t="str">
-        <f>IF(B26="inspire",INSPIRE,IMKL) &amp; F26 &amp; "/" &amp; D26</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>230</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(B27="inspire",INSPIRE,IMKL) &amp; F27 &amp; "/" &amp; D27</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijl</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>232</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G28" t="str">
-        <f>IF(B28="inspire",INSPIRE,IMKL) &amp; F28 &amp; "/" &amp; D28</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>282</v>
@@ -2851,19 +2865,19 @@
         <v>254</v>
       </c>
       <c r="G29" t="str">
-        <f>IF(B29="inspire",INSPIRE,IMKL) &amp; F29 &amp; "/" &amp; D29</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>121</v>
@@ -2872,19 +2886,19 @@
         <v>254</v>
       </c>
       <c r="G30" t="str">
-        <f>IF(B30="inspire",INSPIRE,IMKL) &amp; F30 &amp; "/" &amp; D30</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>284</v>
@@ -2896,19 +2910,19 @@
         <v>254</v>
       </c>
       <c r="G31" t="str">
-        <f>IF(B31="inspire",INSPIRE,IMKL) &amp; F31 &amp; "/" &amp; D31</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>285</v>
@@ -2920,19 +2934,19 @@
         <v>254</v>
       </c>
       <c r="G32" t="str">
-        <f>IF(B32="inspire",INSPIRE,IMKL) &amp; F32 &amp; "/" &amp; D32</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>286</v>
@@ -2944,19 +2958,19 @@
         <v>254</v>
       </c>
       <c r="G33" t="str">
-        <f>IF(B33="inspire",INSPIRE,IMKL) &amp; F33 &amp; "/" &amp; D33</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>283</v>
@@ -2968,19 +2982,19 @@
         <v>254</v>
       </c>
       <c r="G34" t="str">
-        <f>IF(B34="inspire",INSPIRE,IMKL) &amp; F34 &amp; "/" &amp; D34</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>126</v>
@@ -2992,19 +3006,19 @@
         <v>254</v>
       </c>
       <c r="G35" t="str">
-        <f>IF(B35="inspire",INSPIRE,IMKL) &amp; F35 &amp; "/" &amp; D35</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>127</v>
@@ -3016,19 +3030,19 @@
         <v>254</v>
       </c>
       <c r="G36" t="str">
-        <f>IF(B36="inspire",INSPIRE,IMKL) &amp; F36 &amp; "/" &amp; D36</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>128</v>
@@ -3040,22 +3054,22 @@
         <v>254</v>
       </c>
       <c r="G37" t="str">
-        <f>IF(B37="inspire",INSPIRE,IMKL) &amp; F37 &amp; "/" &amp; D37</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>129</v>
@@ -3064,22 +3078,22 @@
         <v>254</v>
       </c>
       <c r="G38" t="str">
-        <f>IF(B38="inspire",INSPIRE,IMKL) &amp; F38 &amp; "/" &amp; D38</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>130</v>
@@ -3088,19 +3102,19 @@
         <v>254</v>
       </c>
       <c r="G39" t="str">
-        <f>IF(B39="inspire",INSPIRE,IMKL) &amp; F39 &amp; "/" &amp; D39</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>131</v>
@@ -3112,19 +3126,19 @@
         <v>254</v>
       </c>
       <c r="G40" t="str">
-        <f>IF(B40="inspire",INSPIRE,IMKL) &amp; F40 &amp; "/" &amp; D40</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>114</v>
@@ -3136,19 +3150,19 @@
         <v>254</v>
       </c>
       <c r="G41" t="str">
-        <f>IF(B41="inspire",INSPIRE,IMKL) &amp; F41 &amp; "/" &amp; D41</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>133</v>
@@ -3160,19 +3174,19 @@
         <v>254</v>
       </c>
       <c r="G42" t="str">
-        <f>IF(B42="inspire",INSPIRE,IMKL) &amp; F42 &amp; "/" &amp; D42</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>134</v>
@@ -3184,13 +3198,13 @@
         <v>254</v>
       </c>
       <c r="G43" t="str">
-        <f>IF(B43="inspire",INSPIRE,IMKL) &amp; F43 &amp; "/" &amp; D43</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>28</v>
@@ -3205,13 +3219,13 @@
         <v>255</v>
       </c>
       <c r="G44" t="str">
-        <f>IF(B44="inspire",INSPIRE,IMKL) &amp; F44 &amp; "/" &amp; D44</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>28</v>
@@ -3226,13 +3240,13 @@
         <v>255</v>
       </c>
       <c r="G45" t="str">
-        <f>IF(B45="inspire",INSPIRE,IMKL) &amp; F45 &amp; "/" &amp; D45</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>28</v>
@@ -3247,13 +3261,13 @@
         <v>255</v>
       </c>
       <c r="G46" t="str">
-        <f>IF(B46="inspire",INSPIRE,IMKL) &amp; F46 &amp; "/" &amp; D46</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>28</v>
@@ -3268,19 +3282,19 @@
         <v>255</v>
       </c>
       <c r="G47" t="str">
-        <f>IF(B47="inspire",INSPIRE,IMKL) &amp; F47 &amp; "/" &amp; D47</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>112</v>
@@ -3289,40 +3303,40 @@
         <v>256</v>
       </c>
       <c r="G48" t="str">
-        <f>IF(B48="inspire",INSPIRE,IMKL) &amp; F48 &amp; "/" &amp; D48</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>256</v>
       </c>
       <c r="G49" t="str">
-        <f>IF(B49="inspire",INSPIRE,IMKL) &amp; F49 &amp; "/" &amp; D49</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>113</v>
@@ -3331,19 +3345,19 @@
         <v>256</v>
       </c>
       <c r="G50" t="str">
-        <f>IF(B50="inspire",INSPIRE,IMKL) &amp; F50 &amp; "/" &amp; D50</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>114</v>
@@ -3352,19 +3366,19 @@
         <v>256</v>
       </c>
       <c r="G51" t="str">
-        <f>IF(B51="inspire",INSPIRE,IMKL) &amp; F51 &amp; "/" &amp; D51</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>115</v>
@@ -3373,19 +3387,19 @@
         <v>256</v>
       </c>
       <c r="G52" t="str">
-        <f>IF(B52="inspire",INSPIRE,IMKL) &amp; F52 &amp; "/" &amp; D52</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>116</v>
@@ -3394,19 +3408,19 @@
         <v>256</v>
       </c>
       <c r="G53" t="str">
-        <f>IF(B53="inspire",INSPIRE,IMKL) &amp; F53 &amp; "/" &amp; D53</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>117</v>
@@ -3415,13 +3429,13 @@
         <v>256</v>
       </c>
       <c r="G54" t="str">
-        <f>IF(B54="inspire",INSPIRE,IMKL) &amp; F54 &amp; "/" &amp; D54</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>28</v>
@@ -3436,13 +3450,13 @@
         <v>257</v>
       </c>
       <c r="G55" t="str">
-        <f>IF(B55="inspire",INSPIRE,IMKL) &amp; F55 &amp; "/" &amp; D55</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>28</v>
@@ -3457,13 +3471,13 @@
         <v>257</v>
       </c>
       <c r="G56" t="str">
-        <f>IF(B56="inspire",INSPIRE,IMKL) &amp; F56 &amp; "/" &amp; D56</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>28</v>
@@ -3478,13 +3492,13 @@
         <v>257</v>
       </c>
       <c r="G57" t="str">
-        <f>IF(B57="inspire",INSPIRE,IMKL) &amp; F57 &amp; "/" &amp; D57</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1">
       <c r="A58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>82</v>
@@ -3502,13 +3516,13 @@
         <v>258</v>
       </c>
       <c r="G58" t="str">
-        <f>IF(B58="inspire",INSPIRE,IMKL) &amp; F58 &amp; "/" &amp; D58</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1">
       <c r="A59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>82</v>
@@ -3526,13 +3540,13 @@
         <v>258</v>
       </c>
       <c r="G59" t="str">
-        <f>IF(B59="inspire",INSPIRE,IMKL) &amp; F59 &amp; "/" &amp; D59</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1">
       <c r="A60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>206</v>
@@ -3550,13 +3564,13 @@
         <v>258</v>
       </c>
       <c r="G60" t="str">
-        <f>IF(B60="inspire",INSPIRE,IMKL) &amp; F60 &amp; "/" &amp; D60</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" thickBot="1">
       <c r="A61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>207</v>
@@ -3574,13 +3588,13 @@
         <v>258</v>
       </c>
       <c r="G61" t="str">
-        <f>IF(B61="inspire",INSPIRE,IMKL) &amp; F61 &amp; "/" &amp; D61</f>
+        <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/Adrespunt</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" thickBot="1">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>28</v>
@@ -3589,22 +3603,22 @@
         <v>348</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G62" t="str">
-        <f>IF(B62="inspire",INSPIRE,IMKL) &amp; F62 &amp; "/" &amp; D62</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1">
       <c r="A63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>28</v>
@@ -3619,16 +3633,16 @@
         <v>5</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(B63="inspire",INSPIRE,IMKL) &amp; F63 &amp; "/" &amp; D63</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>28</v>
@@ -3643,16 +3657,16 @@
         <v>12</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G64" t="str">
-        <f>IF(B64="inspire",INSPIRE,IMKL) &amp; F64 &amp; "/" &amp; D64</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>28</v>
@@ -3667,16 +3681,16 @@
         <v>17</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(B65="inspire",INSPIRE,IMKL) &amp; F65 &amp; "/" &amp; D65</f>
+        <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1">
       <c r="A66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>28</v>
@@ -3691,16 +3705,16 @@
         <v>18</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(B66="inspire",INSPIRE,IMKL) &amp; F66 &amp; "/" &amp; D66</f>
+        <f t="shared" ref="G66:G129" si="1">IF(B66="inspire",INSPIRE,IMKL) &amp; F66 &amp; "/" &amp; D66</f>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>28</v>
@@ -3715,16 +3729,16 @@
         <v>21</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G67" t="str">
-        <f>IF(B67="inspire",INSPIRE,IMKL) &amp; F67 &amp; "/" &amp; D67</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1">
       <c r="A68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>28</v>
@@ -3739,16 +3753,16 @@
         <v>26</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(B68="inspire",INSPIRE,IMKL) &amp; F68 &amp; "/" &amp; D68</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1">
       <c r="A69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>348</v>
@@ -3763,13 +3777,13 @@
         <v>258</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(B69="inspire",INSPIRE,IMKL) &amp; F69 &amp; "/" &amp; D69</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1">
       <c r="A70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>348</v>
@@ -3784,13 +3798,13 @@
         <v>258</v>
       </c>
       <c r="G70" t="str">
-        <f>IF(B70="inspire",INSPIRE,IMKL) &amp; F70 &amp; "/" &amp; D70</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>206</v>
@@ -3808,13 +3822,13 @@
         <v>258</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(B71="inspire",INSPIRE,IMKL) &amp; F71 &amp; "/" &amp; D71</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>206</v>
@@ -3832,13 +3846,13 @@
         <v>258</v>
       </c>
       <c r="G72" t="str">
-        <f>IF(B72="inspire",INSPIRE,IMKL) &amp; F72 &amp; "/" &amp; D72</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>206</v>
@@ -3856,13 +3870,13 @@
         <v>258</v>
       </c>
       <c r="G73" t="str">
-        <f>IF(B73="inspire",INSPIRE,IMKL) &amp; F73 &amp; "/" &amp; D73</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>206</v>
@@ -3871,7 +3885,7 @@
         <v>348</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>276</v>
@@ -3880,13 +3894,13 @@
         <v>258</v>
       </c>
       <c r="G74" t="str">
-        <f>IF(B74="inspire",INSPIRE,IMKL) &amp; F74 &amp; "/" &amp; D74</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1">
       <c r="A75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>206</v>
@@ -3904,13 +3918,13 @@
         <v>258</v>
       </c>
       <c r="G75" t="str">
-        <f>IF(B75="inspire",INSPIRE,IMKL) &amp; F75 &amp; "/" &amp; D75</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>28</v>
@@ -3928,13 +3942,13 @@
         <v>259</v>
       </c>
       <c r="G76" t="str">
-        <f>IF(B76="inspire",INSPIRE,IMKL) &amp; F76 &amp; "/" &amp; D76</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>28</v>
@@ -3952,13 +3966,13 @@
         <v>259</v>
       </c>
       <c r="G77" t="str">
-        <f>IF(B77="inspire",INSPIRE,IMKL) &amp; F77 &amp; "/" &amp; D77</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>206</v>
@@ -3976,13 +3990,13 @@
         <v>259</v>
       </c>
       <c r="G78" t="str">
-        <f>IF(B78="inspire",INSPIRE,IMKL) &amp; F78 &amp; "/" &amp; D78</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>206</v>
@@ -4000,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="G79" t="str">
-        <f>IF(B79="inspire",INSPIRE,IMKL) &amp; F79 &amp; "/" &amp; D79</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>206</v>
@@ -4015,7 +4029,7 @@
         <v>348</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>191</v>
@@ -4024,13 +4038,13 @@
         <v>259</v>
       </c>
       <c r="G80" t="str">
-        <f>IF(B80="inspire",INSPIRE,IMKL) &amp; F80 &amp; "/" &amp; D80</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/verzameltermOndergrondseLeidingelementenOpnemen</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>206</v>
@@ -4048,13 +4062,13 @@
         <v>259</v>
       </c>
       <c r="G81" t="str">
-        <f>IF(B81="inspire",INSPIRE,IMKL) &amp; F81 &amp; "/" &amp; D81</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>206</v>
@@ -4072,13 +4086,13 @@
         <v>259</v>
       </c>
       <c r="G82" t="str">
-        <f>IF(B82="inspire",INSPIRE,IMKL) &amp; F82 &amp; "/" &amp; D82</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>206</v>
@@ -4096,13 +4110,13 @@
         <v>259</v>
       </c>
       <c r="G83" t="str">
-        <f>IF(B83="inspire",INSPIRE,IMKL) &amp; F83 &amp; "/" &amp; D83</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/GTWPOpnemen</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>206</v>
@@ -4120,13 +4134,13 @@
         <v>259</v>
       </c>
       <c r="G84" t="str">
-        <f>IF(B84="inspire",INSPIRE,IMKL) &amp; F84 &amp; "/" &amp; D84</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>206</v>
@@ -4144,13 +4158,13 @@
         <v>259</v>
       </c>
       <c r="G85" t="str">
-        <f>IF(B85="inspire",INSPIRE,IMKL) &amp; F85 &amp; "/" &amp; D85</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>28</v>
@@ -4165,16 +4179,16 @@
         <v>136</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G86" t="str">
-        <f>IF(B86="inspire",INSPIRE,IMKL) &amp; F86 &amp; "/" &amp; D86</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/coaxial</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>28</v>
@@ -4189,16 +4203,16 @@
         <v>137</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G87" t="str">
-        <f>IF(B87="inspire",INSPIRE,IMKL) &amp; F87 &amp; "/" &amp; D87</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>28</v>
@@ -4213,16 +4227,16 @@
         <v>138</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G88" t="str">
-        <f>IF(B88="inspire",INSPIRE,IMKL) &amp; F88 &amp; "/" &amp; D88</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C89" t="s">
         <v>348</v>
@@ -4237,13 +4251,13 @@
         <v>259</v>
       </c>
       <c r="G89" t="str">
-        <f>IF(B89="inspire",INSPIRE,IMKL) &amp; F89 &amp; "/" &amp; D89</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>206</v>
@@ -4261,13 +4275,13 @@
         <v>310</v>
       </c>
       <c r="G90" t="str">
-        <f>IF(B90="inspire",INSPIRE,IMKL) &amp; F90 &amp; "/" &amp; D90</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>206</v>
@@ -4285,13 +4299,13 @@
         <v>310</v>
       </c>
       <c r="G91" t="str">
-        <f>IF(B91="inspire",INSPIRE,IMKL) &amp; F91 &amp; "/" &amp; D91</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>206</v>
@@ -4309,13 +4323,13 @@
         <v>310</v>
       </c>
       <c r="G92" t="str">
-        <f>IF(B92="inspire",INSPIRE,IMKL) &amp; F92 &amp; "/" &amp; D92</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1">
       <c r="A93" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>206</v>
@@ -4324,7 +4338,7 @@
         <v>348</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>236</v>
@@ -4333,13 +4347,13 @@
         <v>310</v>
       </c>
       <c r="G93" t="str">
-        <f>IF(B93="inspire",INSPIRE,IMKL) &amp; F93 &amp; "/" &amp; D93</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>206</v>
@@ -4357,13 +4371,13 @@
         <v>310</v>
       </c>
       <c r="G94" t="str">
-        <f>IF(B94="inspire",INSPIRE,IMKL) &amp; F94 &amp; "/" &amp; D94</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>206</v>
@@ -4381,13 +4395,13 @@
         <v>310</v>
       </c>
       <c r="G95" t="str">
-        <f>IF(B95="inspire",INSPIRE,IMKL) &amp; F95 &amp; "/" &amp; D95</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1">
       <c r="A96" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>206</v>
@@ -4405,13 +4419,13 @@
         <v>310</v>
       </c>
       <c r="G96" t="str">
-        <f>IF(B96="inspire",INSPIRE,IMKL) &amp; F96 &amp; "/" &amp; D96</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>206</v>
@@ -4429,13 +4443,13 @@
         <v>310</v>
       </c>
       <c r="G97" t="str">
-        <f>IF(B97="inspire",INSPIRE,IMKL) &amp; F97 &amp; "/" &amp; D97</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1">
       <c r="A98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>206</v>
@@ -4444,7 +4458,7 @@
         <v>348</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>241</v>
@@ -4453,13 +4467,13 @@
         <v>310</v>
       </c>
       <c r="G98" t="str">
-        <f>IF(B98="inspire",INSPIRE,IMKL) &amp; F98 &amp; "/" &amp; D98</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/Raaginrichting</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" thickBot="1">
       <c r="A99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>206</v>
@@ -4477,13 +4491,13 @@
         <v>310</v>
       </c>
       <c r="G99" t="str">
-        <f>IF(B99="inspire",INSPIRE,IMKL) &amp; F99 &amp; "/" &amp; D99</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" thickBot="1">
       <c r="A100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>206</v>
@@ -4501,13 +4515,13 @@
         <v>311</v>
       </c>
       <c r="G100" t="str">
-        <f>IF(B100="inspire",INSPIRE,IMKL) &amp; F100 &amp; "/" &amp; D100</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" thickBot="1">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>206</v>
@@ -4525,13 +4539,13 @@
         <v>311</v>
       </c>
       <c r="G101" t="str">
-        <f>IF(B101="inspire",INSPIRE,IMKL) &amp; F101 &amp; "/" &amp; D101</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>206</v>
@@ -4549,13 +4563,13 @@
         <v>311</v>
       </c>
       <c r="G102" t="str">
-        <f>IF(B102="inspire",INSPIRE,IMKL) &amp; F102 &amp; "/" &amp; D102</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" thickBot="1">
       <c r="A103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>206</v>
@@ -4573,13 +4587,13 @@
         <v>311</v>
       </c>
       <c r="G103" t="str">
-        <f>IF(B103="inspire",INSPIRE,IMKL) &amp; F103 &amp; "/" &amp; D103</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1">
       <c r="A104" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>206</v>
@@ -4597,13 +4611,13 @@
         <v>310</v>
       </c>
       <c r="G104" t="str">
-        <f>IF(B104="inspire",INSPIRE,IMKL) &amp; F104 &amp; "/" &amp; D104</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" thickBot="1">
       <c r="A105" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>206</v>
@@ -4621,13 +4635,13 @@
         <v>310</v>
       </c>
       <c r="G105" t="str">
-        <f>IF(B105="inspire",INSPIRE,IMKL) &amp; F105 &amp; "/" &amp; D105</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>206</v>
@@ -4645,13 +4659,13 @@
         <v>310</v>
       </c>
       <c r="G106" t="str">
-        <f>IF(B106="inspire",INSPIRE,IMKL) &amp; F106 &amp; "/" &amp; D106</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>206</v>
@@ -4669,13 +4683,13 @@
         <v>310</v>
       </c>
       <c r="G107" t="str">
-        <f>IF(B107="inspire",INSPIRE,IMKL) &amp; F107 &amp; "/" &amp; D107</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>206</v>
@@ -4693,13 +4707,13 @@
         <v>310</v>
       </c>
       <c r="G108" t="str">
-        <f>IF(B108="inspire",INSPIRE,IMKL) &amp; F108 &amp; "/" &amp; D108</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>206</v>
@@ -4717,13 +4731,13 @@
         <v>310</v>
       </c>
       <c r="G109" t="str">
-        <f>IF(B109="inspire",INSPIRE,IMKL) &amp; F109 &amp; "/" &amp; D109</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>206</v>
@@ -4741,13 +4755,13 @@
         <v>310</v>
       </c>
       <c r="G110" t="str">
-        <f>IF(B110="inspire",INSPIRE,IMKL) &amp; F110 &amp; "/" &amp; D110</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>206</v>
@@ -4765,13 +4779,13 @@
         <v>310</v>
       </c>
       <c r="G111" t="str">
-        <f>IF(B111="inspire",INSPIRE,IMKL) &amp; F111 &amp; "/" &amp; D111</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>82</v>
@@ -4789,13 +4803,13 @@
         <v>310</v>
       </c>
       <c r="G112" t="str">
-        <f>IF(B112="inspire",INSPIRE,IMKL) &amp; F112 &amp; "/" &amp; D112</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>82</v>
@@ -4813,13 +4827,13 @@
         <v>310</v>
       </c>
       <c r="G113" t="str">
-        <f>IF(B113="inspire",INSPIRE,IMKL) &amp; F113 &amp; "/" &amp; D113</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>82</v>
@@ -4837,13 +4851,13 @@
         <v>310</v>
       </c>
       <c r="G114" t="str">
-        <f>IF(B114="inspire",INSPIRE,IMKL) &amp; F114 &amp; "/" &amp; D114</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>82</v>
@@ -4861,13 +4875,13 @@
         <v>310</v>
       </c>
       <c r="G115" t="str">
-        <f>IF(B115="inspire",INSPIRE,IMKL) &amp; F115 &amp; "/" &amp; D115</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>82</v>
@@ -4885,13 +4899,13 @@
         <v>310</v>
       </c>
       <c r="G116" t="str">
-        <f>IF(B116="inspire",INSPIRE,IMKL) &amp; F116 &amp; "/" &amp; D116</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>82</v>
@@ -4909,13 +4923,13 @@
         <v>310</v>
       </c>
       <c r="G117" t="str">
-        <f>IF(B117="inspire",INSPIRE,IMKL) &amp; F117 &amp; "/" &amp; D117</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>82</v>
@@ -4933,13 +4947,13 @@
         <v>310</v>
       </c>
       <c r="G118" t="str">
-        <f>IF(B118="inspire",INSPIRE,IMKL) &amp; F118 &amp; "/" &amp; D118</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>28</v>
@@ -4957,13 +4971,13 @@
         <v>309</v>
       </c>
       <c r="G119" t="str">
-        <f>IF(B119="inspire",INSPIRE,IMKL) &amp; F119 &amp; "/" &amp; D119</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>28</v>
@@ -4972,7 +4986,7 @@
         <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>50</v>
@@ -4981,13 +4995,13 @@
         <v>309</v>
       </c>
       <c r="G120" t="str">
-        <f>IF(B120="inspire",INSPIRE,IMKL) &amp; F120 &amp; "/" &amp; D120</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>28</v>
@@ -5005,13 +5019,13 @@
         <v>309</v>
       </c>
       <c r="G121" t="str">
-        <f>IF(B121="inspire",INSPIRE,IMKL) &amp; F121 &amp; "/" &amp; D121</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>28</v>
@@ -5029,13 +5043,13 @@
         <v>309</v>
       </c>
       <c r="G122" t="str">
-        <f>IF(B122="inspire",INSPIRE,IMKL) &amp; F122 &amp; "/" &amp; D122</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>28</v>
@@ -5053,13 +5067,13 @@
         <v>309</v>
       </c>
       <c r="G123" t="str">
-        <f>IF(B123="inspire",INSPIRE,IMKL) &amp; F123 &amp; "/" &amp; D123</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>28</v>
@@ -5077,13 +5091,13 @@
         <v>309</v>
       </c>
       <c r="G124" t="str">
-        <f>IF(B124="inspire",INSPIRE,IMKL) &amp; F124 &amp; "/" &amp; D124</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>28</v>
@@ -5101,13 +5115,13 @@
         <v>309</v>
       </c>
       <c r="G125" t="str">
-        <f>IF(B125="inspire",INSPIRE,IMKL) &amp; F125 &amp; "/" &amp; D125</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>28</v>
@@ -5125,13 +5139,13 @@
         <v>309</v>
       </c>
       <c r="G126" t="str">
-        <f>IF(B126="inspire",INSPIRE,IMKL) &amp; F126 &amp; "/" &amp; D126</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>28</v>
@@ -5149,13 +5163,13 @@
         <v>309</v>
       </c>
       <c r="G127" t="str">
-        <f>IF(B127="inspire",INSPIRE,IMKL) &amp; F127 &amp; "/" &amp; D127</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>28</v>
@@ -5173,13 +5187,13 @@
         <v>260</v>
       </c>
       <c r="G128" t="str">
-        <f>IF(B128="inspire",INSPIRE,IMKL) &amp; F128 &amp; "/" &amp; D128</f>
+        <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>82</v>
@@ -5197,13 +5211,13 @@
         <v>311</v>
       </c>
       <c r="G129" t="str">
-        <f>IF(B129="inspire",INSPIRE,IMKL) &amp; F129 &amp; "/" &amp; D129</f>
+        <f t="shared" si="1"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>82</v>
@@ -5221,13 +5235,13 @@
         <v>260</v>
       </c>
       <c r="G130" t="str">
-        <f>IF(B130="inspire",INSPIRE,IMKL) &amp; F130 &amp; "/" &amp; D130</f>
+        <f t="shared" ref="G130:G193" si="2">IF(B130="inspire",INSPIRE,IMKL) &amp; F130 &amp; "/" &amp; D130</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>82</v>
@@ -5245,13 +5259,13 @@
         <v>260</v>
       </c>
       <c r="G131" t="str">
-        <f>IF(B131="inspire",INSPIRE,IMKL) &amp; F131 &amp; "/" &amp; D131</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>82</v>
@@ -5269,13 +5283,13 @@
         <v>260</v>
       </c>
       <c r="G132" t="str">
-        <f>IF(B132="inspire",INSPIRE,IMKL) &amp; F132 &amp; "/" &amp; D132</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>82</v>
@@ -5293,13 +5307,13 @@
         <v>260</v>
       </c>
       <c r="G133" t="str">
-        <f>IF(B133="inspire",INSPIRE,IMKL) &amp; F133 &amp; "/" &amp; D133</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>82</v>
@@ -5317,13 +5331,13 @@
         <v>260</v>
       </c>
       <c r="G134" t="str">
-        <f>IF(B134="inspire",INSPIRE,IMKL) &amp; F134 &amp; "/" &amp; D134</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>82</v>
@@ -5341,13 +5355,13 @@
         <v>260</v>
       </c>
       <c r="G135" t="str">
-        <f>IF(B135="inspire",INSPIRE,IMKL) &amp; F135 &amp; "/" &amp; D135</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>82</v>
@@ -5365,13 +5379,13 @@
         <v>260</v>
       </c>
       <c r="G136" t="str">
-        <f>IF(B136="inspire",INSPIRE,IMKL) &amp; F136 &amp; "/" &amp; D136</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>82</v>
@@ -5389,13 +5403,13 @@
         <v>260</v>
       </c>
       <c r="G137" t="str">
-        <f>IF(B137="inspire",INSPIRE,IMKL) &amp; F137 &amp; "/" &amp; D137</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>82</v>
@@ -5413,13 +5427,13 @@
         <v>260</v>
       </c>
       <c r="G138" t="str">
-        <f>IF(B138="inspire",INSPIRE,IMKL) &amp; F138 &amp; "/" &amp; D138</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>82</v>
@@ -5437,13 +5451,13 @@
         <v>260</v>
       </c>
       <c r="G139" t="str">
-        <f>IF(B139="inspire",INSPIRE,IMKL) &amp; F139 &amp; "/" &amp; D139</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>82</v>
@@ -5461,13 +5475,13 @@
         <v>260</v>
       </c>
       <c r="G140" t="str">
-        <f>IF(B140="inspire",INSPIRE,IMKL) &amp; F140 &amp; "/" &amp; D140</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>82</v>
@@ -5485,13 +5499,13 @@
         <v>260</v>
       </c>
       <c r="G141" t="str">
-        <f>IF(B141="inspire",INSPIRE,IMKL) &amp; F141 &amp; "/" &amp; D141</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>82</v>
@@ -5509,13 +5523,13 @@
         <v>260</v>
       </c>
       <c r="G142" t="str">
-        <f>IF(B142="inspire",INSPIRE,IMKL) &amp; F142 &amp; "/" &amp; D142</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>82</v>
@@ -5533,13 +5547,13 @@
         <v>260</v>
       </c>
       <c r="G143" t="str">
-        <f>IF(B143="inspire",INSPIRE,IMKL) &amp; F143 &amp; "/" &amp; D143</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>82</v>
@@ -5557,13 +5571,13 @@
         <v>260</v>
       </c>
       <c r="G144" t="str">
-        <f>IF(B144="inspire",INSPIRE,IMKL) &amp; F144 &amp; "/" &amp; D144</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>82</v>
@@ -5581,13 +5595,13 @@
         <v>260</v>
       </c>
       <c r="G145" t="str">
-        <f>IF(B145="inspire",INSPIRE,IMKL) &amp; F145 &amp; "/" &amp; D145</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>82</v>
@@ -5605,13 +5619,13 @@
         <v>260</v>
       </c>
       <c r="G146" t="str">
-        <f>IF(B146="inspire",INSPIRE,IMKL) &amp; F146 &amp; "/" &amp; D146</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>82</v>
@@ -5629,13 +5643,13 @@
         <v>260</v>
       </c>
       <c r="G147" t="str">
-        <f>IF(B147="inspire",INSPIRE,IMKL) &amp; F147 &amp; "/" &amp; D147</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>82</v>
@@ -5653,13 +5667,13 @@
         <v>260</v>
       </c>
       <c r="G148" t="str">
-        <f>IF(B148="inspire",INSPIRE,IMKL) &amp; F148 &amp; "/" &amp; D148</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>82</v>
@@ -5677,13 +5691,13 @@
         <v>260</v>
       </c>
       <c r="G149" t="str">
-        <f>IF(B149="inspire",INSPIRE,IMKL) &amp; F149 &amp; "/" &amp; D149</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>82</v>
@@ -5701,13 +5715,13 @@
         <v>260</v>
       </c>
       <c r="G150" t="str">
-        <f>IF(B150="inspire",INSPIRE,IMKL) &amp; F150 &amp; "/" &amp; D150</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>82</v>
@@ -5725,13 +5739,13 @@
         <v>260</v>
       </c>
       <c r="G151" t="str">
-        <f>IF(B151="inspire",INSPIRE,IMKL) &amp; F151 &amp; "/" &amp; D151</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>82</v>
@@ -5749,13 +5763,13 @@
         <v>260</v>
       </c>
       <c r="G152" t="str">
-        <f>IF(B152="inspire",INSPIRE,IMKL) &amp; F152 &amp; "/" &amp; D152</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>82</v>
@@ -5773,13 +5787,13 @@
         <v>260</v>
       </c>
       <c r="G153" t="str">
-        <f>IF(B153="inspire",INSPIRE,IMKL) &amp; F153 &amp; "/" &amp; D153</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>82</v>
@@ -5797,13 +5811,13 @@
         <v>260</v>
       </c>
       <c r="G154" t="str">
-        <f>IF(B154="inspire",INSPIRE,IMKL) &amp; F154 &amp; "/" &amp; D154</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>82</v>
@@ -5821,13 +5835,13 @@
         <v>260</v>
       </c>
       <c r="G155" t="str">
-        <f>IF(B155="inspire",INSPIRE,IMKL) &amp; F155 &amp; "/" &amp; D155</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>82</v>
@@ -5845,13 +5859,13 @@
         <v>260</v>
       </c>
       <c r="G156" t="str">
-        <f>IF(B156="inspire",INSPIRE,IMKL) &amp; F156 &amp; "/" &amp; D156</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>82</v>
@@ -5869,13 +5883,13 @@
         <v>260</v>
       </c>
       <c r="G157" t="str">
-        <f>IF(B157="inspire",INSPIRE,IMKL) &amp; F157 &amp; "/" &amp; D157</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>82</v>
@@ -5893,13 +5907,13 @@
         <v>260</v>
       </c>
       <c r="G158" t="str">
-        <f>IF(B158="inspire",INSPIRE,IMKL) &amp; F158 &amp; "/" &amp; D158</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>82</v>
@@ -5917,13 +5931,13 @@
         <v>260</v>
       </c>
       <c r="G159" t="str">
-        <f>IF(B159="inspire",INSPIRE,IMKL) &amp; F159 &amp; "/" &amp; D159</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>82</v>
@@ -5941,13 +5955,13 @@
         <v>260</v>
       </c>
       <c r="G160" t="str">
-        <f>IF(B160="inspire",INSPIRE,IMKL) &amp; F160 &amp; "/" &amp; D160</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>82</v>
@@ -5965,13 +5979,13 @@
         <v>260</v>
       </c>
       <c r="G161" t="str">
-        <f>IF(B161="inspire",INSPIRE,IMKL) &amp; F161 &amp; "/" &amp; D161</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>82</v>
@@ -5989,13 +6003,13 @@
         <v>260</v>
       </c>
       <c r="G162" t="str">
-        <f>IF(B162="inspire",INSPIRE,IMKL) &amp; F162 &amp; "/" &amp; D162</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>82</v>
@@ -6013,13 +6027,13 @@
         <v>260</v>
       </c>
       <c r="G163" t="str">
-        <f>IF(B163="inspire",INSPIRE,IMKL) &amp; F163 &amp; "/" &amp; D163</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>82</v>
@@ -6037,13 +6051,13 @@
         <v>260</v>
       </c>
       <c r="G164" t="str">
-        <f>IF(B164="inspire",INSPIRE,IMKL) &amp; F164 &amp; "/" &amp; D164</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" thickBot="1">
       <c r="A165" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>82</v>
@@ -6061,7 +6075,7 @@
         <v>260</v>
       </c>
       <c r="G165" t="str">
-        <f>IF(B165="inspire",INSPIRE,IMKL) &amp; F165 &amp; "/" &amp; D165</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
@@ -6085,7 +6099,7 @@
         <v>261</v>
       </c>
       <c r="G166" t="str">
-        <f>IF(B166="inspire",INSPIRE,IMKL) &amp; F166 &amp; "/" &amp; D166</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
@@ -6109,7 +6123,7 @@
         <v>261</v>
       </c>
       <c r="G167" t="str">
-        <f>IF(B167="inspire",INSPIRE,IMKL) &amp; F167 &amp; "/" &amp; D167</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
@@ -6133,7 +6147,7 @@
         <v>261</v>
       </c>
       <c r="G168" t="str">
-        <f>IF(B168="inspire",INSPIRE,IMKL) &amp; F168 &amp; "/" &amp; D168</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
@@ -6157,7 +6171,7 @@
         <v>261</v>
       </c>
       <c r="G169" t="str">
-        <f>IF(B169="inspire",INSPIRE,IMKL) &amp; F169 &amp; "/" &amp; D169</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
@@ -6181,7 +6195,7 @@
         <v>261</v>
       </c>
       <c r="G170" t="str">
-        <f>IF(B170="inspire",INSPIRE,IMKL) &amp; F170 &amp; "/" &amp; D170</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
@@ -6205,7 +6219,7 @@
         <v>306</v>
       </c>
       <c r="G171" t="str">
-        <f>IF(B171="inspire",INSPIRE,IMKL) &amp; F171 &amp; "/" &amp; D171</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
@@ -6229,7 +6243,7 @@
         <v>306</v>
       </c>
       <c r="G172" t="str">
-        <f>IF(B172="inspire",INSPIRE,IMKL) &amp; F172 &amp; "/" &amp; D172</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
@@ -6253,7 +6267,7 @@
         <v>306</v>
       </c>
       <c r="G173" t="str">
-        <f>IF(B173="inspire",INSPIRE,IMKL) &amp; F173 &amp; "/" &amp; D173</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
@@ -6277,7 +6291,7 @@
         <v>306</v>
       </c>
       <c r="G174" t="str">
-        <f>IF(B174="inspire",INSPIRE,IMKL) &amp; F174 &amp; "/" &amp; D174</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
@@ -6301,7 +6315,7 @@
         <v>306</v>
       </c>
       <c r="G175" t="str">
-        <f>IF(B175="inspire",INSPIRE,IMKL) &amp; F175 &amp; "/" &amp; D175</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
@@ -6325,7 +6339,7 @@
         <v>306</v>
       </c>
       <c r="G176" t="str">
-        <f>IF(B176="inspire",INSPIRE,IMKL) &amp; F176 &amp; "/" &amp; D176</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
@@ -6349,7 +6363,7 @@
         <v>306</v>
       </c>
       <c r="G177" t="str">
-        <f>IF(B177="inspire",INSPIRE,IMKL) &amp; F177 &amp; "/" &amp; D177</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
@@ -6373,7 +6387,7 @@
         <v>306</v>
       </c>
       <c r="G178" t="str">
-        <f>IF(B178="inspire",INSPIRE,IMKL) &amp; F178 &amp; "/" &amp; D178</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
@@ -6397,7 +6411,7 @@
         <v>306</v>
       </c>
       <c r="G179" t="str">
-        <f>IF(B179="inspire",INSPIRE,IMKL) &amp; F179 &amp; "/" &amp; D179</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
@@ -6421,7 +6435,7 @@
         <v>306</v>
       </c>
       <c r="G180" t="str">
-        <f>IF(B180="inspire",INSPIRE,IMKL) &amp; F180 &amp; "/" &amp; D180</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
@@ -6445,7 +6459,7 @@
         <v>306</v>
       </c>
       <c r="G181" t="str">
-        <f>IF(B181="inspire",INSPIRE,IMKL) &amp; F181 &amp; "/" &amp; D181</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
@@ -6469,7 +6483,7 @@
         <v>306</v>
       </c>
       <c r="G182" t="str">
-        <f>IF(B182="inspire",INSPIRE,IMKL) &amp; F182 &amp; "/" &amp; D182</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
@@ -6493,7 +6507,7 @@
         <v>306</v>
       </c>
       <c r="G183" t="str">
-        <f>IF(B183="inspire",INSPIRE,IMKL) &amp; F183 &amp; "/" &amp; D183</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
@@ -6517,7 +6531,7 @@
         <v>306</v>
       </c>
       <c r="G184" t="str">
-        <f>IF(B184="inspire",INSPIRE,IMKL) &amp; F184 &amp; "/" &amp; D184</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
@@ -6532,7 +6546,7 @@
         <v>348</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>56</v>
@@ -6541,7 +6555,7 @@
         <v>306</v>
       </c>
       <c r="G185" t="str">
-        <f>IF(B185="inspire",INSPIRE,IMKL) &amp; F185 &amp; "/" &amp; D185</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
@@ -6565,7 +6579,7 @@
         <v>306</v>
       </c>
       <c r="G186" t="str">
-        <f>IF(B186="inspire",INSPIRE,IMKL) &amp; F186 &amp; "/" &amp; D186</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
@@ -6589,7 +6603,7 @@
         <v>306</v>
       </c>
       <c r="G187" t="str">
-        <f>IF(B187="inspire",INSPIRE,IMKL) &amp; F187 &amp; "/" &amp; D187</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
@@ -6613,7 +6627,7 @@
         <v>262</v>
       </c>
       <c r="G188" t="str">
-        <f>IF(B188="inspire",INSPIRE,IMKL) &amp; F188 &amp; "/" &amp; D188</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
       </c>
     </row>
@@ -6637,7 +6651,7 @@
         <v>262</v>
       </c>
       <c r="G189" t="str">
-        <f>IF(B189="inspire",INSPIRE,IMKL) &amp; F189 &amp; "/" &amp; D189</f>
+        <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
       </c>
     </row>
@@ -6661,7 +6675,7 @@
         <v>262</v>
       </c>
       <c r="G190" t="str">
-        <f>IF(B190="inspire",INSPIRE,IMKL) &amp; F190 &amp; "/" &amp; D190</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
@@ -6685,7 +6699,7 @@
         <v>262</v>
       </c>
       <c r="G191" t="str">
-        <f>IF(B191="inspire",INSPIRE,IMKL) &amp; F191 &amp; "/" &amp; D191</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
@@ -6709,7 +6723,7 @@
         <v>262</v>
       </c>
       <c r="G192" t="str">
-        <f>IF(B192="inspire",INSPIRE,IMKL) &amp; F192 &amp; "/" &amp; D192</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
@@ -6733,7 +6747,7 @@
         <v>262</v>
       </c>
       <c r="G193" t="str">
-        <f>IF(B193="inspire",INSPIRE,IMKL) &amp; F193 &amp; "/" &amp; D193</f>
+        <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
@@ -6753,13 +6767,13 @@
         <v>312</v>
       </c>
       <c r="G194" t="str">
-        <f>IF(B194="inspire",INSPIRE,IMKL) &amp; F194 &amp; "/" &amp; D194</f>
+        <f t="shared" ref="G194:G227" si="3">IF(B194="inspire",INSPIRE,IMKL) &amp; F194 &amp; "/" &amp; D194</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" thickBot="1">
       <c r="A195" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B195" s="21" t="s">
         <v>206</v>
@@ -6777,13 +6791,13 @@
         <v>263</v>
       </c>
       <c r="G195" t="str">
-        <f>IF(B195="inspire",INSPIRE,IMKL) &amp; F195 &amp; "/" &amp; D195</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="29" thickBot="1">
       <c r="A196" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>206</v>
@@ -6801,13 +6815,13 @@
         <v>263</v>
       </c>
       <c r="G196" t="str">
-        <f>IF(B196="inspire",INSPIRE,IMKL) &amp; F196 &amp; "/" &amp; D196</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" thickBot="1">
       <c r="A197" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B197" s="21" t="s">
         <v>206</v>
@@ -6825,13 +6839,13 @@
         <v>263</v>
       </c>
       <c r="G197" t="str">
-        <f>IF(B197="inspire",INSPIRE,IMKL) &amp; F197 &amp; "/" &amp; D197</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" thickBot="1">
       <c r="A198" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>206</v>
@@ -6849,13 +6863,13 @@
         <v>263</v>
       </c>
       <c r="G198" t="str">
-        <f>IF(B198="inspire",INSPIRE,IMKL) &amp; F198 &amp; "/" &amp; D198</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>206</v>
@@ -6873,13 +6887,13 @@
         <v>263</v>
       </c>
       <c r="G199" t="str">
-        <f>IF(B199="inspire",INSPIRE,IMKL) &amp; F199 &amp; "/" &amp; D199</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B200" s="21" t="s">
         <v>206</v>
@@ -6897,13 +6911,13 @@
         <v>263</v>
       </c>
       <c r="G200" t="str">
-        <f>IF(B200="inspire",INSPIRE,IMKL) &amp; F200 &amp; "/" &amp; D200</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" thickBot="1">
       <c r="A201" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>28</v>
@@ -6921,13 +6935,13 @@
         <v>307</v>
       </c>
       <c r="G201" t="str">
-        <f>IF(B201="inspire",INSPIRE,IMKL) &amp; F201 &amp; "/" &amp; D201</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" thickBot="1">
       <c r="A202" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>28</v>
@@ -6945,13 +6959,13 @@
         <v>307</v>
       </c>
       <c r="G202" t="str">
-        <f>IF(B202="inspire",INSPIRE,IMKL) &amp; F202 &amp; "/" &amp; D202</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" thickBot="1">
       <c r="A203" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>28</v>
@@ -6969,13 +6983,13 @@
         <v>307</v>
       </c>
       <c r="G203" t="str">
-        <f>IF(B203="inspire",INSPIRE,IMKL) &amp; F203 &amp; "/" &amp; D203</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15" thickBot="1">
       <c r="A204" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>28</v>
@@ -6993,13 +7007,13 @@
         <v>307</v>
       </c>
       <c r="G204" t="str">
-        <f>IF(B204="inspire",INSPIRE,IMKL) &amp; F204 &amp; "/" &amp; D204</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" thickBot="1">
       <c r="A205" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>28</v>
@@ -7017,13 +7031,13 @@
         <v>307</v>
       </c>
       <c r="G205" t="str">
-        <f>IF(B205="inspire",INSPIRE,IMKL) &amp; F205 &amp; "/" &amp; D205</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15" thickBot="1">
       <c r="A206" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>28</v>
@@ -7041,13 +7055,13 @@
         <v>307</v>
       </c>
       <c r="G206" t="str">
-        <f>IF(B206="inspire",INSPIRE,IMKL) &amp; F206 &amp; "/" &amp; D206</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>82</v>
@@ -7065,13 +7079,13 @@
         <v>263</v>
       </c>
       <c r="G207" t="str">
-        <f>IF(B207="inspire",INSPIRE,IMKL) &amp; F207 &amp; "/" &amp; D207</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>28</v>
@@ -7089,13 +7103,13 @@
         <v>307</v>
       </c>
       <c r="G208" t="str">
-        <f>IF(B208="inspire",INSPIRE,IMKL) &amp; F208 &amp; "/" &amp; D208</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>28</v>
@@ -7113,13 +7127,13 @@
         <v>307</v>
       </c>
       <c r="G209" t="str">
-        <f>IF(B209="inspire",INSPIRE,IMKL) &amp; F209 &amp; "/" &amp; D209</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>28</v>
@@ -7137,13 +7151,13 @@
         <v>307</v>
       </c>
       <c r="G210" t="str">
-        <f>IF(B210="inspire",INSPIRE,IMKL) &amp; F210 &amp; "/" &amp; D210</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15" thickBot="1">
       <c r="A211" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>28</v>
@@ -7161,13 +7175,13 @@
         <v>264</v>
       </c>
       <c r="G211" t="str">
-        <f>IF(B211="inspire",INSPIRE,IMKL) &amp; F211 &amp; "/" &amp; D211</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15" thickBot="1">
       <c r="A212" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B212" s="12" t="s">
         <v>28</v>
@@ -7185,13 +7199,13 @@
         <v>264</v>
       </c>
       <c r="G212" t="str">
-        <f>IF(B212="inspire",INSPIRE,IMKL) &amp; F212 &amp; "/" &amp; D212</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15" thickBot="1">
       <c r="A213" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>28</v>
@@ -7209,13 +7223,13 @@
         <v>264</v>
       </c>
       <c r="G213" t="str">
-        <f>IF(B213="inspire",INSPIRE,IMKL) &amp; F213 &amp; "/" &amp; D213</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15" thickBot="1">
       <c r="A214" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>28</v>
@@ -7233,13 +7247,13 @@
         <v>264</v>
       </c>
       <c r="G214" t="str">
-        <f>IF(B214="inspire",INSPIRE,IMKL) &amp; F214 &amp; "/" &amp; D214</f>
+        <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C215" s="36" t="s">
         <v>348</v>
@@ -7254,7 +7268,7 @@
         <v>263</v>
       </c>
       <c r="G215" t="str">
-        <f>IF(B215="inspire",INSPIRE,IMKL) &amp; F215 &amp; "/" &amp; D215</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
@@ -7278,7 +7292,7 @@
         <v>263</v>
       </c>
       <c r="G216" t="str">
-        <f>IF(B216="inspire",INSPIRE,IMKL) &amp; F216 &amp; "/" &amp; D216</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
@@ -7302,7 +7316,7 @@
         <v>263</v>
       </c>
       <c r="G217" t="str">
-        <f>IF(B217="inspire",INSPIRE,IMKL) &amp; F217 &amp; "/" &amp; D217</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
@@ -7326,7 +7340,7 @@
         <v>263</v>
       </c>
       <c r="G218" t="str">
-        <f>IF(B218="inspire",INSPIRE,IMKL) &amp; F218 &amp; "/" &amp; D218</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/putten</v>
       </c>
     </row>
@@ -7350,7 +7364,7 @@
         <v>263</v>
       </c>
       <c r="G219" t="str">
-        <f>IF(B219="inspire",INSPIRE,IMKL) &amp; F219 &amp; "/" &amp; D219</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
@@ -7374,7 +7388,7 @@
         <v>263</v>
       </c>
       <c r="G220" t="str">
-        <f>IF(B220="inspire",INSPIRE,IMKL) &amp; F220 &amp; "/" &amp; D220</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
@@ -7389,7 +7403,7 @@
         <v>263</v>
       </c>
       <c r="G221" t="str">
-        <f>IF(B221="inspire",INSPIRE,IMKL) &amp; F221 &amp; "/" &amp; D221</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
@@ -7413,7 +7427,7 @@
         <v>263</v>
       </c>
       <c r="G222" t="str">
-        <f>IF(B222="inspire",INSPIRE,IMKL) &amp; F222 &amp; "/" &amp; D222</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
@@ -7437,7 +7451,7 @@
         <v>263</v>
       </c>
       <c r="G223" t="str">
-        <f>IF(B223="inspire",INSPIRE,IMKL) &amp; F223 &amp; "/" &amp; D223</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
@@ -7461,7 +7475,7 @@
         <v>263</v>
       </c>
       <c r="G224" t="str">
-        <f>IF(B224="inspire",INSPIRE,IMKL) &amp; F224 &amp; "/" &amp; D224</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
@@ -7485,7 +7499,7 @@
         <v>263</v>
       </c>
       <c r="G225" t="str">
-        <f>IF(B225="inspire",INSPIRE,IMKL) &amp; F225 &amp; "/" &amp; D225</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
@@ -7500,7 +7514,7 @@
         <v>263</v>
       </c>
       <c r="G226" t="str">
-        <f>IF(B226="inspire",INSPIRE,IMKL) &amp; F226 &amp; "/" &amp; D226</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
@@ -7521,11 +7535,12 @@
         <v>263</v>
       </c>
       <c r="G227" t="str">
-        <f>IF(B227="inspire",INSPIRE,IMKL) &amp; F227 &amp; "/" &amp; D227</f>
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G227"/>
   <sortState ref="B2:F62">
     <sortCondition ref="C2:C62"/>
     <sortCondition ref="B2:B62"/>

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="1240" windowWidth="28620" windowHeight="19480" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="38420" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -27,6 +27,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wilko Quak</author>
+  </authors>
+  <commentList>
+    <comment ref="D54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wilko Quak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CrossTheme is not known in INSPIRE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wilko Quak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This whole codelists seems to have dissappeared from INSPIRE. What now?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="383">
   <si>
@@ -1318,7 +1376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1478,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2231,11 +2302,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2271,7 +2343,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A2" s="1" t="s">
         <v>369</v>
       </c>
@@ -2295,7 +2367,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatiePijl</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A3" s="1" t="s">
         <v>369</v>
       </c>
@@ -2316,7 +2388,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLijn</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A4" s="1" t="s">
         <v>369</v>
       </c>
@@ -2337,7 +2409,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLabel</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A5" s="1" t="s">
         <v>369</v>
       </c>
@@ -2358,7 +2430,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A6" s="1" t="s">
         <v>369</v>
       </c>
@@ -2379,7 +2451,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A7" s="1" t="s">
         <v>369</v>
       </c>
@@ -2400,7 +2472,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A8" s="1" t="s">
         <v>369</v>
       </c>
@@ -2421,7 +2493,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A9" s="1" t="s">
         <v>369</v>
       </c>
@@ -2443,7 +2515,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A10" s="1" t="s">
         <v>369</v>
       </c>
@@ -2465,7 +2537,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A11" s="1" t="s">
         <v>369</v>
       </c>
@@ -2487,7 +2559,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -2508,7 +2580,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>369</v>
       </c>
@@ -2529,7 +2601,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>369</v>
       </c>
@@ -2550,7 +2622,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>369</v>
       </c>
@@ -2571,7 +2643,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
+    <row r="16" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A16" s="1" t="s">
         <v>369</v>
       </c>
@@ -2592,7 +2664,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/huisaansluiting</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A17" s="1" t="s">
         <v>369</v>
       </c>
@@ -2613,7 +2685,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/lengteprofiel</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A18" s="1" t="s">
         <v>369</v>
       </c>
@@ -2634,7 +2706,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A19" s="1" t="s">
         <v>369</v>
       </c>
@@ -2655,7 +2727,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/dwarsprofiel</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>369</v>
       </c>
@@ -2676,7 +2748,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/eigen</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A21" s="1" t="s">
         <v>369</v>
       </c>
@@ -2697,7 +2769,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/ontwerp</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>369</v>
       </c>
@@ -2718,7 +2790,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>369</v>
       </c>
@@ -2739,7 +2811,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A24" s="1" t="s">
         <v>369</v>
       </c>
@@ -2760,7 +2832,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
+    <row r="25" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A25" s="1" t="s">
         <v>369</v>
       </c>
@@ -2781,7 +2853,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
+    <row r="26" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A26" s="1" t="s">
         <v>369</v>
       </c>
@@ -2802,7 +2874,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1">
+    <row r="27" spans="1:7" s="1" customFormat="1" hidden="1">
       <c r="A27" s="1" t="s">
         <v>369</v>
       </c>
@@ -2823,7 +2895,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijl</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="1" t="s">
         <v>369</v>
       </c>
@@ -2845,7 +2917,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="1" t="s">
         <v>369</v>
       </c>
@@ -2869,7 +2941,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1" t="s">
         <v>369</v>
       </c>
@@ -2890,7 +2962,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="1" t="s">
         <v>369</v>
       </c>
@@ -2914,7 +2986,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1" t="s">
         <v>369</v>
       </c>
@@ -2938,7 +3010,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1" t="s">
         <v>369</v>
       </c>
@@ -2962,7 +3034,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="1" t="s">
         <v>369</v>
       </c>
@@ -2986,7 +3058,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1" t="s">
         <v>369</v>
       </c>
@@ -3010,7 +3082,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1" t="s">
         <v>369</v>
       </c>
@@ -3034,7 +3106,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="1" t="s">
         <v>369</v>
       </c>
@@ -3058,7 +3130,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="1" t="s">
         <v>369</v>
       </c>
@@ -3082,7 +3154,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="1" t="s">
         <v>369</v>
       </c>
@@ -3106,7 +3178,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="1" t="s">
         <v>369</v>
       </c>
@@ -3130,7 +3202,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1" t="s">
         <v>369</v>
       </c>
@@ -3154,7 +3226,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="1" t="s">
         <v>369</v>
       </c>
@@ -3178,7 +3250,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="1" t="s">
         <v>369</v>
       </c>
@@ -3202,7 +3274,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="1" t="s">
         <v>369</v>
       </c>
@@ -3223,7 +3295,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="1" t="s">
         <v>369</v>
       </c>
@@ -3244,7 +3316,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="1" t="s">
         <v>369</v>
       </c>
@@ -3265,7 +3337,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="1" t="s">
         <v>369</v>
       </c>
@@ -3433,7 +3505,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="1" t="s">
         <v>369</v>
       </c>
@@ -3454,7 +3526,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="1" t="s">
         <v>369</v>
       </c>
@@ -3475,7 +3547,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="1" t="s">
         <v>369</v>
       </c>
@@ -3496,7 +3568,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1">
+    <row r="58" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A58" t="s">
         <v>370</v>
       </c>
@@ -3520,7 +3592,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1">
+    <row r="59" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A59" t="s">
         <v>370</v>
       </c>
@@ -3544,7 +3616,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1">
+    <row r="60" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -3568,7 +3640,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1">
+    <row r="61" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -3592,7 +3664,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/Adrespunt</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1">
+    <row r="62" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A62" t="s">
         <v>370</v>
       </c>
@@ -3616,7 +3688,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1">
+    <row r="63" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A63" t="s">
         <v>370</v>
       </c>
@@ -3640,7 +3712,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1">
+    <row r="64" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A64" t="s">
         <v>370</v>
       </c>
@@ -3664,7 +3736,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1">
+    <row r="65" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A65" t="s">
         <v>370</v>
       </c>
@@ -3688,7 +3760,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1">
+    <row r="66" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A66" t="s">
         <v>370</v>
       </c>
@@ -3712,7 +3784,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1">
+    <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A67" t="s">
         <v>370</v>
       </c>
@@ -3736,7 +3808,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1">
+    <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A68" t="s">
         <v>370</v>
       </c>
@@ -3760,7 +3832,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1">
+    <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -3781,7 +3853,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1">
+    <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -3802,7 +3874,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -3826,7 +3898,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -3850,7 +3922,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" t="s">
         <v>370</v>
       </c>
@@ -3874,7 +3946,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" t="s">
         <v>370</v>
       </c>
@@ -3898,7 +3970,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1">
+    <row r="75" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A75" t="s">
         <v>370</v>
       </c>
@@ -3927,7 +3999,7 @@
         <v>371</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>348</v>
@@ -3943,7 +4015,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3951,7 +4023,7 @@
         <v>371</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>348</v>
@@ -3967,7 +4039,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4255,7 +4327,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1">
+    <row r="90" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A90" t="s">
         <v>372</v>
       </c>
@@ -4279,7 +4351,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1">
+    <row r="91" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A91" t="s">
         <v>372</v>
       </c>
@@ -4303,7 +4375,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1">
+    <row r="92" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A92" t="s">
         <v>372</v>
       </c>
@@ -4327,7 +4399,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1">
+    <row r="93" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A93" t="s">
         <v>372</v>
       </c>
@@ -4351,7 +4423,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1">
+    <row r="94" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -4375,7 +4447,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" thickBot="1">
+    <row r="95" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -4399,7 +4471,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1">
+    <row r="96" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -4423,7 +4495,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1">
+    <row r="97" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A97" t="s">
         <v>372</v>
       </c>
@@ -4447,7 +4519,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1">
+    <row r="98" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A98" t="s">
         <v>372</v>
       </c>
@@ -4471,7 +4543,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/Raaginrichting</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1">
+    <row r="99" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -4495,7 +4567,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" thickBot="1">
+    <row r="100" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A100" t="s">
         <v>372</v>
       </c>
@@ -4519,7 +4591,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1">
+    <row r="101" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A101" t="s">
         <v>372</v>
       </c>
@@ -4543,7 +4615,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -4567,7 +4639,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" thickBot="1">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" t="s">
         <v>372</v>
       </c>
@@ -4591,7 +4663,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1">
+    <row r="104" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A104" t="s">
         <v>372</v>
       </c>
@@ -4615,7 +4687,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" thickBot="1">
+    <row r="105" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A105" t="s">
         <v>372</v>
       </c>
@@ -4639,7 +4711,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" t="s">
         <v>372</v>
       </c>
@@ -4663,7 +4735,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -4687,7 +4759,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>372</v>
       </c>
@@ -4711,7 +4783,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>372</v>
       </c>
@@ -4735,7 +4807,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>372</v>
       </c>
@@ -4759,7 +4831,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>372</v>
       </c>
@@ -4783,7 +4855,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" t="s">
         <v>372</v>
       </c>
@@ -4807,7 +4879,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" t="s">
         <v>372</v>
       </c>
@@ -4831,7 +4903,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" t="s">
         <v>372</v>
       </c>
@@ -4855,7 +4927,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -4879,7 +4951,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" t="s">
         <v>372</v>
       </c>
@@ -4903,7 +4975,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" t="s">
         <v>372</v>
       </c>
@@ -4927,7 +4999,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" t="s">
         <v>372</v>
       </c>
@@ -4951,7 +5023,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" t="s">
         <v>372</v>
       </c>
@@ -4975,7 +5047,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -4999,7 +5071,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" t="s">
         <v>372</v>
       </c>
@@ -5023,7 +5095,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -5047,7 +5119,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -5071,7 +5143,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -5095,7 +5167,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" t="s">
         <v>372</v>
       </c>
@@ -5119,7 +5191,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -5143,7 +5215,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" t="s">
         <v>372</v>
       </c>
@@ -5167,7 +5239,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" t="s">
         <v>372</v>
       </c>
@@ -5191,7 +5263,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" t="s">
         <v>372</v>
       </c>
@@ -5215,7 +5287,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -5239,7 +5311,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" t="s">
         <v>372</v>
       </c>
@@ -5263,7 +5335,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -5287,7 +5359,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" t="s">
         <v>372</v>
       </c>
@@ -5311,7 +5383,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" t="s">
         <v>372</v>
       </c>
@@ -5335,7 +5407,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -5359,7 +5431,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" t="s">
         <v>372</v>
       </c>
@@ -5383,7 +5455,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" t="s">
         <v>372</v>
       </c>
@@ -5407,7 +5479,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" t="s">
         <v>372</v>
       </c>
@@ -5431,7 +5503,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1">
       <c r="A139" t="s">
         <v>372</v>
       </c>
@@ -5455,7 +5527,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" t="s">
         <v>372</v>
       </c>
@@ -5479,7 +5551,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" t="s">
         <v>372</v>
       </c>
@@ -5503,7 +5575,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" t="s">
         <v>372</v>
       </c>
@@ -5527,7 +5599,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" t="s">
         <v>372</v>
       </c>
@@ -5551,7 +5623,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" t="s">
         <v>372</v>
       </c>
@@ -5575,7 +5647,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" t="s">
         <v>372</v>
       </c>
@@ -5599,7 +5671,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" t="s">
         <v>372</v>
       </c>
@@ -5623,7 +5695,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147" t="s">
         <v>372</v>
       </c>
@@ -5647,7 +5719,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -5671,7 +5743,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1">
       <c r="A149" t="s">
         <v>372</v>
       </c>
@@ -5695,7 +5767,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" t="s">
         <v>372</v>
       </c>
@@ -5719,7 +5791,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" hidden="1">
       <c r="A151" t="s">
         <v>372</v>
       </c>
@@ -5743,7 +5815,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1">
       <c r="A152" t="s">
         <v>372</v>
       </c>
@@ -5767,7 +5839,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" t="s">
         <v>372</v>
       </c>
@@ -5791,7 +5863,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" t="s">
         <v>372</v>
       </c>
@@ -5815,7 +5887,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" t="s">
         <v>372</v>
       </c>
@@ -5839,7 +5911,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" t="s">
         <v>372</v>
       </c>
@@ -5863,7 +5935,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" t="s">
         <v>372</v>
       </c>
@@ -5887,7 +5959,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" t="s">
         <v>372</v>
       </c>
@@ -5911,7 +5983,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159" t="s">
         <v>372</v>
       </c>
@@ -5935,7 +6007,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160" t="s">
         <v>372</v>
       </c>
@@ -5959,7 +6031,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -5983,7 +6055,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" t="s">
         <v>372</v>
       </c>
@@ -6007,7 +6079,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" t="s">
         <v>372</v>
       </c>
@@ -6031,7 +6103,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" t="s">
         <v>372</v>
       </c>
@@ -6055,7 +6127,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" thickBot="1">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" t="s">
         <v>372</v>
       </c>
@@ -6079,7 +6151,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" thickBot="1">
+    <row r="166" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A166" s="4" t="s">
         <v>114</v>
       </c>
@@ -6103,7 +6175,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" thickBot="1">
+    <row r="167" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A167" s="4" t="s">
         <v>114</v>
       </c>
@@ -6127,7 +6199,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" thickBot="1">
+    <row r="168" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A168" s="4" t="s">
         <v>114</v>
       </c>
@@ -6151,7 +6223,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15" thickBot="1">
+    <row r="169" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A169" s="4" t="s">
         <v>114</v>
       </c>
@@ -6175,7 +6247,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" thickBot="1">
+    <row r="170" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A170" s="4" t="s">
         <v>114</v>
       </c>
@@ -6199,7 +6271,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" thickBot="1">
+    <row r="171" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A171" s="4" t="s">
         <v>114</v>
       </c>
@@ -6223,7 +6295,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1">
+    <row r="172" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A172" s="4" t="s">
         <v>114</v>
       </c>
@@ -6247,7 +6319,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" thickBot="1">
+    <row r="173" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A173" s="4" t="s">
         <v>114</v>
       </c>
@@ -6271,7 +6343,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" thickBot="1">
+    <row r="174" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A174" s="4" t="s">
         <v>114</v>
       </c>
@@ -6295,7 +6367,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1">
+    <row r="175" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A175" s="4" t="s">
         <v>114</v>
       </c>
@@ -6319,7 +6391,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" thickBot="1">
+    <row r="176" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A176" s="4" t="s">
         <v>114</v>
       </c>
@@ -6343,7 +6415,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15" thickBot="1">
+    <row r="177" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A177" s="4" t="s">
         <v>114</v>
       </c>
@@ -6367,7 +6439,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15" thickBot="1">
+    <row r="178" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A178" s="4" t="s">
         <v>114</v>
       </c>
@@ -6391,7 +6463,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15" thickBot="1">
+    <row r="179" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A179" s="4" t="s">
         <v>114</v>
       </c>
@@ -6415,7 +6487,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" thickBot="1">
+    <row r="180" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A180" s="4" t="s">
         <v>114</v>
       </c>
@@ -6439,7 +6511,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15" thickBot="1">
+    <row r="181" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A181" s="4" t="s">
         <v>114</v>
       </c>
@@ -6463,7 +6535,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1">
+    <row r="182" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A182" s="4" t="s">
         <v>114</v>
       </c>
@@ -6487,7 +6559,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15" thickBot="1">
+    <row r="183" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A183" s="4" t="s">
         <v>114</v>
       </c>
@@ -6511,7 +6583,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" thickBot="1">
+    <row r="184" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A184" s="4" t="s">
         <v>114</v>
       </c>
@@ -6535,7 +6607,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" thickBot="1">
+    <row r="185" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A185" s="4" t="s">
         <v>114</v>
       </c>
@@ -6559,7 +6631,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" thickBot="1">
+    <row r="186" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A186" s="4" t="s">
         <v>114</v>
       </c>
@@ -6583,7 +6655,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" thickBot="1">
+    <row r="187" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A187" s="4" t="s">
         <v>114</v>
       </c>
@@ -6607,7 +6679,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" thickBot="1">
+    <row r="188" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A188" s="4" t="s">
         <v>114</v>
       </c>
@@ -6631,7 +6703,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" thickBot="1">
+    <row r="189" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A189" s="4" t="s">
         <v>114</v>
       </c>
@@ -6655,7 +6727,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" thickBot="1">
+    <row r="190" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A190" s="4" t="s">
         <v>114</v>
       </c>
@@ -6679,7 +6751,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" thickBot="1">
+    <row r="191" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A191" s="4" t="s">
         <v>114</v>
       </c>
@@ -6703,7 +6775,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" thickBot="1">
+    <row r="192" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A192" s="4" t="s">
         <v>114</v>
       </c>
@@ -6727,7 +6799,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15" thickBot="1">
+    <row r="193" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A193" s="4" t="s">
         <v>114</v>
       </c>
@@ -6751,7 +6823,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" thickBot="1">
+    <row r="194" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A194" s="4" t="s">
         <v>114</v>
       </c>
@@ -6771,7 +6843,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" thickBot="1">
+    <row r="195" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A195" s="4" t="s">
         <v>373</v>
       </c>
@@ -6795,7 +6867,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="29" thickBot="1">
+    <row r="196" spans="1:7" ht="29" hidden="1" thickBot="1">
       <c r="A196" s="4" t="s">
         <v>373</v>
       </c>
@@ -6819,7 +6891,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1">
+    <row r="197" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A197" s="4" t="s">
         <v>373</v>
       </c>
@@ -6843,7 +6915,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" thickBot="1">
+    <row r="198" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A198" s="4" t="s">
         <v>373</v>
       </c>
@@ -6867,7 +6939,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="4" t="s">
         <v>373</v>
       </c>
@@ -6891,7 +6963,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="4" t="s">
         <v>373</v>
       </c>
@@ -6915,7 +6987,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" thickBot="1">
+    <row r="201" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A201" s="4" t="s">
         <v>373</v>
       </c>
@@ -6939,7 +7011,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" thickBot="1">
+    <row r="202" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A202" s="4" t="s">
         <v>373</v>
       </c>
@@ -6963,7 +7035,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15" thickBot="1">
+    <row r="203" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A203" s="4" t="s">
         <v>373</v>
       </c>
@@ -6987,7 +7059,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" thickBot="1">
+    <row r="204" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A204" s="4" t="s">
         <v>373</v>
       </c>
@@ -7011,7 +7083,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" thickBot="1">
+    <row r="205" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A205" s="4" t="s">
         <v>373</v>
       </c>
@@ -7035,7 +7107,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15" thickBot="1">
+    <row r="206" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A206" s="4" t="s">
         <v>373</v>
       </c>
@@ -7059,7 +7131,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="4" t="s">
         <v>373</v>
       </c>
@@ -7083,7 +7155,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" s="4" t="s">
         <v>373</v>
       </c>
@@ -7107,7 +7179,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="4" t="s">
         <v>373</v>
       </c>
@@ -7131,7 +7203,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="4" t="s">
         <v>373</v>
       </c>
@@ -7155,7 +7227,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15" thickBot="1">
+    <row r="211" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A211" s="4" t="s">
         <v>373</v>
       </c>
@@ -7179,7 +7251,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15" thickBot="1">
+    <row r="212" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A212" s="4" t="s">
         <v>373</v>
       </c>
@@ -7203,7 +7275,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15" thickBot="1">
+    <row r="213" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A213" s="4" t="s">
         <v>373</v>
       </c>
@@ -7227,7 +7299,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" thickBot="1">
+    <row r="214" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A214" s="4" t="s">
         <v>373</v>
       </c>
@@ -7251,7 +7323,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="4" t="s">
         <v>373</v>
       </c>
@@ -7272,7 +7344,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="4" t="s">
         <v>131</v>
       </c>
@@ -7296,7 +7368,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="4" t="s">
         <v>131</v>
       </c>
@@ -7320,7 +7392,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="4" t="s">
         <v>131</v>
       </c>
@@ -7344,7 +7416,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/putten</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="4" t="s">
         <v>131</v>
       </c>
@@ -7368,7 +7440,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="4" t="s">
         <v>131</v>
       </c>
@@ -7392,7 +7464,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="4" t="s">
         <v>131</v>
       </c>
@@ -7407,7 +7479,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="4" t="s">
         <v>131</v>
       </c>
@@ -7431,7 +7503,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="70">
+    <row r="223" spans="1:7" ht="70" hidden="1">
       <c r="A223" s="4" t="s">
         <v>131</v>
       </c>
@@ -7455,7 +7527,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="4" t="s">
         <v>131</v>
       </c>
@@ -7479,7 +7551,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="4" t="s">
         <v>131</v>
       </c>
@@ -7503,7 +7575,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="4" t="s">
         <v>131</v>
       </c>
@@ -7518,7 +7590,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="4" t="s">
         <v>131</v>
       </c>
@@ -7540,7 +7612,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G227"/>
+  <autoFilter ref="A1:G227">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="TelecommunicationsAppurtenanceIMKLTypeValue"/>
+        <filter val="TelecommunicationsCableMaterialTypeValue"/>
+        <filter val="UtilityNetworkTypeValue"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:F62">
     <sortCondition ref="C2:C62"/>
     <sortCondition ref="B2:B62"/>
@@ -7602,6 +7682,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId54"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="38415" yWindow="720" windowWidth="24240" windowHeight="13740" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="IMKL">Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2265,12 +2265,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
         <v>380</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>280</v>
       </c>
@@ -2303,24 +2303,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="82.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>368</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>369</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatiePijl</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>369</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLijn</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>369</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLabel</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>369</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>369</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>369</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>369</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>369</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>369</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>369</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>369</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>369</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>369</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>369</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/huisaansluiting</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>369</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/lengteprofiel</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>369</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>369</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/dwarsprofiel</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>369</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/eigen</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>369</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/ontwerp</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>369</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>369</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>369</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>369</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>369</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>369</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijl</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>369</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>369</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>369</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>369</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>369</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>369</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>369</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>369</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>369</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>369</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>369</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>369</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>369</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>369</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>369</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>369</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>369</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>369</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>369</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>369</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>369</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>369</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>369</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>369</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>369</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>369</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>369</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>369</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>369</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>369</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>370</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>370</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/Adrespunt</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>370</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>370</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>370</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>370</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>370</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>370</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>370</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>370</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>370</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>370</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>371</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>371</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>371</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>371</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>371</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/verzameltermOndergrondseLeidingelementenOpnemen</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>371</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>371</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/GTWPOpnemen</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>371</v>
       </c>
@@ -4234,12 +4233,12 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>371</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>135</v>
@@ -4255,15 +4254,15 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/coaxial</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/coaxial</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>371</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>135</v>
@@ -4279,15 +4278,15 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>371</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>135</v>
@@ -4303,10 +4302,10 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>372</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>372</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>372</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>372</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>372</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>372</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/Raaginrichting</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>372</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>372</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>372</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>372</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>372</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>372</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>372</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>372</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>372</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>372</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>372</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>372</v>
       </c>
@@ -4903,7 +4902,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>372</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>372</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>372</v>
       </c>
@@ -4999,7 +4998,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>372</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>372</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>372</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>372</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>372</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>372</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>372</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>372</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>372</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>372</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>372</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>372</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>372</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>372</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>372</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>372</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>372</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>372</v>
       </c>
@@ -5623,7 +5622,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>372</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>372</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>372</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>372</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>372</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>372</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>372</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>372</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>372</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>372</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>372</v>
       </c>
@@ -5911,7 +5910,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>372</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>372</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>372</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>372</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>372</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>372</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>372</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>372</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>372</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>114</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>114</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>114</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>114</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>114</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>114</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>114</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>114</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>114</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>114</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>114</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>114</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>114</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>114</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>114</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>114</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>114</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="183" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>114</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>114</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>114</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>114</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="187" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>114</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>114</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="189" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>114</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>114</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>114</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>114</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>114</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>114</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>373</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="29" hidden="1" thickBot="1">
+    <row r="196" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>373</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>373</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>373</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>373</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>373</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>373</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>373</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>373</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>373</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="205" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>373</v>
       </c>
@@ -7107,7 +7106,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>373</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>373</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>373</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>373</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>373</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>373</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>373</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>373</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>373</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>373</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>131</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>131</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>131</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/putten</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>131</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>131</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>131</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>131</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="70" hidden="1">
+    <row r="223" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>131</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>131</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>131</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>131</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>131</v>
       </c>
@@ -7612,15 +7611,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G227">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="TelecommunicationsAppurtenanceIMKLTypeValue"/>
-        <filter val="TelecommunicationsCableMaterialTypeValue"/>
-        <filter val="UtilityNetworkTypeValue"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G227"/>
   <sortState ref="B2:F62">
     <sortCondition ref="C2:C62"/>
     <sortCondition ref="B2:B62"/>
@@ -7699,15 +7690,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7724,7 +7715,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -7735,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -7746,7 +7737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -7757,7 +7748,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7768,7 +7759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7779,7 +7770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -7790,7 +7781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -7801,7 +7792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -7812,7 +7803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -7823,7 +7814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -7834,7 +7825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -7845,7 +7836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -7856,7 +7847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -7867,7 +7858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -7878,7 +7869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -7889,7 +7880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -7900,7 +7891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -7911,7 +7902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -7922,7 +7913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7933,7 +7924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -7944,7 +7935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -7955,7 +7946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -7966,7 +7957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -7977,7 +7968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -7988,7 +7979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -7999,7 +7990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -8010,12 +8001,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -8026,7 +8017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -8037,12 +8028,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
@@ -8089,16 +8080,16 @@
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -8118,7 +8109,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>206</v>
       </c>
@@ -8135,7 +8126,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>206</v>
       </c>
@@ -8152,7 +8143,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>206</v>
       </c>
@@ -8169,7 +8160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>206</v>
       </c>
@@ -8186,7 +8177,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>206</v>
       </c>
@@ -8203,7 +8194,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>206</v>
       </c>
@@ -8220,7 +8211,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>206</v>
       </c>
@@ -8237,7 +8228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>206</v>
       </c>
@@ -8254,7 +8245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>206</v>
       </c>
@@ -8271,7 +8262,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>206</v>
       </c>
@@ -8288,7 +8279,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>206</v>
       </c>
@@ -8305,7 +8296,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>206</v>
       </c>
@@ -8322,7 +8313,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>206</v>
       </c>
@@ -8339,7 +8330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>206</v>
       </c>
@@ -8356,7 +8347,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -8373,7 +8364,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -8384,7 +8375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -8395,7 +8386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -8406,7 +8397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -8417,7 +8408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -8428,7 +8419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -8439,7 +8430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -8450,7 +8441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -8461,7 +8452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -8472,7 +8463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -8483,7 +8474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -8494,7 +8485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -8505,7 +8496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -8516,7 +8507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -8527,7 +8518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -8538,7 +8529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -8549,7 +8540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -8560,7 +8551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -8571,7 +8562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -8582,7 +8573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -8593,7 +8584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -8604,7 +8595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -8615,7 +8606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -8626,7 +8617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -8637,7 +8628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -8648,7 +8639,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -8659,7 +8650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -8670,7 +8661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -8681,7 +8672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -8692,7 +8683,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -8703,7 +8694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -8714,7 +8705,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -8725,7 +8716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -8736,7 +8727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -8747,7 +8738,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -8758,7 +8749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -8769,7 +8760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -8780,7 +8771,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -8791,7 +8782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -8802,7 +8793,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -8813,7 +8804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -8824,7 +8815,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -8835,7 +8826,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -8846,7 +8837,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -8857,7 +8848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -8868,7 +8859,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -8879,7 +8870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -8890,7 +8881,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -8901,7 +8892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -8912,7 +8903,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -8923,7 +8914,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -8934,7 +8925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -8945,7 +8936,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -8956,7 +8947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -8967,7 +8958,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -8978,7 +8969,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -8989,7 +8980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -9000,7 +8991,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -9011,7 +9002,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -9022,7 +9013,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -9033,7 +9024,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -9044,7 +9035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -9055,21 +9046,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
@@ -9111,15 +9102,15 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -9136,7 +9127,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9147,7 +9138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -9158,7 +9149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -9169,7 +9160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -9180,7 +9171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -9191,7 +9182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -9202,7 +9193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -9213,7 +9204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -9224,7 +9215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -9235,7 +9226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -9246,7 +9237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -9257,7 +9248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -9268,12 +9259,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -9284,7 +9275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -9295,7 +9286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -9306,7 +9297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -9317,7 +9308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -9328,7 +9319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -9339,7 +9330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -9350,7 +9341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -9361,7 +9352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -9372,7 +9363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -9383,7 +9374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -9394,7 +9385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -9405,7 +9396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -9416,12 +9407,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -9432,7 +9423,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -9443,7 +9434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -9454,7 +9445,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -9465,7 +9456,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -9476,7 +9467,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -9487,7 +9478,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -9498,7 +9489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -9509,7 +9500,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -9520,7 +9511,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -9531,7 +9522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -9542,7 +9533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -9553,7 +9544,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -9564,7 +9555,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -9575,7 +9566,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -9586,7 +9577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -9597,7 +9588,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -9608,7 +9599,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -9619,7 +9610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -9630,7 +9621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -9641,7 +9632,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -9652,7 +9643,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -9663,7 +9654,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -9674,7 +9665,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -9685,7 +9676,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -9696,7 +9687,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -9707,7 +9698,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -9718,7 +9709,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -9729,7 +9720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -9740,7 +9731,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -9751,7 +9742,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -9762,7 +9753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -9773,7 +9764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -9784,7 +9775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -9795,7 +9786,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -9806,7 +9797,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -9817,7 +9808,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -9828,7 +9819,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Olie-gas-chemie" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Waardelijst!$A$1:$G$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Waardelijst!$A$1:$G$232</definedName>
     <definedName name="IMKL">Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
     <author>Wilko Quak</author>
   </authors>
   <commentList>
-    <comment ref="D56" authorId="0">
+    <comment ref="D59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="0">
+    <comment ref="F91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="398">
   <si>
     <t>attribuut</t>
   </si>
@@ -1394,6 +1394,27 @@
   </si>
   <si>
     <t>bestandstype heeft als MIME type image/PNG</t>
+  </si>
+  <si>
+    <t>eisVoorzorgsmaatregel</t>
+  </si>
+  <si>
+    <t>nietBetrokken</t>
+  </si>
+  <si>
+    <t>bijlageType</t>
+  </si>
+  <si>
+    <t>BijlageTypeValue</t>
+  </si>
+  <si>
+    <t>Algemene tekst die als bijlage wordt meegeleverd.</t>
+  </si>
+  <si>
+    <t>Netbeheerder heeft geen utiliteitsnet in dit gebied maar heeft wel een belang bij deze melding. De bijlage geeft het belang weer.</t>
+  </si>
+  <si>
+    <t>De bijlage geeft de eis voorzorgsmaatregel weer.</t>
   </si>
 </sst>
 </file>
@@ -2328,10 +2349,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2388,7 +2409,7 @@
         <v>246</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G67" si="0">IF(B2="inspire",INSPIRE,IMKL) &amp; F2 &amp; "/" &amp; D2</f>
+        <f t="shared" ref="G2:G70" si="0">IF(B2="inspire",INSPIRE,IMKL) &amp; F2 &amp; "/" &amp; D2</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatiePijlpunt</v>
       </c>
     </row>
@@ -2534,132 +2555,141 @@
       <c r="A9" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>28</v>
+      <c r="B9" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9"/>
+        <v>367</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>248</v>
+        <v>394</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/algemeen</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>28</v>
+      <c r="B10" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10"/>
+        <v>391</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>397</v>
+      </c>
       <c r="F10" s="9" t="s">
-        <v>248</v>
+        <v>394</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/eisVoorzorgsmaatregel</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>28</v>
+      <c r="B11" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11"/>
+        <v>392</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>248</v>
+        <v>394</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/nietBetrokken</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>82</v>
+      <c r="B12" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>85</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>82</v>
+      <c r="B13" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>86</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>82</v>
+      <c r="B14" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>87</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E14"/>
       <c r="F14" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>367</v>
       </c>
@@ -2670,80 +2700,80 @@
         <v>351</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>249</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>382</v>
+        <v>86</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/DiepteAangrijpingspuntValue/bovenkant</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>382</v>
+        <v>87</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/DiepteAangrijpingspuntValue/binnenonderkant buis</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/huisaansluiting</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>367</v>
       </c>
@@ -2751,20 +2781,20 @@
         <v>102</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>250</v>
+        <v>383</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/lengteprofiel</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/DiepteAangrijpingspuntValue/bovenkant</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>367</v>
       </c>
@@ -2772,17 +2802,17 @@
         <v>102</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>250</v>
+        <v>384</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/gestuurdeBoring</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/DiepteAangrijpingspuntValue/binnenonderkant buis</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
@@ -2796,35 +2826,35 @@
         <v>352</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>250</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/dwarsprofiel</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/huisaansluiting</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/eigen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/lengteprofiel</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1">
@@ -2832,44 +2862,44 @@
         <v>367</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/ontwerp</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/gestuurdeBoring</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/dwarsprofiel</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>367</v>
       </c>
@@ -2877,17 +2907,17 @@
         <v>82</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/eigen</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1">
@@ -2898,83 +2928,83 @@
         <v>82</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/ontwerp</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>205</v>
+      <c r="B27" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>205</v>
+      <c r="B28" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>205</v>
+      <c r="B29" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>386</v>
+        <v>84</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>367</v>
       </c>
@@ -2985,84 +3015,78 @@
         <v>355</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>231</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>365</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>102</v>
+      <c r="B31" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>102</v>
+      <c r="B32" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>252</v>
+        <v>355</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>102</v>
+      <c r="B33" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>252</v>
+        <v>230</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3076,17 +3100,17 @@
         <v>356</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>252</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3100,17 +3124,14 @@
         <v>356</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3124,17 +3145,17 @@
         <v>356</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3148,17 +3169,17 @@
         <v>356</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3172,17 +3193,17 @@
         <v>356</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3196,17 +3217,17 @@
         <v>356</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3220,17 +3241,17 @@
         <v>356</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3244,17 +3265,17 @@
         <v>356</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3268,17 +3289,17 @@
         <v>356</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3292,17 +3313,17 @@
         <v>356</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>113</v>
+        <v>359</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3316,17 +3337,17 @@
         <v>356</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3340,80 +3361,89 @@
         <v>356</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>28</v>
+      <c r="B46" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>104</v>
+        <v>356</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>28</v>
+      <c r="B47" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>105</v>
+        <v>356</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>28</v>
+      <c r="B48" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>106</v>
+        <v>356</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3427,14 +3457,14 @@
         <v>103</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>253</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3445,17 +3475,17 @@
         <v>28</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>254</v>
+        <v>103</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3466,17 +3496,17 @@
         <v>28</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>254</v>
+        <v>103</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3487,17 +3517,17 @@
         <v>28</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>254</v>
+        <v>103</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3511,14 +3541,14 @@
         <v>358</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>254</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3532,14 +3562,14 @@
         <v>358</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>254</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3553,14 +3583,14 @@
         <v>358</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>254</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3574,14 +3604,14 @@
         <v>358</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>254</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3592,17 +3622,17 @@
         <v>28</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3613,17 +3643,17 @@
         <v>28</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3634,89 +3664,80 @@
         <v>28</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A60" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>256</v>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A61" t="s">
-        <v>368</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>256</v>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A62" t="s">
-        <v>368</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>256</v>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -3724,95 +3745,95 @@
         <v>368</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>226</v>
+      <c r="D63" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>256</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/Adrespunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A64" t="s">
         <v>368</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>28</v>
+      <c r="B64" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>3</v>
+      <c r="D64" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A65" t="s">
         <v>368</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>28</v>
+      <c r="B65" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>5</v>
+      <c r="D65" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" t="s">
         <v>368</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>28</v>
+      <c r="B66" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>12</v>
+      <c r="D66" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/Adrespunt</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -3826,17 +3847,17 @@
         <v>346</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -3850,17 +3871,17 @@
         <v>346</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G131" si="1">IF(B68="inspire",INSPIRE,IMKL) &amp; F68 &amp; "/" &amp; D68</f>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
+        <f t="shared" si="0"/>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -3874,17 +3895,17 @@
         <v>346</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
+        <f t="shared" si="0"/>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -3898,131 +3919,131 @@
         <v>346</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
+        <f t="shared" si="0"/>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A71" t="s">
         <v>368</v>
       </c>
+      <c r="B71" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="C71" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>264</v>
+      <c r="D71" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/puntVanLevering</v>
+        <f t="shared" ref="G71:G134" si="1">IF(B71="inspire",INSPIRE,IMKL) &amp; F71 &amp; "/" &amp; D71</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" t="s">
         <v>368</v>
       </c>
+      <c r="B72" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="C72" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D72" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>271</v>
+      <c r="D72" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A73" t="s">
         <v>368</v>
       </c>
-      <c r="B73" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>78</v>
+      <c r="B73" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>79</v>
+      <c r="C74" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>256</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>273</v>
+      <c r="C75" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>271</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>256</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
     <row r="76" spans="1:7" hidden="1">
@@ -4035,21 +4056,21 @@
       <c r="C76" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>274</v>
+      <c r="D76" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>256</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" t="s">
         <v>368</v>
       </c>
@@ -4059,90 +4080,90 @@
       <c r="C77" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D77" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>241</v>
+      <c r="D77" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>256</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
     <row r="78" spans="1:7" hidden="1">
       <c r="A78" t="s">
-        <v>369</v>
-      </c>
-      <c r="B78" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>29</v>
+      <c r="C78" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
     <row r="79" spans="1:7" hidden="1">
       <c r="A79" t="s">
-        <v>369</v>
-      </c>
-      <c r="B79" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>30</v>
+      <c r="C79" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" t="s">
-        <v>369</v>
-      </c>
-      <c r="B80" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C80" t="s">
-        <v>346</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>189</v>
+      <c r="C80" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>241</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
     <row r="81" spans="1:7" hidden="1">
@@ -4152,21 +4173,21 @@
       <c r="B81" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
     <row r="82" spans="1:7" hidden="1">
@@ -4176,21 +4197,21 @@
       <c r="B82" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>362</v>
+        <v>30</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/verzameltermOndergrondseLeidingelementenOpnemen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
     <row r="83" spans="1:7" hidden="1">
@@ -4203,18 +4224,18 @@
       <c r="C83" t="s">
         <v>346</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>240</v>
+      <c r="D83" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
     <row r="84" spans="1:7" hidden="1">
@@ -4228,17 +4249,17 @@
         <v>346</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
     <row r="85" spans="1:7" hidden="1">
@@ -4252,17 +4273,17 @@
         <v>346</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/GTWPOpnemen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/verzameltermOndergrondseLeidingelementenOpnemen</v>
       </c>
     </row>
     <row r="86" spans="1:7" hidden="1">
@@ -4275,18 +4296,18 @@
       <c r="C86" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>191</v>
+      <c r="D86" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
     <row r="87" spans="1:7" hidden="1">
@@ -4300,182 +4321,182 @@
         <v>346</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
     <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
         <v>369</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>135</v>
+      <c r="C88" t="s">
+        <v>346</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/coaxial</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/GTWPOpnemen</v>
       </c>
     </row>
     <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C89" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>136</v>
+      <c r="C89" t="s">
+        <v>346</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
     <row r="90" spans="1:7" hidden="1">
       <c r="A90" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>137</v>
+      <c r="C90" t="s">
+        <v>346</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" t="s">
         <v>369</v>
       </c>
-      <c r="C91" t="s">
-        <v>346</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>264</v>
+      <c r="B91" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>257</v>
+        <v>375</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/coaxial</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" t="s">
-        <v>370</v>
-      </c>
-      <c r="B92" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>220</v>
+      <c r="C92" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B93" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>263</v>
+      <c r="C93" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A94" t="s">
-        <v>370</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>221</v>
+        <v>369</v>
+      </c>
+      <c r="C94" t="s">
+        <v>346</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4488,18 +4509,18 @@
       <c r="C95" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D95" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>234</v>
+      <c r="D95" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4513,17 +4534,17 @@
         <v>346</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4537,17 +4558,17 @@
         <v>346</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4561,17 +4582,17 @@
         <v>346</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4585,17 +4606,17 @@
         <v>346</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4609,17 +4630,17 @@
         <v>346</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/Raaginrichting</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4633,17 +4654,17 @@
         <v>346</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4654,20 +4675,20 @@
         <v>205</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>216</v>
+        <v>346</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4678,23 +4699,23 @@
         <v>205</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>219</v>
+        <v>346</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/Raaginrichting</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A104" t="s">
         <v>370</v>
       </c>
@@ -4702,23 +4723,23 @@
         <v>205</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>217</v>
+        <v>346</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" t="s">
         <v>370</v>
       </c>
@@ -4728,18 +4749,18 @@
       <c r="C105" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>218</v>
+      <c r="D105" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>309</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -4750,23 +4771,23 @@
         <v>205</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>241</v>
+        <v>348</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" t="s">
         <v>370</v>
       </c>
@@ -4774,20 +4795,20 @@
         <v>205</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>242</v>
+        <v>348</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
     <row r="108" spans="1:7" hidden="1">
@@ -4798,23 +4819,23 @@
         <v>205</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>223</v>
+        <v>348</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -4824,21 +4845,21 @@
       <c r="C109" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>224</v>
+      <c r="D109" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" t="s">
         <v>370</v>
       </c>
@@ -4848,18 +4869,18 @@
       <c r="C110" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>225</v>
+      <c r="D110" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
     <row r="111" spans="1:7" hidden="1">
@@ -4873,17 +4894,17 @@
         <v>346</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
     <row r="112" spans="1:7" hidden="1">
@@ -4893,21 +4914,21 @@
       <c r="B112" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
     <row r="113" spans="1:7" hidden="1">
@@ -4917,21 +4938,21 @@
       <c r="B113" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
     <row r="114" spans="1:7" hidden="1">
@@ -4939,23 +4960,23 @@
         <v>370</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
     <row r="115" spans="1:7" hidden="1">
@@ -4963,23 +4984,23 @@
         <v>370</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
     <row r="116" spans="1:7" hidden="1">
@@ -4987,23 +5008,23 @@
         <v>370</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
     <row r="117" spans="1:7" hidden="1">
@@ -5017,17 +5038,17 @@
         <v>346</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
     <row r="118" spans="1:7" hidden="1">
@@ -5041,17 +5062,17 @@
         <v>346</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
     <row r="119" spans="1:7" hidden="1">
@@ -5064,18 +5085,18 @@
       <c r="C119" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D119" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>77</v>
+      <c r="D119" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
     <row r="120" spans="1:7" hidden="1">
@@ -5088,18 +5109,18 @@
       <c r="C120" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>78</v>
+      <c r="D120" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
     <row r="121" spans="1:7" hidden="1">
@@ -5107,23 +5128,23 @@
         <v>370</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D121" t="s">
-        <v>324</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>265</v>
+      <c r="D121" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
     <row r="122" spans="1:7" hidden="1">
@@ -5131,23 +5152,23 @@
         <v>370</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D122" t="s">
-        <v>373</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>50</v>
+      <c r="D122" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
     <row r="123" spans="1:7" hidden="1">
@@ -5155,23 +5176,23 @@
         <v>370</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D123" t="s">
-        <v>325</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>266</v>
+      <c r="D123" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
     <row r="124" spans="1:7" hidden="1">
@@ -5185,17 +5206,17 @@
         <v>346</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>307</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
     <row r="125" spans="1:7" hidden="1">
@@ -5209,17 +5230,17 @@
         <v>346</v>
       </c>
       <c r="D125" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>307</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
     <row r="126" spans="1:7" hidden="1">
@@ -5233,17 +5254,17 @@
         <v>346</v>
       </c>
       <c r="D126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>307</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
     <row r="127" spans="1:7" hidden="1">
@@ -5257,17 +5278,17 @@
         <v>346</v>
       </c>
       <c r="D127" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>307</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
     <row r="128" spans="1:7" hidden="1">
@@ -5281,20 +5302,20 @@
         <v>346</v>
       </c>
       <c r="D128" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>307</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" t="s">
         <v>370</v>
       </c>
@@ -5305,17 +5326,17 @@
         <v>346</v>
       </c>
       <c r="D129" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>307</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
     <row r="130" spans="1:7" hidden="1">
@@ -5326,20 +5347,20 @@
         <v>28</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>139</v>
+        <v>346</v>
+      </c>
+      <c r="D130" t="s">
+        <v>327</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="1"/>
-        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
     <row r="131" spans="1:7" hidden="1">
@@ -5347,95 +5368,95 @@
         <v>370</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>140</v>
+        <v>346</v>
+      </c>
+      <c r="D131" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
     <row r="132" spans="1:7" hidden="1">
       <c r="A132" t="s">
         <v>370</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>141</v>
+      <c r="B132" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D132" t="s">
+        <v>329</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" ref="G132:G195" si="2">IF(B132="inspire",INSPIRE,IMKL) &amp; F132 &amp; "/" &amp; D132</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
+        <f t="shared" si="1"/>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
     <row r="133" spans="1:7" hidden="1">
       <c r="A133" t="s">
         <v>370</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B133" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>142</v>
+      <c r="D133" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
+        <f t="shared" si="1"/>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
     <row r="134" spans="1:7" hidden="1">
       <c r="A134" t="s">
         <v>370</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B134" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>143</v>
+      <c r="D134" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
+        <f t="shared" si="1"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
     <row r="135" spans="1:7" hidden="1">
@@ -5449,17 +5470,17 @@
         <v>348</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
+        <f t="shared" ref="G135:G198" si="2">IF(B135="inspire",INSPIRE,IMKL) &amp; F135 &amp; "/" &amp; D135</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
     <row r="136" spans="1:7" hidden="1">
@@ -5473,17 +5494,17 @@
         <v>348</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
     <row r="137" spans="1:7" hidden="1">
@@ -5497,17 +5518,17 @@
         <v>348</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
     <row r="138" spans="1:7" hidden="1">
@@ -5521,17 +5542,17 @@
         <v>348</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
     <row r="139" spans="1:7" hidden="1">
@@ -5545,17 +5566,17 @@
         <v>348</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
     <row r="140" spans="1:7" hidden="1">
@@ -5569,17 +5590,17 @@
         <v>348</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
     <row r="141" spans="1:7" hidden="1">
@@ -5593,17 +5614,17 @@
         <v>348</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
     <row r="142" spans="1:7" hidden="1">
@@ -5617,17 +5638,17 @@
         <v>348</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
     <row r="143" spans="1:7" hidden="1">
@@ -5641,17 +5662,17 @@
         <v>348</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
     <row r="144" spans="1:7" hidden="1">
@@ -5665,17 +5686,17 @@
         <v>348</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
     <row r="145" spans="1:7" hidden="1">
@@ -5689,17 +5710,17 @@
         <v>348</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
     <row r="146" spans="1:7" hidden="1">
@@ -5713,17 +5734,17 @@
         <v>348</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
     <row r="147" spans="1:7" hidden="1">
@@ -5737,17 +5758,17 @@
         <v>348</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
     <row r="148" spans="1:7" hidden="1">
@@ -5761,17 +5782,17 @@
         <v>348</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
     <row r="149" spans="1:7" hidden="1">
@@ -5785,17 +5806,17 @@
         <v>348</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
     <row r="150" spans="1:7" hidden="1">
@@ -5809,17 +5830,17 @@
         <v>348</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
     <row r="151" spans="1:7" hidden="1">
@@ -5833,17 +5854,17 @@
         <v>348</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
     <row r="152" spans="1:7" hidden="1">
@@ -5857,17 +5878,17 @@
         <v>348</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
     <row r="153" spans="1:7" hidden="1">
@@ -5881,17 +5902,17 @@
         <v>348</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
     <row r="154" spans="1:7" hidden="1">
@@ -5905,17 +5926,17 @@
         <v>348</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
     <row r="155" spans="1:7" hidden="1">
@@ -5929,17 +5950,17 @@
         <v>348</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
     <row r="156" spans="1:7" hidden="1">
@@ -5953,17 +5974,17 @@
         <v>348</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
     <row r="157" spans="1:7" hidden="1">
@@ -5977,17 +5998,17 @@
         <v>348</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
     <row r="158" spans="1:7" hidden="1">
@@ -6001,17 +6022,17 @@
         <v>348</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
     <row r="159" spans="1:7" hidden="1">
@@ -6025,17 +6046,17 @@
         <v>348</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
     <row r="160" spans="1:7" hidden="1">
@@ -6049,17 +6070,17 @@
         <v>348</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F160" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
     <row r="161" spans="1:7" hidden="1">
@@ -6073,17 +6094,17 @@
         <v>348</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
     <row r="162" spans="1:7" hidden="1">
@@ -6097,17 +6118,17 @@
         <v>348</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
     <row r="163" spans="1:7" hidden="1">
@@ -6121,17 +6142,17 @@
         <v>348</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
     <row r="164" spans="1:7" hidden="1">
@@ -6145,17 +6166,17 @@
         <v>348</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F164" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
     <row r="165" spans="1:7" hidden="1">
@@ -6169,17 +6190,17 @@
         <v>348</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
     <row r="166" spans="1:7" hidden="1">
@@ -6193,17 +6214,17 @@
         <v>348</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
     <row r="167" spans="1:7" hidden="1">
@@ -6217,89 +6238,89 @@
         <v>348</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A168" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E168" s="14" t="s">
-        <v>60</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1">
+      <c r="A168" t="s">
+        <v>370</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A169" s="4" t="s">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1">
+      <c r="A169" t="s">
+        <v>370</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B169" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>193</v>
+      <c r="E169" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A170" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>194</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1">
+      <c r="A170" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6312,18 +6333,18 @@
       <c r="C171" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D171" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>195</v>
+      <c r="D171" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>259</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6337,89 +6358,89 @@
         <v>346</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>259</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A173" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B173" s="12" t="s">
-        <v>28</v>
+      <c r="B173" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>43</v>
+        <v>194</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A174" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B174" s="12" t="s">
-        <v>28</v>
+      <c r="B174" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>44</v>
+        <v>195</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A175" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B175" s="12" t="s">
-        <v>28</v>
+      <c r="B175" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>45</v>
+        <v>196</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6433,17 +6454,17 @@
         <v>346</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6457,17 +6478,17 @@
         <v>346</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F177" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6481,17 +6502,17 @@
         <v>346</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6505,17 +6526,17 @@
         <v>346</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6529,17 +6550,17 @@
         <v>346</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6553,17 +6574,17 @@
         <v>346</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F181" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6577,17 +6598,17 @@
         <v>346</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F182" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6601,17 +6622,17 @@
         <v>346</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F183" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6625,20 +6646,20 @@
         <v>346</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F184" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30.75" hidden="1" thickBot="1">
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A185" s="4" t="s">
         <v>113</v>
       </c>
@@ -6649,17 +6670,17 @@
         <v>346</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F185" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6673,17 +6694,17 @@
         <v>346</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F186" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6697,17 +6718,17 @@
         <v>346</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>374</v>
+        <v>53</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6721,20 +6742,20 @@
         <v>346</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F188" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30.75" hidden="1" thickBot="1">
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A189" s="4" t="s">
         <v>113</v>
       </c>
@@ -6745,65 +6766,65 @@
         <v>346</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>304</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A190" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B190" s="21" t="s">
-        <v>205</v>
+      <c r="B190" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E190" s="22" t="s">
-        <v>197</v>
+        <v>346</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A191" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B191" s="21" t="s">
-        <v>205</v>
+      <c r="B191" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D191" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>198</v>
+        <v>346</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6814,68 +6835,68 @@
         <v>28</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E192" s="15" t="s">
-        <v>176</v>
+        <v>303</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A193" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B193" s="12" t="s">
-        <v>28</v>
+      <c r="B193" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D193" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>177</v>
+      <c r="D193" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>260</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A194" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B194" s="12" t="s">
-        <v>28</v>
+      <c r="B194" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D194" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>178</v>
+      <c r="D194" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="F194" s="8" t="s">
         <v>260</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -6889,109 +6910,109 @@
         <v>350</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E195" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F195" s="8" t="s">
         <v>260</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="2"/>
-        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A196" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E196" s="30" t="s">
-        <v>264</v>
+      <c r="B196" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" ref="G196:G229" si="3">IF(B196="inspire",INSPIRE,IMKL) &amp; F196 &amp; "/" &amp; D196</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceIMKLTypeValue/puntVanLevering</v>
+        <f t="shared" si="2"/>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A197" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="D197" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E197" s="23" t="s">
-        <v>199</v>
+        <v>113</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G197" t="str">
-        <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30.75" hidden="1" thickBot="1">
+        <f t="shared" si="2"/>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A198" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B198" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="D198" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>203</v>
+        <v>113</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E198" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G198" t="str">
-        <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
+        <f t="shared" si="2"/>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A199" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="D199" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>201</v>
+        <v>113</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E199" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="G199" t="str">
-        <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
+        <f t="shared" ref="G199:G232" si="3">IF(B199="inspire",INSPIRE,IMKL) &amp; F199 &amp; "/" &amp; D199</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -7004,21 +7025,21 @@
       <c r="C200" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D200" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E200" s="24" t="s">
-        <v>202</v>
+      <c r="D200" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="F200" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A201" s="4" t="s">
         <v>371</v>
       </c>
@@ -7028,21 +7049,21 @@
       <c r="C201" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D201" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E201" s="25" t="s">
-        <v>204</v>
+      <c r="D201" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="F201" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A202" s="4" t="s">
         <v>371</v>
       </c>
@@ -7052,90 +7073,90 @@
       <c r="C202" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D202" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E202" s="25" t="s">
-        <v>200</v>
+      <c r="D202" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="F202" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A203" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B203" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D203" t="s">
-        <v>334</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F203" t="s">
-        <v>305</v>
+      <c r="B203" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B204" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D204" t="s">
-        <v>335</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F204" t="s">
-        <v>305</v>
+      <c r="B204" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D204" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E204" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B205" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F205" t="s">
-        <v>305</v>
+      <c r="B205" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E205" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -7149,20 +7170,20 @@
         <v>346</v>
       </c>
       <c r="D206" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F206" t="s">
         <v>305</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="30.75" hidden="1" thickBot="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A207" s="4" t="s">
         <v>371</v>
       </c>
@@ -7173,20 +7194,20 @@
         <v>346</v>
       </c>
       <c r="D207" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F207" t="s">
         <v>305</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30.75" hidden="1" thickBot="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A208" s="4" t="s">
         <v>371</v>
       </c>
@@ -7197,185 +7218,185 @@
         <v>346</v>
       </c>
       <c r="D208" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F208" t="s">
         <v>305</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A209" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>261</v>
+      <c r="B209" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D209" t="s">
+        <v>337</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F209" t="s">
+        <v>305</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A210" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="B210" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D210" t="s">
-        <v>311</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>65</v>
+        <v>338</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F210" t="s">
         <v>305</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A211" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="B211" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D211" t="s">
-        <v>312</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>66</v>
+        <v>339</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F211" t="s">
         <v>305</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
     <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C212" t="s">
-        <v>346</v>
-      </c>
-      <c r="D212" t="s">
-        <v>313</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F212" t="s">
-        <v>305</v>
+      <c r="B212" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B213" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D213" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>262</v>
+      <c r="B213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" t="s">
+        <v>346</v>
+      </c>
+      <c r="D213" t="s">
+        <v>311</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F213" t="s">
+        <v>305</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B214" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D214" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>181</v>
+      <c r="B214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" t="s">
+        <v>346</v>
+      </c>
+      <c r="D214" t="s">
+        <v>312</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="F214" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B215" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D215" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>182</v>
+      <c r="B215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" t="s">
+        <v>346</v>
+      </c>
+      <c r="D215" t="s">
+        <v>313</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F215" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15.75" hidden="1" thickBot="1">
@@ -7389,110 +7410,110 @@
         <v>349</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E216" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F216" t="s">
+        <v>180</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>262</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="3"/>
-        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A217" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C217" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="D217" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E217" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>261</v>
+      <c r="B217" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F217" t="s">
+        <v>262</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A218" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B218" t="s">
-        <v>205</v>
-      </c>
-      <c r="C218" t="s">
-        <v>346</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F218" s="8" t="s">
-        <v>261</v>
+        <v>371</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F218" t="s">
+        <v>262</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/compensator</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" hidden="1">
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A219" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B219" t="s">
-        <v>205</v>
-      </c>
-      <c r="C219" t="s">
-        <v>346</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E219" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>261</v>
+        <v>371</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E219" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F219" t="s">
+        <v>262</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
     <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B220" t="s">
-        <v>205</v>
-      </c>
-      <c r="C220" t="s">
-        <v>346</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E220" s="10" t="s">
-        <v>213</v>
+        <v>371</v>
+      </c>
+      <c r="C220" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D220" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E220" s="31" t="s">
+        <v>264</v>
       </c>
       <c r="F220" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/putten</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1">
@@ -7506,17 +7527,17 @@
         <v>346</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/pompstation</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
     <row r="222" spans="1:7" hidden="1">
@@ -7530,32 +7551,41 @@
         <v>346</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F222" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overdrachtsstation</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
     <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B223" t="s">
+        <v>205</v>
+      </c>
       <c r="C223" t="s">
         <v>346</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="F223" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/putten</v>
       </c>
     </row>
     <row r="224" spans="1:7" hidden="1">
@@ -7569,20 +7599,20 @@
         <v>346</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>341</v>
+        <v>56</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="F224" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="75" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/pompstation</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="4" t="s">
         <v>130</v>
       </c>
@@ -7592,42 +7622,33 @@
       <c r="C225" t="s">
         <v>346</v>
       </c>
-      <c r="D225" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="E225" s="28" t="s">
-        <v>209</v>
+      <c r="D225" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/zinker</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
     <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B226" t="s">
-        <v>205</v>
-      </c>
       <c r="C226" t="s">
         <v>346</v>
-      </c>
-      <c r="D226" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E226" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="F226" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
       </c>
     </row>
     <row r="227" spans="1:7" hidden="1">
@@ -7641,57 +7662,129 @@
         <v>346</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>94</v>
+        <v>341</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" hidden="1">
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="30" hidden="1">
       <c r="A228" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B228" t="s">
+        <v>205</v>
+      </c>
       <c r="C228" t="s">
         <v>346</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="E228" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
     <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B229" t="s">
+        <v>205</v>
+      </c>
       <c r="C229" t="s">
         <v>346</v>
       </c>
-      <c r="D229" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>314</v>
+      <c r="D229" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="3"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" hidden="1">
+      <c r="A230" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B230" t="s">
+        <v>205</v>
+      </c>
+      <c r="C230" t="s">
+        <v>346</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="3"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" hidden="1">
+      <c r="A231" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C231" t="s">
+        <v>346</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="3"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1">
+      <c r="A232" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C232" t="s">
+        <v>346</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G229">
+  <autoFilter ref="A1:G232">
     <filterColumn colId="0">
       <filters>
         <filter val="algemeen"/>
@@ -7703,59 +7796,59 @@
     <sortCondition ref="B2:B62"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D47" r:id="rId1"/>
-    <hyperlink ref="D48" r:id="rId2"/>
-    <hyperlink ref="D49" r:id="rId3"/>
-    <hyperlink ref="D46" r:id="rId4"/>
-    <hyperlink ref="D64" r:id="rId5" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
-    <hyperlink ref="D65" r:id="rId6" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation"/>
-    <hyperlink ref="D66" r:id="rId7" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator"/>
-    <hyperlink ref="D67" r:id="rId8" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation"/>
-    <hyperlink ref="D68" r:id="rId9" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation"/>
-    <hyperlink ref="D69" r:id="rId10" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint"/>
-    <hyperlink ref="D70" r:id="rId11" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight"/>
-    <hyperlink ref="E64" r:id="rId12" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
-    <hyperlink ref="E65" r:id="rId13" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation"/>
-    <hyperlink ref="E66" r:id="rId14" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator"/>
-    <hyperlink ref="E67" r:id="rId15" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation"/>
-    <hyperlink ref="E68" r:id="rId16" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation"/>
-    <hyperlink ref="E69" r:id="rId17" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint"/>
-    <hyperlink ref="E70" r:id="rId18" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight"/>
-    <hyperlink ref="E121" r:id="rId19" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation"/>
-    <hyperlink ref="E122" r:id="rId20" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/node"/>
-    <hyperlink ref="E123" r:id="rId21" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker"/>
-    <hyperlink ref="E129" r:id="rId22" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage"/>
-    <hyperlink ref="E126" r:id="rId23" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump"/>
-    <hyperlink ref="E127" r:id="rId24" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation"/>
-    <hyperlink ref="E128" r:id="rId25" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion"/>
-    <hyperlink ref="E124" r:id="rId26" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint"/>
-    <hyperlink ref="E125" r:id="rId27" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal"/>
-    <hyperlink ref="E173" r:id="rId28" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve"/>
-    <hyperlink ref="E174" r:id="rId29" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint"/>
-    <hyperlink ref="E175" r:id="rId30" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint"/>
-    <hyperlink ref="E176" r:id="rId31" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode"/>
-    <hyperlink ref="E177" r:id="rId32" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant"/>
-    <hyperlink ref="E178" r:id="rId33" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well"/>
-    <hyperlink ref="E179" r:id="rId34" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve"/>
-    <hyperlink ref="E180" r:id="rId35" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController"/>
-    <hyperlink ref="E181" r:id="rId36" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction"/>
-    <hyperlink ref="E182" r:id="rId37" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint"/>
-    <hyperlink ref="E183" r:id="rId38" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation"/>
-    <hyperlink ref="E184" r:id="rId39" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter"/>
-    <hyperlink ref="E185" r:id="rId40" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve"/>
-    <hyperlink ref="E186" r:id="rId41" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility"/>
-    <hyperlink ref="E187" r:id="rId42" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation"/>
-    <hyperlink ref="E188" r:id="rId43" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint"/>
-    <hyperlink ref="E189" r:id="rId44" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant"/>
-    <hyperlink ref="E203" r:id="rId45" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection"/>
-    <hyperlink ref="E204" r:id="rId46" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut"/>
-    <hyperlink ref="E212" r:id="rId47" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure"/>
-    <hyperlink ref="E205" r:id="rId48" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel"/>
-    <hyperlink ref="E206" r:id="rId49" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin"/>
-    <hyperlink ref="E208" r:id="rId50" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure"/>
-    <hyperlink ref="E210" r:id="rId51" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection"/>
-    <hyperlink ref="E211" r:id="rId52" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate"/>
-    <hyperlink ref="E207" r:id="rId53" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber"/>
+    <hyperlink ref="D50" r:id="rId1"/>
+    <hyperlink ref="D51" r:id="rId2"/>
+    <hyperlink ref="D52" r:id="rId3"/>
+    <hyperlink ref="D49" r:id="rId4"/>
+    <hyperlink ref="D67" r:id="rId5" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
+    <hyperlink ref="D68" r:id="rId6" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation"/>
+    <hyperlink ref="D69" r:id="rId7" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator"/>
+    <hyperlink ref="D70" r:id="rId8" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation"/>
+    <hyperlink ref="D71" r:id="rId9" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation"/>
+    <hyperlink ref="D72" r:id="rId10" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint"/>
+    <hyperlink ref="D73" r:id="rId11" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight"/>
+    <hyperlink ref="E67" r:id="rId12" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
+    <hyperlink ref="E68" r:id="rId13" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation"/>
+    <hyperlink ref="E69" r:id="rId14" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator"/>
+    <hyperlink ref="E70" r:id="rId15" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation"/>
+    <hyperlink ref="E71" r:id="rId16" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation"/>
+    <hyperlink ref="E72" r:id="rId17" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint"/>
+    <hyperlink ref="E73" r:id="rId18" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight"/>
+    <hyperlink ref="E124" r:id="rId19" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation"/>
+    <hyperlink ref="E125" r:id="rId20" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/node"/>
+    <hyperlink ref="E126" r:id="rId21" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker"/>
+    <hyperlink ref="E132" r:id="rId22" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage"/>
+    <hyperlink ref="E129" r:id="rId23" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump"/>
+    <hyperlink ref="E130" r:id="rId24" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation"/>
+    <hyperlink ref="E131" r:id="rId25" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion"/>
+    <hyperlink ref="E127" r:id="rId26" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint"/>
+    <hyperlink ref="E128" r:id="rId27" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal"/>
+    <hyperlink ref="E176" r:id="rId28" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve"/>
+    <hyperlink ref="E177" r:id="rId29" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint"/>
+    <hyperlink ref="E178" r:id="rId30" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint"/>
+    <hyperlink ref="E179" r:id="rId31" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode"/>
+    <hyperlink ref="E180" r:id="rId32" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant"/>
+    <hyperlink ref="E181" r:id="rId33" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well"/>
+    <hyperlink ref="E182" r:id="rId34" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve"/>
+    <hyperlink ref="E183" r:id="rId35" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController"/>
+    <hyperlink ref="E184" r:id="rId36" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction"/>
+    <hyperlink ref="E185" r:id="rId37" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint"/>
+    <hyperlink ref="E186" r:id="rId38" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation"/>
+    <hyperlink ref="E187" r:id="rId39" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter"/>
+    <hyperlink ref="E188" r:id="rId40" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve"/>
+    <hyperlink ref="E189" r:id="rId41" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility"/>
+    <hyperlink ref="E190" r:id="rId42" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation"/>
+    <hyperlink ref="E191" r:id="rId43" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint"/>
+    <hyperlink ref="E192" r:id="rId44" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant"/>
+    <hyperlink ref="E206" r:id="rId45" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection"/>
+    <hyperlink ref="E207" r:id="rId46" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut"/>
+    <hyperlink ref="E215" r:id="rId47" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure"/>
+    <hyperlink ref="E208" r:id="rId48" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel"/>
+    <hyperlink ref="E209" r:id="rId49" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin"/>
+    <hyperlink ref="E211" r:id="rId50" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure"/>
+    <hyperlink ref="E213" r:id="rId51" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection"/>
+    <hyperlink ref="E214" r:id="rId52" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate"/>
+    <hyperlink ref="E210" r:id="rId53" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.9 waardelijsten.xlsx
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="516">
   <si>
     <t>attribuut</t>
   </si>
@@ -1044,9 +1044,6 @@
     <t>Bocht</t>
   </si>
   <si>
-    <t>punt van levering?</t>
-  </si>
-  <si>
     <t>gasstation</t>
   </si>
   <si>
@@ -1063,9 +1060,6 @@
   </si>
   <si>
     <t>productiegebied</t>
-  </si>
-  <si>
-    <t>geulmof?</t>
   </si>
   <si>
     <t>adrespunt</t>
@@ -1816,6 +1810,51 @@
   </si>
   <si>
     <t>niet betrokken</t>
+  </si>
+  <si>
+    <t>tot 30 cm</t>
+  </si>
+  <si>
+    <t>tot 50 cm</t>
+  </si>
+  <si>
+    <t>tot 100 cm</t>
+  </si>
+  <si>
+    <t>binnenonderkant buis</t>
+  </si>
+  <si>
+    <t>buisleiding gevaarlijke inhoud</t>
+  </si>
+  <si>
+    <t>aardgasleiding niet NEN</t>
+  </si>
+  <si>
+    <t>aargasleiding NEN3650</t>
+  </si>
+  <si>
+    <t>technisch gebouw</t>
+  </si>
+  <si>
+    <t>kb meetpunt</t>
+  </si>
+  <si>
+    <t>kb installatie</t>
+  </si>
+  <si>
+    <t>kb eindpunt</t>
+  </si>
+  <si>
+    <t>kb contact</t>
+  </si>
+  <si>
+    <t>t stuk</t>
+  </si>
+  <si>
+    <t>isolatie koppeling</t>
+  </si>
+  <si>
+    <t>gemengd riool</t>
   </si>
 </sst>
 </file>
@@ -2742,18 +2781,18 @@
   <sheetData>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2773,10 +2812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
+      <selection activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,13 +2832,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -2807,39 +2847,39 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>244</v>
@@ -2851,22 +2891,22 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>244</v>
@@ -2878,22 +2918,22 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>244</v>
@@ -2905,13 +2945,13 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>95</v>
@@ -2923,7 +2963,7 @@
         <v>96</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>245</v>
@@ -2935,13 +2975,13 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>95</v>
@@ -2953,7 +2993,7 @@
         <v>97</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>245</v>
@@ -2965,13 +3005,13 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>95</v>
@@ -2983,7 +3023,7 @@
         <v>98</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>245</v>
@@ -2995,13 +3035,13 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>95</v>
@@ -3013,7 +3053,7 @@
         <v>99</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>245</v>
@@ -3025,28 +3065,28 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -3055,28 +3095,28 @@
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -3085,46 +3125,46 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/nietBetrokken</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>116</v>
@@ -3141,18 +3181,18 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>117</v>
@@ -3169,18 +3209,18 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>118</v>
@@ -3199,22 +3239,22 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>85</v>
+        <v>501</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>247</v>
@@ -3226,22 +3266,22 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>247</v>
@@ -3253,22 +3293,22 @@
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>87</v>
+        <v>503</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>247</v>
@@ -3280,16 +3320,16 @@
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>88</v>
@@ -3307,28 +3347,28 @@
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>376</v>
-      </c>
       <c r="F19" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -3337,28 +3377,28 @@
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -3367,16 +3407,16 @@
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>59</v>
@@ -3385,7 +3425,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>248</v>
@@ -3397,16 +3437,16 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>93</v>
@@ -3424,22 +3464,22 @@
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>248</v>
@@ -3454,19 +3494,19 @@
         <v>101</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>248</v>
@@ -3478,16 +3518,16 @@
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>100</v>
@@ -3505,16 +3545,16 @@
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>89</v>
@@ -3523,10 +3563,10 @@
         <v>89</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -3535,16 +3575,16 @@
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>90</v>
@@ -3553,10 +3593,10 @@
         <v>90</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I27" t="str">
         <f>IF(B27="inspire",INSPIRE,IMKL) &amp; H27 &amp; "/" &amp; E27</f>
@@ -3568,17 +3608,17 @@
         <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="I28" t="str">
         <f>IF(B28="inspire",INSPIRE,IMKL) &amp; H28 &amp; "/" &amp; E28</f>
@@ -3590,17 +3630,17 @@
         <v>101</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I29" t="str">
         <f>IF(B29="inspire",INSPIRE,IMKL) &amp; H29 &amp; "/" &amp; E29</f>
@@ -3609,13 +3649,13 @@
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>84</v>
@@ -3636,13 +3676,13 @@
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>84</v>
@@ -3663,13 +3703,13 @@
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>84</v>
@@ -3690,16 +3730,16 @@
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>229</v>
@@ -3708,7 +3748,7 @@
         <v>229</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
@@ -3717,16 +3757,16 @@
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>227</v>
@@ -3735,7 +3775,7 @@
         <v>227</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
@@ -3744,25 +3784,25 @@
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -3771,16 +3811,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>228</v>
@@ -3790,7 +3830,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -3799,25 +3839,25 @@
     </row>
     <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>250</v>
@@ -3829,22 +3869,22 @@
     </row>
     <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>250</v>
@@ -3856,25 +3896,25 @@
     </row>
     <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>120</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>250</v>
@@ -3886,25 +3926,25 @@
     </row>
     <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>250</v>
@@ -3916,25 +3956,25 @@
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>250</v>
@@ -3946,25 +3986,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>123</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>250</v>
@@ -3976,16 +4016,16 @@
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>124</v>
@@ -3994,7 +4034,7 @@
         <v>124</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>250</v>
@@ -4006,16 +4046,16 @@
     </row>
     <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>125</v>
@@ -4024,7 +4064,7 @@
         <v>125</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>250</v>
@@ -4036,16 +4076,16 @@
     </row>
     <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>126</v>
@@ -4054,7 +4094,7 @@
         <v>126</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>250</v>
@@ -4066,25 +4106,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>127</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>250</v>
@@ -4096,25 +4136,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>128</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>250</v>
@@ -4126,16 +4166,16 @@
     </row>
     <row r="48" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>129</v>
@@ -4144,7 +4184,7 @@
         <v>129</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>250</v>
@@ -4156,16 +4196,16 @@
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>112</v>
@@ -4174,7 +4214,7 @@
         <v>112</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>250</v>
@@ -4186,16 +4226,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>130</v>
@@ -4204,7 +4244,7 @@
         <v>130</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>250</v>
@@ -4216,16 +4256,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>131</v>
@@ -4234,7 +4274,7 @@
         <v>131</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>250</v>
@@ -4244,15 +4284,15 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>102</v>
@@ -4271,15 +4311,15 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>102</v>
@@ -4298,15 +4338,15 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>102</v>
@@ -4325,15 +4365,15 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>102</v>
@@ -4352,18 +4392,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>110</v>
@@ -4379,24 +4419,24 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>252</v>
@@ -4406,18 +4446,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>111</v>
@@ -4433,18 +4473,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>112</v>
@@ -4460,18 +4500,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>113</v>
@@ -4487,18 +4527,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>114</v>
@@ -4514,18 +4554,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>115</v>
@@ -4541,18 +4581,18 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/crossTheme</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>107</v>
@@ -4568,18 +4608,18 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>108</v>
@@ -4595,18 +4635,18 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>108</v>
@@ -4628,17 +4668,17 @@
         <v>101</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>393</v>
+        <v>506</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -4651,17 +4691,17 @@
         <v>101</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
@@ -4674,17 +4714,17 @@
         <v>101</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F68" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="0"/>
@@ -4697,17 +4737,17 @@
         <v>101</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="0"/>
@@ -4720,17 +4760,17 @@
         <v>101</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="0"/>
@@ -4741,17 +4781,17 @@
       <c r="A71" s="1"/>
       <c r="B71" s="21"/>
       <c r="C71" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F71" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="0"/>
@@ -4762,17 +4802,17 @@
       <c r="A72" s="1"/>
       <c r="B72" s="21"/>
       <c r="C72" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F72" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
@@ -4783,17 +4823,17 @@
       <c r="A73" s="1"/>
       <c r="B73" s="21"/>
       <c r="C73" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" t="s">
+        <v>414</v>
+      </c>
+      <c r="F73" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="F73" t="s">
-        <v>416</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="0"/>
@@ -4804,17 +4844,17 @@
       <c r="A74" s="1"/>
       <c r="B74" s="21"/>
       <c r="C74" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F74" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="0"/>
@@ -4827,17 +4867,17 @@
         <v>101</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F75" t="s">
-        <v>398</v>
+        <v>507</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="0"/>
@@ -4850,20 +4890,20 @@
         <v>101</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="0"/>
@@ -4876,20 +4916,20 @@
         <v>101</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F77" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="0"/>
@@ -4902,20 +4942,20 @@
         <v>101</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F78" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G78" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="0"/>
@@ -4928,20 +4968,20 @@
         <v>101</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G79" t="s">
+        <v>405</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>409</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="0"/>
@@ -4954,33 +4994,33 @@
         <v>101</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
       <c r="G80" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ContainerLeidingElementTypeValue/technischGebouw</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" t="s">
@@ -4990,25 +5030,25 @@
         <v>131</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BuisleidingenType/overig</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>109</v>
@@ -5026,16 +5066,16 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>68</v>
@@ -5056,16 +5096,16 @@
     </row>
     <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>69</v>
@@ -5086,16 +5126,16 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>242</v>
@@ -5116,19 +5156,19 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>224</v>
@@ -5144,21 +5184,21 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F87" s="16" t="s">
         <v>3</v>
@@ -5167,28 +5207,28 @@
         <v>3</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>5</v>
@@ -5197,25 +5237,25 @@
         <v>5</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>12</v>
@@ -5227,28 +5267,28 @@
         <v>12</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>17</v>
@@ -5257,28 +5297,28 @@
         <v>17</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>18</v>
@@ -5287,28 +5327,28 @@
         <v>18</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" ref="I91:I154" si="2">IF(B91="inspire",INSPIRE,IMKL) &amp; H91 &amp; "/" &amp; E91</f>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>21</v>
@@ -5317,28 +5357,28 @@
         <v>21</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F93" s="16" t="s">
         <v>26</v>
@@ -5347,7 +5387,7 @@
         <v>26</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="2"/>
@@ -5356,22 +5396,22 @@
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>254</v>
@@ -5383,22 +5423,22 @@
     </row>
     <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>254</v>
@@ -5410,25 +5450,25 @@
     </row>
     <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E96" s="34" t="s">
         <v>78</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>254</v>
@@ -5440,25 +5480,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E97" s="34" t="s">
         <v>79</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>254</v>
@@ -5470,25 +5510,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>271</v>
+        <v>511</v>
       </c>
       <c r="G98" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>254</v>
@@ -5500,25 +5540,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B99" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>356</v>
+        <v>512</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>254</v>
@@ -5530,16 +5570,16 @@
     </row>
     <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>239</v>
@@ -5560,16 +5600,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>29</v>
@@ -5590,16 +5630,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>30</v>
@@ -5620,16 +5660,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D103" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>187</v>
@@ -5650,16 +5690,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>69</v>
@@ -5680,22 +5720,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D105" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>188</v>
@@ -5710,16 +5750,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D106" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>238</v>
@@ -5740,16 +5780,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>230</v>
@@ -5770,25 +5810,25 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>255</v>
@@ -5800,16 +5840,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D109" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>189</v>
@@ -5830,16 +5870,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E110" s="13" t="s">
         <v>190</v>
@@ -5860,13 +5900,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>132</v>
@@ -5881,7 +5921,7 @@
         <v>133</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="2"/>
@@ -5890,13 +5930,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>132</v>
@@ -5911,7 +5951,7 @@
         <v>134</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="2"/>
@@ -5920,13 +5960,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>132</v>
@@ -5941,7 +5981,7 @@
         <v>135</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="2"/>
@@ -5950,22 +5990,22 @@
     </row>
     <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>255</v>
@@ -5977,28 +6017,28 @@
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G115" s="19" t="s">
         <v>218</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="2"/>
@@ -6007,28 +6047,28 @@
     </row>
     <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>261</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="2"/>
@@ -6037,28 +6077,28 @@
     </row>
     <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>313</v>
+        <v>513</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>219</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="2"/>
@@ -6067,28 +6107,28 @@
     </row>
     <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>232</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="2"/>
@@ -6097,28 +6137,28 @@
     </row>
     <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>233</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="2"/>
@@ -6127,28 +6167,28 @@
     </row>
     <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>234</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="2"/>
@@ -6157,28 +6197,28 @@
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>316</v>
+        <v>514</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>235</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="2"/>
@@ -6187,28 +6227,28 @@
     </row>
     <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>236</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="2"/>
@@ -6217,28 +6257,28 @@
     </row>
     <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>237</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="2"/>
@@ -6247,19 +6287,19 @@
     </row>
     <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F124" s="20" t="s">
         <v>220</v>
@@ -6268,7 +6308,7 @@
         <v>220</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="2"/>
@@ -6277,28 +6317,28 @@
     </row>
     <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G125" s="15" t="s">
         <v>214</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="2"/>
@@ -6307,28 +6347,28 @@
     </row>
     <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G126" s="15" t="s">
         <v>217</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="2"/>
@@ -6337,28 +6377,28 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>215</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="2"/>
@@ -6367,28 +6407,28 @@
     </row>
     <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G128" s="13" t="s">
         <v>216</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="2"/>
@@ -6397,16 +6437,16 @@
     </row>
     <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>239</v>
@@ -6418,7 +6458,7 @@
         <v>239</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="2"/>
@@ -6427,16 +6467,16 @@
     </row>
     <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>240</v>
@@ -6448,7 +6488,7 @@
         <v>240</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="2"/>
@@ -6457,16 +6497,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>221</v>
@@ -6478,7 +6518,7 @@
         <v>221</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="2"/>
@@ -6487,16 +6527,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>222</v>
@@ -6508,7 +6548,7 @@
         <v>222</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
@@ -6517,16 +6557,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>223</v>
@@ -6538,7 +6578,7 @@
         <v>223</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
@@ -6547,16 +6587,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>241</v>
@@ -6568,7 +6608,7 @@
         <v>241</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
@@ -6577,16 +6617,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>242</v>
@@ -6598,7 +6638,7 @@
         <v>242</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
@@ -6607,28 +6647,28 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
@@ -6637,16 +6677,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>71</v>
@@ -6658,7 +6698,7 @@
         <v>71</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
@@ -6667,16 +6707,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>72</v>
@@ -6688,7 +6728,7 @@
         <v>72</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
@@ -6697,16 +6737,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>60</v>
@@ -6718,7 +6758,7 @@
         <v>60</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
@@ -6727,16 +6767,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>73</v>
@@ -6748,7 +6788,7 @@
         <v>73</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
@@ -6757,16 +6797,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>76</v>
@@ -6778,7 +6818,7 @@
         <v>76</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
@@ -6787,16 +6827,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>77</v>
@@ -6808,7 +6848,7 @@
         <v>77</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="2"/>
@@ -6817,79 +6857,79 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="G143" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="2"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E144" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E145" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F145" s="18" t="s">
         <v>50</v>
@@ -6898,58 +6938,58 @@
         <v>50</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E146" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F147" s="18" t="s">
         <v>21</v>
@@ -6958,88 +6998,88 @@
         <v>21</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E149" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E150" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F150" s="18" t="s">
         <v>56</v>
@@ -7048,85 +7088,85 @@
         <v>56</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E152" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>137</v>
@@ -7147,16 +7187,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E154" s="13" t="s">
         <v>138</v>
@@ -7168,7 +7208,7 @@
         <v>138</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="2"/>
@@ -7177,16 +7217,16 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>139</v>
@@ -7207,16 +7247,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>140</v>
@@ -7237,16 +7277,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>141</v>
@@ -7267,16 +7307,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>142</v>
@@ -7297,16 +7337,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>143</v>
@@ -7327,16 +7367,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>144</v>
@@ -7357,16 +7397,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>145</v>
@@ -7387,16 +7427,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>146</v>
@@ -7417,16 +7457,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>147</v>
@@ -7447,16 +7487,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>148</v>
@@ -7477,16 +7517,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>149</v>
@@ -7507,16 +7547,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>150</v>
@@ -7537,16 +7577,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>151</v>
@@ -7567,16 +7607,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>152</v>
@@ -7597,16 +7637,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>153</v>
@@ -7627,16 +7667,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>154</v>
@@ -7657,16 +7697,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>155</v>
@@ -7687,16 +7727,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>156</v>
@@ -7717,16 +7757,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>157</v>
@@ -7747,16 +7787,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>158</v>
@@ -7777,16 +7817,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>159</v>
@@ -7807,16 +7847,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>160</v>
@@ -7837,16 +7877,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>161</v>
@@ -7867,16 +7907,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>162</v>
@@ -7897,16 +7937,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>163</v>
@@ -7927,16 +7967,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>164</v>
@@ -7957,16 +7997,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>165</v>
@@ -7987,16 +8027,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>166</v>
@@ -8017,16 +8057,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>167</v>
@@ -8047,16 +8087,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>168</v>
@@ -8077,16 +8117,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>169</v>
@@ -8107,16 +8147,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>170</v>
@@ -8137,16 +8177,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>171</v>
@@ -8167,16 +8207,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>172</v>
@@ -8197,16 +8237,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>112</v>
@@ -8227,16 +8267,16 @@
     </row>
     <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>173</v>
@@ -8263,10 +8303,10 @@
         <v>203</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E191" s="14" t="s">
         <v>60</v>
@@ -8293,10 +8333,10 @@
         <v>203</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E192" s="15" t="s">
         <v>191</v>
@@ -8323,10 +8363,10 @@
         <v>203</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E193" s="15" t="s">
         <v>192</v>
@@ -8353,10 +8393,10 @@
         <v>203</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E194" s="15" t="s">
         <v>193</v>
@@ -8383,10 +8423,10 @@
         <v>203</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E195" s="15" t="s">
         <v>194</v>
@@ -8405,7 +8445,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>112</v>
       </c>
@@ -8413,13 +8453,13 @@
         <v>28</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E196" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>43</v>
@@ -8428,14 +8468,14 @@
         <v>43</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I196" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>112</v>
       </c>
@@ -8443,13 +8483,13 @@
         <v>28</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F197" s="16" t="s">
         <v>44</v>
@@ -8458,14 +8498,14 @@
         <v>44</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I197" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>112</v>
       </c>
@@ -8473,13 +8513,13 @@
         <v>28</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F198" s="16" t="s">
         <v>45</v>
@@ -8488,14 +8528,14 @@
         <v>45</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I198" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>112</v>
       </c>
@@ -8503,10 +8543,10 @@
         <v>28</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>46</v>
@@ -8518,14 +8558,14 @@
         <v>46</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I199" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>112</v>
       </c>
@@ -8533,13 +8573,13 @@
         <v>28</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F200" s="16" t="s">
         <v>47</v>
@@ -8548,14 +8588,14 @@
         <v>47</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I200" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>112</v>
       </c>
@@ -8563,13 +8603,13 @@
         <v>28</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F201" s="16" t="s">
         <v>2</v>
@@ -8578,14 +8618,14 @@
         <v>2</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I201" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>112</v>
       </c>
@@ -8593,13 +8633,13 @@
         <v>28</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F202" s="16" t="s">
         <v>48</v>
@@ -8608,14 +8648,14 @@
         <v>48</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I202" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>112</v>
       </c>
@@ -8623,13 +8663,13 @@
         <v>28</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F203" s="16" t="s">
         <v>49</v>
@@ -8638,14 +8678,14 @@
         <v>49</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I203" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>112</v>
       </c>
@@ -8653,13 +8693,13 @@
         <v>28</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F204" s="16" t="s">
         <v>50</v>
@@ -8668,14 +8708,14 @@
         <v>50</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I204" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>112</v>
       </c>
@@ -8683,13 +8723,13 @@
         <v>28</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F205" s="16" t="s">
         <v>51</v>
@@ -8698,14 +8738,14 @@
         <v>51</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I205" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>112</v>
       </c>
@@ -8713,13 +8753,13 @@
         <v>28</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F206" s="16" t="s">
         <v>52</v>
@@ -8728,14 +8768,14 @@
         <v>52</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I206" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>112</v>
       </c>
@@ -8743,10 +8783,10 @@
         <v>28</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>53</v>
@@ -8758,14 +8798,14 @@
         <v>53</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I207" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>112</v>
       </c>
@@ -8773,13 +8813,13 @@
         <v>28</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E208" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>54</v>
@@ -8788,14 +8828,14 @@
         <v>54</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I208" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>112</v>
       </c>
@@ -8803,13 +8843,13 @@
         <v>28</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E209" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F209" s="16" t="s">
         <v>55</v>
@@ -8818,14 +8858,14 @@
         <v>55</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I209" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>112</v>
       </c>
@@ -8833,13 +8873,13 @@
         <v>28</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E210" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F210" s="16" t="s">
         <v>56</v>
@@ -8848,14 +8888,14 @@
         <v>56</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I210" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>112</v>
       </c>
@@ -8863,13 +8903,13 @@
         <v>28</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F211" s="16" t="s">
         <v>57</v>
@@ -8878,14 +8918,14 @@
         <v>57</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I211" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>112</v>
       </c>
@@ -8893,13 +8933,13 @@
         <v>28</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E212" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F212" s="16" t="s">
         <v>58</v>
@@ -8908,7 +8948,7 @@
         <v>58</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I212" t="str">
         <f t="shared" si="3"/>
@@ -8923,10 +8963,10 @@
         <v>203</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E213" s="22" t="s">
         <v>195</v>
@@ -8953,10 +8993,10 @@
         <v>203</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E214" s="22" t="s">
         <v>196</v>
@@ -8975,7 +9015,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>112</v>
       </c>
@@ -8983,10 +9023,10 @@
         <v>28</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E215" s="15" t="s">
         <v>174</v>
@@ -9005,7 +9045,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>112</v>
       </c>
@@ -9013,10 +9053,10 @@
         <v>28</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E216" s="15" t="s">
         <v>175</v>
@@ -9035,7 +9075,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>112</v>
       </c>
@@ -9043,10 +9083,10 @@
         <v>28</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E217" s="15" t="s">
         <v>176</v>
@@ -9065,7 +9105,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>112</v>
       </c>
@@ -9073,10 +9113,10 @@
         <v>28</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E218" s="15" t="s">
         <v>177</v>
@@ -9101,17 +9141,17 @@
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="G219" s="30" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>257</v>
@@ -9123,23 +9163,26 @@
     </row>
     <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B220" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="30" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F220" s="30" t="s">
-        <v>428</v>
+        <v>426</v>
+      </c>
+      <c r="G220" s="30" t="s">
+        <v>426</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I220" t="str">
         <f t="shared" si="4"/>
@@ -9148,23 +9191,26 @@
     </row>
     <row r="221" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B221" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F221" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
+      </c>
+      <c r="G221" s="30" t="s">
+        <v>427</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="4"/>
@@ -9173,23 +9219,26 @@
     </row>
     <row r="222" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B222" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F222" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="G222" s="30" t="s">
+        <v>428</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I222" t="str">
         <f t="shared" si="4"/>
@@ -9198,23 +9247,26 @@
     </row>
     <row r="223" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F223" s="30" t="s">
-        <v>431</v>
+        <v>515</v>
+      </c>
+      <c r="G223" s="30" t="s">
+        <v>515</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I223" t="str">
         <f t="shared" si="4"/>
@@ -9223,23 +9275,26 @@
     </row>
     <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B224" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="G224" s="30" t="s">
+        <v>430</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I224" t="str">
         <f t="shared" si="4"/>
@@ -9248,23 +9303,26 @@
     </row>
     <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B225" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
+      </c>
+      <c r="G225" s="30" t="s">
+        <v>431</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="4"/>
@@ -9273,23 +9331,26 @@
     </row>
     <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B226" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F226" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="G226" s="30" t="s">
+        <v>432</v>
       </c>
       <c r="H226" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I226" t="str">
         <f t="shared" si="4"/>
@@ -9298,23 +9359,26 @@
     </row>
     <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B227" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F227" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
+      </c>
+      <c r="G227" s="30" t="s">
+        <v>433</v>
       </c>
       <c r="H227" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I227" t="str">
         <f t="shared" si="4"/>
@@ -9323,23 +9387,26 @@
     </row>
     <row r="228" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B228" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F228" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="G228" s="30" t="s">
+        <v>434</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I228" t="str">
         <f t="shared" si="4"/>
@@ -9348,23 +9415,26 @@
     </row>
     <row r="229" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B229" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F229" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G229" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="H229" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="F229" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="H229" s="30" t="s">
-        <v>439</v>
       </c>
       <c r="I229" t="str">
         <f t="shared" si="4"/>
@@ -9373,23 +9443,26 @@
     </row>
     <row r="230" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B230" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F230" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="G230" s="30" t="s">
+        <v>335</v>
       </c>
       <c r="H230" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I230" t="str">
         <f t="shared" si="4"/>
@@ -9398,23 +9471,26 @@
     </row>
     <row r="231" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F231" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="G231" s="30" t="s">
+        <v>436</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I231" t="str">
         <f t="shared" si="4"/>
@@ -9423,16 +9499,16 @@
     </row>
     <row r="232" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B232" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E232" s="23" t="s">
         <v>197</v>
@@ -9453,16 +9529,16 @@
     </row>
     <row r="233" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B233" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E233" s="24" t="s">
         <v>201</v>
@@ -9483,16 +9559,16 @@
     </row>
     <row r="234" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B234" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E234" s="24" t="s">
         <v>199</v>
@@ -9513,16 +9589,16 @@
     </row>
     <row r="235" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B235" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E235" s="24" t="s">
         <v>200</v>
@@ -9543,16 +9619,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B236" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E236" s="25" t="s">
         <v>202</v>
@@ -9573,16 +9649,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B237" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E237" s="25" t="s">
         <v>198</v>
@@ -9601,21 +9677,21 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B238" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E238" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F238" s="16" t="s">
         <v>59</v>
@@ -9624,28 +9700,28 @@
         <v>59</v>
       </c>
       <c r="H238" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I238" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B239" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E239" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F239" s="16" t="s">
         <v>60</v>
@@ -9654,28 +9730,28 @@
         <v>60</v>
       </c>
       <c r="H239" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I239" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B240" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E240" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F240" s="16" t="s">
         <v>62</v>
@@ -9684,28 +9760,28 @@
         <v>62</v>
       </c>
       <c r="H240" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I240" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B241" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E241" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F241" s="16" t="s">
         <v>63</v>
@@ -9714,28 +9790,28 @@
         <v>63</v>
       </c>
       <c r="H241" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I241" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B242" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E242" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F242" s="16" t="s">
         <v>67</v>
@@ -9744,28 +9820,28 @@
         <v>67</v>
       </c>
       <c r="H242" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I242" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B243" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E243" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F243" s="16" t="s">
         <v>64</v>
@@ -9774,7 +9850,7 @@
         <v>64</v>
       </c>
       <c r="H243" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I243" t="str">
         <f t="shared" si="4"/>
@@ -9783,16 +9859,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>81</v>
@@ -9811,21 +9887,21 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D245" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E245" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F245" s="11" t="s">
         <v>65</v>
@@ -9834,28 +9910,28 @@
         <v>65</v>
       </c>
       <c r="H245" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I245" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D246" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E246" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>66</v>
@@ -9864,28 +9940,28 @@
         <v>66</v>
       </c>
       <c r="H246" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I246" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D247" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E247" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>61</v>
@@ -9894,25 +9970,25 @@
         <v>61</v>
       </c>
       <c r="H247" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I247" t="str">
         <f t="shared" si="4"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B248" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E248" s="26" t="s">
         <v>178</v>
@@ -9931,18 +10007,18 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B249" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>179</v>
@@ -9961,18 +10037,18 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B250" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E250" s="26" t="s">
         <v>180</v>
@@ -9991,18 +10067,18 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E251" s="26" t="s">
         <v>181</v>
@@ -10023,22 +10099,22 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D252" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E252" s="31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F252" s="31" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="G252" s="31" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="H252" s="8" t="s">
         <v>259</v>
@@ -10056,16 +10132,16 @@
         <v>203</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D253" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G253" s="10" t="s">
         <v>205</v>
@@ -10086,16 +10162,16 @@
         <v>203</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D254" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G254" s="10" t="s">
         <v>209</v>
@@ -10116,13 +10192,13 @@
         <v>203</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D255" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F255" s="10" t="s">
         <v>211</v>
@@ -10146,10 +10222,10 @@
         <v>203</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D256" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E256" s="10" t="s">
         <v>56</v>
@@ -10176,10 +10252,10 @@
         <v>203</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D257" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E257" s="10" t="s">
         <v>212</v>
@@ -10203,10 +10279,10 @@
         <v>129</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D258" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H258" s="8" t="s">
         <v>259</v>
@@ -10224,16 +10300,16 @@
         <v>203</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D259" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G259" s="10" t="s">
         <v>206</v>
@@ -10246,7 +10322,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>129</v>
       </c>
@@ -10254,16 +10330,16 @@
         <v>203</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D260" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E260" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F260" s="28" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="G260" s="28" t="s">
         <v>207</v>
@@ -10284,13 +10360,13 @@
         <v>203</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D261" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F261" s="10" t="s">
         <v>208</v>
@@ -10314,16 +10390,16 @@
         <v>203</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D262" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E262" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="G262" s="10" t="s">
         <v>210</v>
@@ -10341,10 +10417,10 @@
         <v>129</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D263" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H263" s="8" t="s">
         <v>259</v>
@@ -10359,13 +10435,16 @@
         <v>129</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D264" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="F264" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="G264" s="8" t="s">
         <v>21</v>
@@ -10386,16 +10465,16 @@
         <v>203</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E265" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F265" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H265" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="4"/>
@@ -10410,7 +10489,7 @@
         <v>203</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E266" t="s">
         <v>56</v>
@@ -10419,7 +10498,7 @@
         <v>56</v>
       </c>
       <c r="H266" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I266" t="str">
         <f t="shared" si="4"/>
@@ -10434,7 +10513,7 @@
         <v>203</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E267" t="s">
         <v>212</v>
@@ -10443,7 +10522,7 @@
         <v>212</v>
       </c>
       <c r="H267" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I267" t="str">
         <f t="shared" si="4"/>
@@ -10458,16 +10537,16 @@
         <v>203</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E268" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F268" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H268" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="4"/>
@@ -10482,16 +10561,16 @@
         <v>203</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E269" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F269" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H269" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I269" t="str">
         <f t="shared" si="4"/>
@@ -10506,16 +10585,16 @@
         <v>203</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E270" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F270" t="s">
         <v>21</v>
       </c>
       <c r="H270" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I270" t="str">
         <f t="shared" ref="I270:I300" si="5">IF(B270="inspire",INSPIRE,IMKL) &amp; H270 &amp; "/" &amp; E270</f>
@@ -10527,19 +10606,19 @@
         <v>203</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E271" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F271" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G271" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H271" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="5"/>
@@ -10551,19 +10630,19 @@
         <v>203</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E272" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F272" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="G272" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H272" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I272" t="str">
         <f t="shared" si="5"/>
@@ -10575,19 +10654,19 @@
         <v>203</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E273" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F273" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G273" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H273" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I273" t="str">
         <f t="shared" si="5"/>
@@ -10599,19 +10678,19 @@
         <v>203</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E274" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F274" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G274" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H274" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I274" t="str">
         <f t="shared" si="5"/>
@@ -10623,19 +10702,19 @@
         <v>203</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E275" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F275" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G275" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H275" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I275" t="str">
         <f t="shared" si="5"/>
@@ -10647,19 +10726,19 @@
         <v>203</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E276" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F276" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="G276" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H276" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I276" t="str">
         <f t="shared" si="5"/>
@@ -10671,19 +10750,19 @@
         <v>203</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E277" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F277" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G277" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H277" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I277" t="str">
         <f t="shared" si="5"/>
@@ -10695,19 +10774,19 @@
         <v>203</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E278" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F278" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G278" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H278" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I278" t="str">
         <f t="shared" si="5"/>
@@ -10719,19 +10798,19 @@
         <v>203</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E279" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F279" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G279" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H279" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I279" t="str">
         <f t="shared" si="5"/>
@@ -10743,19 +10822,19 @@
         <v>203</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E280" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F280" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G280" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H280" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I280" t="str">
         <f t="shared" si="5"/>
@@ -10767,19 +10846,19 @@
         <v>203</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E281" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F281" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G281" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H281" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I281" t="str">
         <f t="shared" si="5"/>
@@ -10791,19 +10870,19 @@
         <v>203</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E282" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F282" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G282" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H282" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I282" t="str">
         <f t="shared" si="5"/>
@@ -10815,19 +10894,19 @@
         <v>203</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E283" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F283" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G283" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H283" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I283" t="str">
         <f t="shared" si="5"/>
@@ -10839,19 +10918,19 @@
         <v>203</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E284" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F284" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G284" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H284" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I284" t="str">
         <f t="shared" si="5"/>
@@ -10863,19 +10942,19 @@
         <v>203</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E285" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F285" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G285" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H285" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I285" t="str">
         <f t="shared" si="5"/>
@@ -10887,19 +10966,19 @@
         <v>203</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E286" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F286" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G286" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H286" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I286" t="str">
         <f t="shared" si="5"/>
@@ -10911,7 +10990,7 @@
         <v>203</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E287" t="s">
         <v>197</v>
@@ -10923,7 +11002,7 @@
         <v>197</v>
       </c>
       <c r="H287" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I287" t="str">
         <f t="shared" si="5"/>
@@ -10935,19 +11014,19 @@
         <v>203</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E288" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F288" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G288" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H288" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I288" t="str">
         <f t="shared" si="5"/>
@@ -10959,19 +11038,19 @@
         <v>203</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E289" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F289" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G289" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H289" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I289" t="str">
         <f t="shared" si="5"/>
@@ -10983,19 +11062,19 @@
         <v>203</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E290" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F290" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="G290" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H290" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I290" t="str">
         <f t="shared" si="5"/>
@@ -11007,19 +11086,19 @@
         <v>203</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E291" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F291" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G291" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H291" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I291" t="str">
         <f t="shared" si="5"/>
@@ -11031,19 +11110,19 @@
         <v>203</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E292" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F292" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G292" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H292" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I292" t="str">
         <f t="shared" si="5"/>
@@ -11055,19 +11134,19 @@
         <v>203</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E293" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F293" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G293" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H293" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I293" t="str">
         <f t="shared" si="5"/>
@@ -11079,19 +11158,19 @@
         <v>203</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E294" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F294" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G294" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H294" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I294" t="str">
         <f t="shared" si="5"/>
@@ -11103,19 +11182,19 @@
         <v>203</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E295" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F295" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G295" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H295" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I295" t="str">
         <f t="shared" si="5"/>
@@ -11127,19 +11206,19 @@
         <v>203</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E296" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F296" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G296" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H296" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I296" t="str">
         <f t="shared" si="5"/>
@@ -11151,19 +11230,19 @@
         <v>203</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E297" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F297" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G297" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H297" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I297" t="str">
         <f t="shared" si="5"/>
@@ -11175,19 +11254,19 @@
         <v>203</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E298" t="s">
+        <v>466</v>
+      </c>
+      <c r="F298" t="s">
+        <v>466</v>
+      </c>
+      <c r="G298" t="s">
+        <v>466</v>
+      </c>
+      <c r="H298" t="s">
         <v>468</v>
-      </c>
-      <c r="F298" t="s">
-        <v>468</v>
-      </c>
-      <c r="G298" t="s">
-        <v>468</v>
-      </c>
-      <c r="H298" t="s">
-        <v>470</v>
       </c>
       <c r="I298" t="str">
         <f t="shared" si="5"/>
@@ -11199,19 +11278,19 @@
         <v>203</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E299" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F299" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G299" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H299" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I299" t="str">
         <f t="shared" si="5"/>
@@ -11223,7 +11302,7 @@
         <v>203</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E300" t="s">
         <v>199</v>
@@ -11235,7 +11314,7 @@
         <v>199</v>
       </c>
       <c r="H300" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I300" t="str">
         <f t="shared" si="5"/>
@@ -11243,6 +11322,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I300">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="imkl2015"/>
+        <filter val="imkl-be"/>
+        <filter val="imkl-nl"/>
+        <filter val="imkl-nl?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:G62">
     <sortCondition ref="D2:D62"/>
     <sortCondition ref="B2:B62"/>
